--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$564</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$573</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -13492,13 +13492,13 @@
         <v>4068</v>
       </c>
       <c r="F556" s="0">
-        <v>0.570703067458842</v>
+        <v>0.57</v>
       </c>
       <c r="G556" s="0">
         <v>1935</v>
       </c>
       <c r="H556" s="0">
-        <v>0.570491861277607</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="557">
@@ -13520,13 +13520,13 @@
         <v>51777</v>
       </c>
       <c r="F557" s="0">
-        <v>7.26383793604141</v>
+        <v>7.263</v>
       </c>
       <c r="G557" s="0">
         <v>33278</v>
       </c>
       <c r="H557" s="0">
-        <v>9.8112807026337</v>
+        <v>9.811</v>
       </c>
     </row>
     <row outlineLevel="0" r="558">
@@ -13548,13 +13548,13 @@
         <v>66401</v>
       </c>
       <c r="F558" s="0">
-        <v>9.31545092977743</v>
+        <v>9.315</v>
       </c>
       <c r="G558" s="0">
         <v>44340</v>
       </c>
       <c r="H558" s="0">
-        <v>13.0726662165628</v>
+        <v>13.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="559">
@@ -13576,13 +13576,13 @@
         <v>71843</v>
       </c>
       <c r="F559" s="0">
-        <v>10.0789135878676</v>
+        <v>10.07</v>
       </c>
       <c r="G559" s="0">
         <v>46637</v>
       </c>
       <c r="H559" s="0">
-        <v>13.7498857542138</v>
+        <v>13.74</v>
       </c>
     </row>
     <row outlineLevel="0" r="560">
@@ -13604,13 +13604,13 @@
         <v>79433</v>
       </c>
       <c r="F560" s="0">
-        <v>11.1437209334951</v>
+        <v>11.14</v>
       </c>
       <c r="G560" s="0">
         <v>49616</v>
       </c>
       <c r="H560" s="0">
-        <v>14.6281778755296</v>
+        <v>14.62</v>
       </c>
     </row>
     <row outlineLevel="0" r="561">
@@ -13632,13 +13632,13 @@
         <v>94648</v>
       </c>
       <c r="F561" s="0">
-        <v>13.2782458035508</v>
+        <v>13.27</v>
       </c>
       <c r="G561" s="0">
         <v>37005</v>
       </c>
       <c r="H561" s="0">
-        <v>10.9101040447431</v>
+        <v>10.91</v>
       </c>
     </row>
     <row outlineLevel="0" r="562">
@@ -13660,13 +13660,13 @@
         <v>224476</v>
       </c>
       <c r="F562" s="0">
-        <v>31.4919227558729</v>
+        <v>31.49</v>
       </c>
       <c r="G562" s="0">
         <v>73516</v>
       </c>
       <c r="H562" s="0">
-        <v>21.6745631388551</v>
+        <v>21.67</v>
       </c>
     </row>
     <row outlineLevel="0" r="563">
@@ -13688,13 +13688,13 @@
         <v>120085</v>
       </c>
       <c r="F563" s="0">
-        <v>16.846823465043</v>
+        <v>16.84</v>
       </c>
       <c r="G563" s="0">
         <v>52841</v>
       </c>
       <c r="H563" s="0">
-        <v>15.5789976443256</v>
+        <v>15.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="564">
@@ -13716,13 +13716,265 @@
         <v>74</v>
       </c>
       <c r="F564" s="0">
-        <v>1.03815208928108E-02</v>
+        <v>0.01</v>
       </c>
       <c r="G564" s="0">
         <v>13</v>
       </c>
       <c r="H564" s="0">
-        <v>3.8327618587126E-03</v>
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="565">
+      <c r="A565" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B565" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C565" s="0">
+        <v>6078</v>
+      </c>
+      <c r="D565" s="0">
+        <v>0.568579925330619</v>
+      </c>
+      <c r="E565" s="0">
+        <v>4116</v>
+      </c>
+      <c r="F565" s="0">
+        <v>0.569168648708446</v>
+      </c>
+      <c r="G565" s="0">
+        <v>1959</v>
+      </c>
+      <c r="H565" s="0">
+        <v>0.570244253166326</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="566">
+      <c r="A566" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B566" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C566" s="0">
+        <v>85831</v>
+      </c>
+      <c r="D566" s="0">
+        <v>8.0292503407457</v>
+      </c>
+      <c r="E566" s="0">
+        <v>52173</v>
+      </c>
+      <c r="F566" s="0">
+        <v>7.21458598373804</v>
+      </c>
+      <c r="G566" s="0">
+        <v>33557</v>
+      </c>
+      <c r="H566" s="0">
+        <v>9.76808902680061</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="567">
+      <c r="A567" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B567" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C567" s="0">
+        <v>111722</v>
+      </c>
+      <c r="D567" s="0">
+        <v>10.4512810822289</v>
+      </c>
+      <c r="E567" s="0">
+        <v>66900</v>
+      </c>
+      <c r="F567" s="0">
+        <v>9.2510647712816</v>
+      </c>
+      <c r="G567" s="0">
+        <v>44621</v>
+      </c>
+      <c r="H567" s="0">
+        <v>12.9887028180371</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="568">
+      <c r="A568" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B568" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C568" s="0">
+        <v>119695</v>
+      </c>
+      <c r="D568" s="0">
+        <v>11.1971329651939</v>
+      </c>
+      <c r="E568" s="0">
+        <v>72471</v>
+      </c>
+      <c r="F568" s="0">
+        <v>10.0214337076166</v>
+      </c>
+      <c r="G568" s="0">
+        <v>46939</v>
+      </c>
+      <c r="H568" s="0">
+        <v>13.6634481875315</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="569">
+      <c r="A569" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B569" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C569" s="0">
+        <v>130542</v>
+      </c>
+      <c r="D569" s="0">
+        <v>12.211839521637</v>
+      </c>
+      <c r="E569" s="0">
+        <v>80289</v>
+      </c>
+      <c r="F569" s="0">
+        <v>11.1025222633995</v>
+      </c>
+      <c r="G569" s="0">
+        <v>49958</v>
+      </c>
+      <c r="H569" s="0">
+        <v>14.5422472688531</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="570">
+      <c r="A570" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B570" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C570" s="0">
+        <v>134867</v>
+      </c>
+      <c r="D570" s="0">
+        <v>12.616431192755</v>
+      </c>
+      <c r="E570" s="0">
+        <v>97255</v>
+      </c>
+      <c r="F570" s="0">
+        <v>13.4486144145141</v>
+      </c>
+      <c r="G570" s="0">
+        <v>37305</v>
+      </c>
+      <c r="H570" s="0">
+        <v>10.8590923248442</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="571">
+      <c r="A571" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B571" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C571" s="0">
+        <v>304526</v>
+      </c>
+      <c r="D571" s="0">
+        <v>28.487556818235</v>
+      </c>
+      <c r="E571" s="0">
+        <v>228808</v>
+      </c>
+      <c r="F571" s="0">
+        <v>31.6400243376293</v>
+      </c>
+      <c r="G571" s="0">
+        <v>75071</v>
+      </c>
+      <c r="H571" s="0">
+        <v>21.8523768909899</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="572">
+      <c r="A572" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B572" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C572" s="0">
+        <v>175633</v>
+      </c>
+      <c r="D572" s="0">
+        <v>16.4299766412624</v>
+      </c>
+      <c r="E572" s="0">
+        <v>121076</v>
+      </c>
+      <c r="F572" s="0">
+        <v>16.7426295702196</v>
+      </c>
+      <c r="G572" s="0">
+        <v>54114</v>
+      </c>
+      <c r="H572" s="0">
+        <v>15.7520150667905</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="573">
+      <c r="A573" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B573" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C573" s="0">
+        <v>85</v>
+      </c>
+      <c r="D573" s="0">
+        <v>7.95151261156674E-03</v>
+      </c>
+      <c r="E573" s="0">
+        <v>72</v>
+      </c>
+      <c r="F573" s="0">
+        <v>9.95630289285912E-03</v>
+      </c>
+      <c r="G573" s="0">
+        <v>13</v>
+      </c>
+      <c r="H573" s="0">
+        <v>3.78416298681074E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$564</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$582</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H564"/>
+  <dimension ref="A1:H582"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -13492,13 +13492,13 @@
         <v>4068</v>
       </c>
       <c r="F556" s="0">
-        <v>0.570703067458842</v>
+        <v>0.57</v>
       </c>
       <c r="G556" s="0">
         <v>1935</v>
       </c>
       <c r="H556" s="0">
-        <v>0.570491861277607</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="557">
@@ -13520,13 +13520,13 @@
         <v>51777</v>
       </c>
       <c r="F557" s="0">
-        <v>7.26383793604141</v>
+        <v>7.263</v>
       </c>
       <c r="G557" s="0">
         <v>33278</v>
       </c>
       <c r="H557" s="0">
-        <v>9.8112807026337</v>
+        <v>9.811</v>
       </c>
     </row>
     <row outlineLevel="0" r="558">
@@ -13548,13 +13548,13 @@
         <v>66401</v>
       </c>
       <c r="F558" s="0">
-        <v>9.31545092977743</v>
+        <v>9.315</v>
       </c>
       <c r="G558" s="0">
         <v>44340</v>
       </c>
       <c r="H558" s="0">
-        <v>13.0726662165628</v>
+        <v>13.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="559">
@@ -13576,13 +13576,13 @@
         <v>71843</v>
       </c>
       <c r="F559" s="0">
-        <v>10.0789135878676</v>
+        <v>10.07</v>
       </c>
       <c r="G559" s="0">
         <v>46637</v>
       </c>
       <c r="H559" s="0">
-        <v>13.7498857542138</v>
+        <v>13.74</v>
       </c>
     </row>
     <row outlineLevel="0" r="560">
@@ -13604,13 +13604,13 @@
         <v>79433</v>
       </c>
       <c r="F560" s="0">
-        <v>11.1437209334951</v>
+        <v>11.14</v>
       </c>
       <c r="G560" s="0">
         <v>49616</v>
       </c>
       <c r="H560" s="0">
-        <v>14.6281778755296</v>
+        <v>14.62</v>
       </c>
     </row>
     <row outlineLevel="0" r="561">
@@ -13632,13 +13632,13 @@
         <v>94648</v>
       </c>
       <c r="F561" s="0">
-        <v>13.2782458035508</v>
+        <v>13.27</v>
       </c>
       <c r="G561" s="0">
         <v>37005</v>
       </c>
       <c r="H561" s="0">
-        <v>10.9101040447431</v>
+        <v>10.91</v>
       </c>
     </row>
     <row outlineLevel="0" r="562">
@@ -13660,13 +13660,13 @@
         <v>224476</v>
       </c>
       <c r="F562" s="0">
-        <v>31.4919227558729</v>
+        <v>31.49</v>
       </c>
       <c r="G562" s="0">
         <v>73516</v>
       </c>
       <c r="H562" s="0">
-        <v>21.6745631388551</v>
+        <v>21.67</v>
       </c>
     </row>
     <row outlineLevel="0" r="563">
@@ -13688,13 +13688,13 @@
         <v>120085</v>
       </c>
       <c r="F563" s="0">
-        <v>16.846823465043</v>
+        <v>16.84</v>
       </c>
       <c r="G563" s="0">
         <v>52841</v>
       </c>
       <c r="H563" s="0">
-        <v>15.5789976443256</v>
+        <v>15.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="564">
@@ -13716,13 +13716,517 @@
         <v>74</v>
       </c>
       <c r="F564" s="0">
-        <v>1.03815208928108E-02</v>
+        <v>0.01</v>
       </c>
       <c r="G564" s="0">
         <v>13</v>
       </c>
       <c r="H564" s="0">
-        <v>3.8327618587126E-03</v>
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="565">
+      <c r="A565" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B565" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C565" s="0">
+        <v>6078</v>
+      </c>
+      <c r="D565" s="0">
+        <v>0.568579925330619</v>
+      </c>
+      <c r="E565" s="0">
+        <v>4116</v>
+      </c>
+      <c r="F565" s="0">
+        <v>0.569</v>
+      </c>
+      <c r="G565" s="0">
+        <v>1959</v>
+      </c>
+      <c r="H565" s="0">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="566">
+      <c r="A566" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B566" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C566" s="0">
+        <v>85831</v>
+      </c>
+      <c r="D566" s="0">
+        <v>8.0292503407457</v>
+      </c>
+      <c r="E566" s="0">
+        <v>52173</v>
+      </c>
+      <c r="F566" s="0">
+        <v>7.214</v>
+      </c>
+      <c r="G566" s="0">
+        <v>33557</v>
+      </c>
+      <c r="H566" s="0">
+        <v>9.768</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="567">
+      <c r="A567" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B567" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C567" s="0">
+        <v>111722</v>
+      </c>
+      <c r="D567" s="0">
+        <v>10.4512810822289</v>
+      </c>
+      <c r="E567" s="0">
+        <v>66900</v>
+      </c>
+      <c r="F567" s="0">
+        <v>9.251</v>
+      </c>
+      <c r="G567" s="0">
+        <v>44621</v>
+      </c>
+      <c r="H567" s="0">
+        <v>12.98</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="568">
+      <c r="A568" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B568" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C568" s="0">
+        <v>119695</v>
+      </c>
+      <c r="D568" s="0">
+        <v>11.1971329651939</v>
+      </c>
+      <c r="E568" s="0">
+        <v>72471</v>
+      </c>
+      <c r="F568" s="0">
+        <v>10.02</v>
+      </c>
+      <c r="G568" s="0">
+        <v>46939</v>
+      </c>
+      <c r="H568" s="0">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="569">
+      <c r="A569" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B569" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C569" s="0">
+        <v>130542</v>
+      </c>
+      <c r="D569" s="0">
+        <v>12.211839521637</v>
+      </c>
+      <c r="E569" s="0">
+        <v>80289</v>
+      </c>
+      <c r="F569" s="0">
+        <v>11.1</v>
+      </c>
+      <c r="G569" s="0">
+        <v>49958</v>
+      </c>
+      <c r="H569" s="0">
+        <v>14.54</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="570">
+      <c r="A570" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B570" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C570" s="0">
+        <v>134867</v>
+      </c>
+      <c r="D570" s="0">
+        <v>12.616431192755</v>
+      </c>
+      <c r="E570" s="0">
+        <v>97255</v>
+      </c>
+      <c r="F570" s="0">
+        <v>13.44</v>
+      </c>
+      <c r="G570" s="0">
+        <v>37305</v>
+      </c>
+      <c r="H570" s="0">
+        <v>10.85</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="571">
+      <c r="A571" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B571" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C571" s="0">
+        <v>304526</v>
+      </c>
+      <c r="D571" s="0">
+        <v>28.487556818235</v>
+      </c>
+      <c r="E571" s="0">
+        <v>228808</v>
+      </c>
+      <c r="F571" s="0">
+        <v>31.64</v>
+      </c>
+      <c r="G571" s="0">
+        <v>75071</v>
+      </c>
+      <c r="H571" s="0">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="572">
+      <c r="A572" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B572" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C572" s="0">
+        <v>175633</v>
+      </c>
+      <c r="D572" s="0">
+        <v>16.4299766412624</v>
+      </c>
+      <c r="E572" s="0">
+        <v>121076</v>
+      </c>
+      <c r="F572" s="0">
+        <v>16.74</v>
+      </c>
+      <c r="G572" s="0">
+        <v>54114</v>
+      </c>
+      <c r="H572" s="0">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="573">
+      <c r="A573" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B573" s="1">
+        <v>44245</v>
+      </c>
+      <c r="C573" s="0">
+        <v>85</v>
+      </c>
+      <c r="D573" s="0">
+        <v>7.95151261156674E-03</v>
+      </c>
+      <c r="E573" s="0">
+        <v>72</v>
+      </c>
+      <c r="F573" s="0">
+        <v>0.009</v>
+      </c>
+      <c r="G573" s="0">
+        <v>13</v>
+      </c>
+      <c r="H573" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="574">
+      <c r="A574" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B574" s="1">
+        <v>44246</v>
+      </c>
+      <c r="C574" s="0">
+        <v>6171</v>
+      </c>
+      <c r="D574" s="0">
+        <v>0.568660372177202</v>
+      </c>
+      <c r="E574" s="0">
+        <v>4153</v>
+      </c>
+      <c r="F574" s="0">
+        <v>0.567933177253134</v>
+      </c>
+      <c r="G574" s="0">
+        <v>2015</v>
+      </c>
+      <c r="H574" s="0">
+        <v>0.572766990429248</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="575">
+      <c r="A575" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B575" s="1">
+        <v>44246</v>
+      </c>
+      <c r="C575" s="0">
+        <v>86528</v>
+      </c>
+      <c r="D575" s="0">
+        <v>7.97359336959146</v>
+      </c>
+      <c r="E575" s="0">
+        <v>52445</v>
+      </c>
+      <c r="F575" s="0">
+        <v>7.17198542765245</v>
+      </c>
+      <c r="G575" s="0">
+        <v>33988</v>
+      </c>
+      <c r="H575" s="0">
+        <v>9.66114365792024</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="576">
+      <c r="A576" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B576" s="1">
+        <v>44246</v>
+      </c>
+      <c r="C576" s="0">
+        <v>112563</v>
+      </c>
+      <c r="D576" s="0">
+        <v>10.372730104259</v>
+      </c>
+      <c r="E576" s="0">
+        <v>67273</v>
+      </c>
+      <c r="F576" s="0">
+        <v>9.19975165744043</v>
+      </c>
+      <c r="G576" s="0">
+        <v>45095</v>
+      </c>
+      <c r="H576" s="0">
+        <v>12.8183262696809</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="577">
+      <c r="A577" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B577" s="1">
+        <v>44246</v>
+      </c>
+      <c r="C577" s="0">
+        <v>120696</v>
+      </c>
+      <c r="D577" s="0">
+        <v>11.1221896419218</v>
+      </c>
+      <c r="E577" s="0">
+        <v>72963</v>
+      </c>
+      <c r="F577" s="0">
+        <v>9.97787344375643</v>
+      </c>
+      <c r="G577" s="0">
+        <v>47460</v>
+      </c>
+      <c r="H577" s="0">
+        <v>13.4905813229638</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="578">
+      <c r="A578" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B578" s="1">
+        <v>44246</v>
+      </c>
+      <c r="C578" s="0">
+        <v>131839</v>
+      </c>
+      <c r="D578" s="0">
+        <v>12.1490220073683</v>
+      </c>
+      <c r="E578" s="0">
+        <v>80992</v>
+      </c>
+      <c r="F578" s="0">
+        <v>11.0758593527777</v>
+      </c>
+      <c r="G578" s="0">
+        <v>50580</v>
+      </c>
+      <c r="H578" s="0">
+        <v>14.3774463404027</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="579">
+      <c r="A579" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B579" s="1">
+        <v>44246</v>
+      </c>
+      <c r="C579" s="0">
+        <v>137815</v>
+      </c>
+      <c r="D579" s="0">
+        <v>12.6997130435263</v>
+      </c>
+      <c r="E579" s="0">
+        <v>99444</v>
+      </c>
+      <c r="F579" s="0">
+        <v>13.5992166816183</v>
+      </c>
+      <c r="G579" s="0">
+        <v>38070</v>
+      </c>
+      <c r="H579" s="0">
+        <v>10.8214587224027</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="580">
+      <c r="A580" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B580" s="1">
+        <v>44246</v>
+      </c>
+      <c r="C580" s="0">
+        <v>310693</v>
+      </c>
+      <c r="D580" s="0">
+        <v>28.6304970041892</v>
+      </c>
+      <c r="E580" s="0">
+        <v>232110</v>
+      </c>
+      <c r="F580" s="0">
+        <v>31.7416252762401</v>
+      </c>
+      <c r="G580" s="0">
+        <v>77987</v>
+      </c>
+      <c r="H580" s="0">
+        <v>22.1679301650649</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="581">
+      <c r="A581" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B581" s="1">
+        <v>44246</v>
+      </c>
+      <c r="C581" s="0">
+        <v>178791</v>
+      </c>
+      <c r="D581" s="0">
+        <v>16.47566951903</v>
+      </c>
+      <c r="E581" s="0">
+        <v>121795</v>
+      </c>
+      <c r="F581" s="0">
+        <v>16.6557720499748</v>
+      </c>
+      <c r="G581" s="0">
+        <v>56593</v>
+      </c>
+      <c r="H581" s="0">
+        <v>16.0866512602295</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="582">
+      <c r="A582" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B582" s="1">
+        <v>44246</v>
+      </c>
+      <c r="C582" s="0">
+        <v>86</v>
+      </c>
+      <c r="D582" s="0">
+        <v>7.9249379366779E-03</v>
+      </c>
+      <c r="E582" s="0">
+        <v>73</v>
+      </c>
+      <c r="F582" s="0">
+        <v>9.98293328665514E-03</v>
+      </c>
+      <c r="G582" s="0">
+        <v>13</v>
+      </c>
+      <c r="H582" s="0">
+        <v>3.69527090599515E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$582</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$591</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H582"/>
+  <dimension ref="A1:H591"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -13996,13 +13996,13 @@
         <v>4153</v>
       </c>
       <c r="F574" s="0">
-        <v>0.567933177253134</v>
+        <v>0.567</v>
       </c>
       <c r="G574" s="0">
         <v>2015</v>
       </c>
       <c r="H574" s="0">
-        <v>0.572766990429248</v>
+        <v>0.572</v>
       </c>
     </row>
     <row outlineLevel="0" r="575">
@@ -14024,13 +14024,13 @@
         <v>52445</v>
       </c>
       <c r="F575" s="0">
-        <v>7.17198542765245</v>
+        <v>7.171</v>
       </c>
       <c r="G575" s="0">
         <v>33988</v>
       </c>
       <c r="H575" s="0">
-        <v>9.66114365792024</v>
+        <v>9.661</v>
       </c>
     </row>
     <row outlineLevel="0" r="576">
@@ -14052,13 +14052,13 @@
         <v>67273</v>
       </c>
       <c r="F576" s="0">
-        <v>9.19975165744043</v>
+        <v>9.199</v>
       </c>
       <c r="G576" s="0">
         <v>45095</v>
       </c>
       <c r="H576" s="0">
-        <v>12.8183262696809</v>
+        <v>12.81</v>
       </c>
     </row>
     <row outlineLevel="0" r="577">
@@ -14080,13 +14080,13 @@
         <v>72963</v>
       </c>
       <c r="F577" s="0">
-        <v>9.97787344375643</v>
+        <v>9.977</v>
       </c>
       <c r="G577" s="0">
         <v>47460</v>
       </c>
       <c r="H577" s="0">
-        <v>13.4905813229638</v>
+        <v>13.49</v>
       </c>
     </row>
     <row outlineLevel="0" r="578">
@@ -14108,13 +14108,13 @@
         <v>80992</v>
       </c>
       <c r="F578" s="0">
-        <v>11.0758593527777</v>
+        <v>11.07</v>
       </c>
       <c r="G578" s="0">
         <v>50580</v>
       </c>
       <c r="H578" s="0">
-        <v>14.3774463404027</v>
+        <v>14.37</v>
       </c>
     </row>
     <row outlineLevel="0" r="579">
@@ -14136,13 +14136,13 @@
         <v>99444</v>
       </c>
       <c r="F579" s="0">
-        <v>13.5992166816183</v>
+        <v>13.59</v>
       </c>
       <c r="G579" s="0">
         <v>38070</v>
       </c>
       <c r="H579" s="0">
-        <v>10.8214587224027</v>
+        <v>10.82</v>
       </c>
     </row>
     <row outlineLevel="0" r="580">
@@ -14164,13 +14164,13 @@
         <v>232110</v>
       </c>
       <c r="F580" s="0">
-        <v>31.7416252762401</v>
+        <v>31.74</v>
       </c>
       <c r="G580" s="0">
         <v>77987</v>
       </c>
       <c r="H580" s="0">
-        <v>22.1679301650649</v>
+        <v>22.16</v>
       </c>
     </row>
     <row outlineLevel="0" r="581">
@@ -14192,13 +14192,13 @@
         <v>121795</v>
       </c>
       <c r="F581" s="0">
-        <v>16.6557720499748</v>
+        <v>16.65</v>
       </c>
       <c r="G581" s="0">
         <v>56593</v>
       </c>
       <c r="H581" s="0">
-        <v>16.0866512602295</v>
+        <v>16.08</v>
       </c>
     </row>
     <row outlineLevel="0" r="582">
@@ -14220,13 +14220,265 @@
         <v>73</v>
       </c>
       <c r="F582" s="0">
-        <v>9.98293328665514E-03</v>
+        <v>0.009</v>
       </c>
       <c r="G582" s="0">
         <v>13</v>
       </c>
       <c r="H582" s="0">
-        <v>3.69527090599515E-03</v>
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="583">
+      <c r="A583" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B583" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C583" s="0">
+        <v>6290</v>
+      </c>
+      <c r="D583" s="0">
+        <v>0.572218734932635</v>
+      </c>
+      <c r="E583" s="0">
+        <v>4186</v>
+      </c>
+      <c r="F583" s="0">
+        <v>0.567677121093151</v>
+      </c>
+      <c r="G583" s="0">
+        <v>2100</v>
+      </c>
+      <c r="H583" s="0">
+        <v>0.583845820219971</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="584">
+      <c r="A584" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B584" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C584" s="0">
+        <v>87225</v>
+      </c>
+      <c r="D584" s="0">
+        <v>7.93510002456265</v>
+      </c>
+      <c r="E584" s="0">
+        <v>52689</v>
+      </c>
+      <c r="F584" s="0">
+        <v>7.14532724158554</v>
+      </c>
+      <c r="G584" s="0">
+        <v>34439</v>
+      </c>
+      <c r="H584" s="0">
+        <v>9.57479342978837</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="585">
+      <c r="A585" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B585" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C585" s="0">
+        <v>113362</v>
+      </c>
+      <c r="D585" s="0">
+        <v>10.31285536239</v>
+      </c>
+      <c r="E585" s="0">
+        <v>67546</v>
+      </c>
+      <c r="F585" s="0">
+        <v>9.16013349769661</v>
+      </c>
+      <c r="G585" s="0">
+        <v>45620</v>
+      </c>
+      <c r="H585" s="0">
+        <v>12.683355389731</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="586">
+      <c r="A586" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B586" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C586" s="0">
+        <v>121643</v>
+      </c>
+      <c r="D586" s="0">
+        <v>11.0662008860748</v>
+      </c>
+      <c r="E586" s="0">
+        <v>73290</v>
+      </c>
+      <c r="F586" s="0">
+        <v>9.93909608335334</v>
+      </c>
+      <c r="G586" s="0">
+        <v>48081</v>
+      </c>
+      <c r="H586" s="0">
+        <v>13.367567086665</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="587">
+      <c r="A587" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B587" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C587" s="0">
+        <v>133052</v>
+      </c>
+      <c r="D587" s="0">
+        <v>12.1041092401044</v>
+      </c>
+      <c r="E587" s="0">
+        <v>81462</v>
+      </c>
+      <c r="F587" s="0">
+        <v>11.0473276728357</v>
+      </c>
+      <c r="G587" s="0">
+        <v>51321</v>
+      </c>
+      <c r="H587" s="0">
+        <v>14.2683577807186</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="588">
+      <c r="A588" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B588" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C588" s="0">
+        <v>140309</v>
+      </c>
+      <c r="D588" s="0">
+        <v>12.7642986454154</v>
+      </c>
+      <c r="E588" s="0">
+        <v>101167</v>
+      </c>
+      <c r="F588" s="0">
+        <v>13.7195870304899</v>
+      </c>
+      <c r="G588" s="0">
+        <v>38834</v>
+      </c>
+      <c r="H588" s="0">
+        <v>10.796699324963</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="589">
+      <c r="A589" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B589" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C589" s="0">
+        <v>315684</v>
+      </c>
+      <c r="D589" s="0">
+        <v>28.7186485085014</v>
+      </c>
+      <c r="E589" s="0">
+        <v>234629</v>
+      </c>
+      <c r="F589" s="0">
+        <v>31.8188044063462</v>
+      </c>
+      <c r="G589" s="0">
+        <v>80453</v>
+      </c>
+      <c r="H589" s="0">
+        <v>22.3676894162654</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="590">
+      <c r="A590" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B590" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C590" s="0">
+        <v>181576</v>
+      </c>
+      <c r="D590" s="0">
+        <v>16.518472021324</v>
+      </c>
+      <c r="E590" s="0">
+        <v>122347</v>
+      </c>
+      <c r="F590" s="0">
+        <v>16.5918759518356</v>
+      </c>
+      <c r="G590" s="0">
+        <v>58822</v>
+      </c>
+      <c r="H590" s="0">
+        <v>16.3537994461805</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="591">
+      <c r="A591" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B591" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C591" s="0">
+        <v>89</v>
+      </c>
+      <c r="D591" s="0">
+        <v>8.09657669459531E-03</v>
+      </c>
+      <c r="E591" s="0">
+        <v>75</v>
+      </c>
+      <c r="F591" s="0">
+        <v>1.01709947639719E-02</v>
+      </c>
+      <c r="G591" s="0">
+        <v>14</v>
+      </c>
+      <c r="H591" s="0">
+        <v>3.89230546813314E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$582</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$600</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H582"/>
+  <dimension ref="A1:H600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -13996,13 +13996,13 @@
         <v>4153</v>
       </c>
       <c r="F574" s="0">
-        <v>0.567933177253134</v>
+        <v>0.567</v>
       </c>
       <c r="G574" s="0">
         <v>2015</v>
       </c>
       <c r="H574" s="0">
-        <v>0.572766990429248</v>
+        <v>0.572</v>
       </c>
     </row>
     <row outlineLevel="0" r="575">
@@ -14024,13 +14024,13 @@
         <v>52445</v>
       </c>
       <c r="F575" s="0">
-        <v>7.17198542765245</v>
+        <v>7.171</v>
       </c>
       <c r="G575" s="0">
         <v>33988</v>
       </c>
       <c r="H575" s="0">
-        <v>9.66114365792024</v>
+        <v>9.661</v>
       </c>
     </row>
     <row outlineLevel="0" r="576">
@@ -14052,13 +14052,13 @@
         <v>67273</v>
       </c>
       <c r="F576" s="0">
-        <v>9.19975165744043</v>
+        <v>9.199</v>
       </c>
       <c r="G576" s="0">
         <v>45095</v>
       </c>
       <c r="H576" s="0">
-        <v>12.8183262696809</v>
+        <v>12.81</v>
       </c>
     </row>
     <row outlineLevel="0" r="577">
@@ -14080,13 +14080,13 @@
         <v>72963</v>
       </c>
       <c r="F577" s="0">
-        <v>9.97787344375643</v>
+        <v>9.977</v>
       </c>
       <c r="G577" s="0">
         <v>47460</v>
       </c>
       <c r="H577" s="0">
-        <v>13.4905813229638</v>
+        <v>13.49</v>
       </c>
     </row>
     <row outlineLevel="0" r="578">
@@ -14108,13 +14108,13 @@
         <v>80992</v>
       </c>
       <c r="F578" s="0">
-        <v>11.0758593527777</v>
+        <v>11.07</v>
       </c>
       <c r="G578" s="0">
         <v>50580</v>
       </c>
       <c r="H578" s="0">
-        <v>14.3774463404027</v>
+        <v>14.37</v>
       </c>
     </row>
     <row outlineLevel="0" r="579">
@@ -14136,13 +14136,13 @@
         <v>99444</v>
       </c>
       <c r="F579" s="0">
-        <v>13.5992166816183</v>
+        <v>13.59</v>
       </c>
       <c r="G579" s="0">
         <v>38070</v>
       </c>
       <c r="H579" s="0">
-        <v>10.8214587224027</v>
+        <v>10.82</v>
       </c>
     </row>
     <row outlineLevel="0" r="580">
@@ -14164,13 +14164,13 @@
         <v>232110</v>
       </c>
       <c r="F580" s="0">
-        <v>31.7416252762401</v>
+        <v>31.74</v>
       </c>
       <c r="G580" s="0">
         <v>77987</v>
       </c>
       <c r="H580" s="0">
-        <v>22.1679301650649</v>
+        <v>22.16</v>
       </c>
     </row>
     <row outlineLevel="0" r="581">
@@ -14192,13 +14192,13 @@
         <v>121795</v>
       </c>
       <c r="F581" s="0">
-        <v>16.6557720499748</v>
+        <v>16.65</v>
       </c>
       <c r="G581" s="0">
         <v>56593</v>
       </c>
       <c r="H581" s="0">
-        <v>16.0866512602295</v>
+        <v>16.08</v>
       </c>
     </row>
     <row outlineLevel="0" r="582">
@@ -14220,13 +14220,517 @@
         <v>73</v>
       </c>
       <c r="F582" s="0">
-        <v>9.98293328665514E-03</v>
+        <v>0.009</v>
       </c>
       <c r="G582" s="0">
         <v>13</v>
       </c>
       <c r="H582" s="0">
-        <v>3.69527090599515E-03</v>
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="583">
+      <c r="A583" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B583" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C583" s="0">
+        <v>6290</v>
+      </c>
+      <c r="D583" s="0">
+        <v>0.572218734932635</v>
+      </c>
+      <c r="E583" s="0">
+        <v>4186</v>
+      </c>
+      <c r="F583" s="0">
+        <v>0.567</v>
+      </c>
+      <c r="G583" s="0">
+        <v>2100</v>
+      </c>
+      <c r="H583" s="0">
+        <v>0.583</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="584">
+      <c r="A584" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B584" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C584" s="0">
+        <v>87225</v>
+      </c>
+      <c r="D584" s="0">
+        <v>7.93510002456265</v>
+      </c>
+      <c r="E584" s="0">
+        <v>52689</v>
+      </c>
+      <c r="F584" s="0">
+        <v>7.145</v>
+      </c>
+      <c r="G584" s="0">
+        <v>34439</v>
+      </c>
+      <c r="H584" s="0">
+        <v>9.574</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="585">
+      <c r="A585" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B585" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C585" s="0">
+        <v>113362</v>
+      </c>
+      <c r="D585" s="0">
+        <v>10.31285536239</v>
+      </c>
+      <c r="E585" s="0">
+        <v>67546</v>
+      </c>
+      <c r="F585" s="0">
+        <v>9.16</v>
+      </c>
+      <c r="G585" s="0">
+        <v>45620</v>
+      </c>
+      <c r="H585" s="0">
+        <v>12.68</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="586">
+      <c r="A586" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B586" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C586" s="0">
+        <v>121643</v>
+      </c>
+      <c r="D586" s="0">
+        <v>11.0662008860748</v>
+      </c>
+      <c r="E586" s="0">
+        <v>73290</v>
+      </c>
+      <c r="F586" s="0">
+        <v>9.939</v>
+      </c>
+      <c r="G586" s="0">
+        <v>48081</v>
+      </c>
+      <c r="H586" s="0">
+        <v>13.36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="587">
+      <c r="A587" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B587" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C587" s="0">
+        <v>133052</v>
+      </c>
+      <c r="D587" s="0">
+        <v>12.1041092401044</v>
+      </c>
+      <c r="E587" s="0">
+        <v>81462</v>
+      </c>
+      <c r="F587" s="0">
+        <v>11.04</v>
+      </c>
+      <c r="G587" s="0">
+        <v>51321</v>
+      </c>
+      <c r="H587" s="0">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="588">
+      <c r="A588" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B588" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C588" s="0">
+        <v>140309</v>
+      </c>
+      <c r="D588" s="0">
+        <v>12.7642986454154</v>
+      </c>
+      <c r="E588" s="0">
+        <v>101167</v>
+      </c>
+      <c r="F588" s="0">
+        <v>13.71</v>
+      </c>
+      <c r="G588" s="0">
+        <v>38834</v>
+      </c>
+      <c r="H588" s="0">
+        <v>10.79</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="589">
+      <c r="A589" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B589" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C589" s="0">
+        <v>315684</v>
+      </c>
+      <c r="D589" s="0">
+        <v>28.7186485085014</v>
+      </c>
+      <c r="E589" s="0">
+        <v>234629</v>
+      </c>
+      <c r="F589" s="0">
+        <v>31.81</v>
+      </c>
+      <c r="G589" s="0">
+        <v>80453</v>
+      </c>
+      <c r="H589" s="0">
+        <v>22.36</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="590">
+      <c r="A590" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B590" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C590" s="0">
+        <v>181576</v>
+      </c>
+      <c r="D590" s="0">
+        <v>16.518472021324</v>
+      </c>
+      <c r="E590" s="0">
+        <v>122347</v>
+      </c>
+      <c r="F590" s="0">
+        <v>16.59</v>
+      </c>
+      <c r="G590" s="0">
+        <v>58822</v>
+      </c>
+      <c r="H590" s="0">
+        <v>16.35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="591">
+      <c r="A591" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B591" s="1">
+        <v>44247</v>
+      </c>
+      <c r="C591" s="0">
+        <v>89</v>
+      </c>
+      <c r="D591" s="0">
+        <v>8.09657669459531E-03</v>
+      </c>
+      <c r="E591" s="0">
+        <v>75</v>
+      </c>
+      <c r="F591" s="0">
+        <v>0.01</v>
+      </c>
+      <c r="G591" s="0">
+        <v>14</v>
+      </c>
+      <c r="H591" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="592">
+      <c r="A592" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B592" s="1">
+        <v>44248</v>
+      </c>
+      <c r="C592" s="0">
+        <v>6355</v>
+      </c>
+      <c r="D592" s="0">
+        <v>0.571946453931986</v>
+      </c>
+      <c r="E592" s="0">
+        <v>4217</v>
+      </c>
+      <c r="F592" s="0">
+        <v>0.56797672601891</v>
+      </c>
+      <c r="G592" s="0">
+        <v>2134</v>
+      </c>
+      <c r="H592" s="0">
+        <v>0.582310742186967</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="593">
+      <c r="A593" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B593" s="1">
+        <v>44248</v>
+      </c>
+      <c r="C593" s="0">
+        <v>87792</v>
+      </c>
+      <c r="D593" s="0">
+        <v>7.90123101236772</v>
+      </c>
+      <c r="E593" s="0">
+        <v>52991</v>
+      </c>
+      <c r="F593" s="0">
+        <v>7.13721951350915</v>
+      </c>
+      <c r="G593" s="0">
+        <v>34703</v>
+      </c>
+      <c r="H593" s="0">
+        <v>9.46950781917259</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="594">
+      <c r="A594" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B594" s="1">
+        <v>44248</v>
+      </c>
+      <c r="C594" s="0">
+        <v>114153</v>
+      </c>
+      <c r="D594" s="0">
+        <v>10.2737063030209</v>
+      </c>
+      <c r="E594" s="0">
+        <v>67998</v>
+      </c>
+      <c r="F594" s="0">
+        <v>9.15847318374054</v>
+      </c>
+      <c r="G594" s="0">
+        <v>45959</v>
+      </c>
+      <c r="H594" s="0">
+        <v>12.5409650422544</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="595">
+      <c r="A595" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B595" s="1">
+        <v>44248</v>
+      </c>
+      <c r="C595" s="0">
+        <v>122425</v>
+      </c>
+      <c r="D595" s="0">
+        <v>11.0181816872735</v>
+      </c>
+      <c r="E595" s="0">
+        <v>73728</v>
+      </c>
+      <c r="F595" s="0">
+        <v>9.93023193168656</v>
+      </c>
+      <c r="G595" s="0">
+        <v>48424</v>
+      </c>
+      <c r="H595" s="0">
+        <v>13.2135967102445</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="596">
+      <c r="A596" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B596" s="1">
+        <v>44248</v>
+      </c>
+      <c r="C596" s="0">
+        <v>133919</v>
+      </c>
+      <c r="D596" s="0">
+        <v>12.0526352736613</v>
+      </c>
+      <c r="E596" s="0">
+        <v>81957</v>
+      </c>
+      <c r="F596" s="0">
+        <v>11.0385744686582</v>
+      </c>
+      <c r="G596" s="0">
+        <v>51690</v>
+      </c>
+      <c r="H596" s="0">
+        <v>14.1047995612204</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="597">
+      <c r="A597" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B597" s="1">
+        <v>44248</v>
+      </c>
+      <c r="C597" s="0">
+        <v>141795</v>
+      </c>
+      <c r="D597" s="0">
+        <v>12.7614708788806</v>
+      </c>
+      <c r="E597" s="0">
+        <v>102168</v>
+      </c>
+      <c r="F597" s="0">
+        <v>13.7607413193977</v>
+      </c>
+      <c r="G597" s="0">
+        <v>39316</v>
+      </c>
+      <c r="H597" s="0">
+        <v>10.7282704497764</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="598">
+      <c r="A598" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B598" s="1">
+        <v>44248</v>
+      </c>
+      <c r="C598" s="0">
+        <v>320208</v>
+      </c>
+      <c r="D598" s="0">
+        <v>28.8185413250438</v>
+      </c>
+      <c r="E598" s="0">
+        <v>236590</v>
+      </c>
+      <c r="F598" s="0">
+        <v>31.8656897341271</v>
+      </c>
+      <c r="G598" s="0">
+        <v>83004</v>
+      </c>
+      <c r="H598" s="0">
+        <v>22.6495411642395</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="599">
+      <c r="A599" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B599" s="1">
+        <v>44248</v>
+      </c>
+      <c r="C599" s="0">
+        <v>184382</v>
+      </c>
+      <c r="D599" s="0">
+        <v>16.5942771154819</v>
+      </c>
+      <c r="E599" s="0">
+        <v>122736</v>
+      </c>
+      <c r="F599" s="0">
+        <v>16.5309915685694</v>
+      </c>
+      <c r="G599" s="0">
+        <v>61227</v>
+      </c>
+      <c r="H599" s="0">
+        <v>16.7071882904786</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="600">
+      <c r="A600" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B600" s="1">
+        <v>44248</v>
+      </c>
+      <c r="C600" s="0">
+        <v>89</v>
+      </c>
+      <c r="D600" s="0">
+        <v>8.0099503383079E-03</v>
+      </c>
+      <c r="E600" s="0">
+        <v>75</v>
+      </c>
+      <c r="F600" s="0">
+        <v>1.01015542924871E-02</v>
+      </c>
+      <c r="G600" s="0">
+        <v>14</v>
+      </c>
+      <c r="H600" s="0">
+        <v>3.82022042671862E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$600</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$609</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H600"/>
+  <dimension ref="A1:H609"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -14500,13 +14500,13 @@
         <v>4217</v>
       </c>
       <c r="F592" s="0">
-        <v>0.56797672601891</v>
+        <v>0.567</v>
       </c>
       <c r="G592" s="0">
         <v>2134</v>
       </c>
       <c r="H592" s="0">
-        <v>0.582310742186967</v>
+        <v>0.582</v>
       </c>
     </row>
     <row outlineLevel="0" r="593">
@@ -14528,13 +14528,13 @@
         <v>52991</v>
       </c>
       <c r="F593" s="0">
-        <v>7.13721951350915</v>
+        <v>7.137</v>
       </c>
       <c r="G593" s="0">
         <v>34703</v>
       </c>
       <c r="H593" s="0">
-        <v>9.46950781917259</v>
+        <v>9.469</v>
       </c>
     </row>
     <row outlineLevel="0" r="594">
@@ -14556,13 +14556,13 @@
         <v>67998</v>
       </c>
       <c r="F594" s="0">
-        <v>9.15847318374054</v>
+        <v>9.158</v>
       </c>
       <c r="G594" s="0">
         <v>45959</v>
       </c>
       <c r="H594" s="0">
-        <v>12.5409650422544</v>
+        <v>12.54</v>
       </c>
     </row>
     <row outlineLevel="0" r="595">
@@ -14584,13 +14584,13 @@
         <v>73728</v>
       </c>
       <c r="F595" s="0">
-        <v>9.93023193168656</v>
+        <v>9.93</v>
       </c>
       <c r="G595" s="0">
         <v>48424</v>
       </c>
       <c r="H595" s="0">
-        <v>13.2135967102445</v>
+        <v>13.21</v>
       </c>
     </row>
     <row outlineLevel="0" r="596">
@@ -14612,13 +14612,13 @@
         <v>81957</v>
       </c>
       <c r="F596" s="0">
-        <v>11.0385744686582</v>
+        <v>11.03</v>
       </c>
       <c r="G596" s="0">
         <v>51690</v>
       </c>
       <c r="H596" s="0">
-        <v>14.1047995612204</v>
+        <v>14.1</v>
       </c>
     </row>
     <row outlineLevel="0" r="597">
@@ -14640,13 +14640,13 @@
         <v>102168</v>
       </c>
       <c r="F597" s="0">
-        <v>13.7607413193977</v>
+        <v>13.76</v>
       </c>
       <c r="G597" s="0">
         <v>39316</v>
       </c>
       <c r="H597" s="0">
-        <v>10.7282704497764</v>
+        <v>10.72</v>
       </c>
     </row>
     <row outlineLevel="0" r="598">
@@ -14668,13 +14668,13 @@
         <v>236590</v>
       </c>
       <c r="F598" s="0">
-        <v>31.8656897341271</v>
+        <v>31.86</v>
       </c>
       <c r="G598" s="0">
         <v>83004</v>
       </c>
       <c r="H598" s="0">
-        <v>22.6495411642395</v>
+        <v>22.64</v>
       </c>
     </row>
     <row outlineLevel="0" r="599">
@@ -14696,13 +14696,13 @@
         <v>122736</v>
       </c>
       <c r="F599" s="0">
-        <v>16.5309915685694</v>
+        <v>16.53</v>
       </c>
       <c r="G599" s="0">
         <v>61227</v>
       </c>
       <c r="H599" s="0">
-        <v>16.7071882904786</v>
+        <v>16.7</v>
       </c>
     </row>
     <row outlineLevel="0" r="600">
@@ -14724,13 +14724,265 @@
         <v>75</v>
       </c>
       <c r="F600" s="0">
-        <v>1.01015542924871E-02</v>
+        <v>0.01</v>
       </c>
       <c r="G600" s="0">
         <v>14</v>
       </c>
       <c r="H600" s="0">
-        <v>3.82022042671862E-03</v>
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="601">
+      <c r="A601" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B601" s="1">
+        <v>44249</v>
+      </c>
+      <c r="C601" s="0">
+        <v>6431</v>
+      </c>
+      <c r="D601" s="0">
+        <v>0.568265663092952</v>
+      </c>
+      <c r="E601" s="0">
+        <v>4256</v>
+      </c>
+      <c r="F601" s="0">
+        <v>0.565200589104749</v>
+      </c>
+      <c r="G601" s="0">
+        <v>2169</v>
+      </c>
+      <c r="H601" s="0">
+        <v>0.576515179705815</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="602">
+      <c r="A602" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B602" s="1">
+        <v>44249</v>
+      </c>
+      <c r="C602" s="0">
+        <v>88529</v>
+      </c>
+      <c r="D602" s="0">
+        <v>7.8227322170667</v>
+      </c>
+      <c r="E602" s="0">
+        <v>53379</v>
+      </c>
+      <c r="F602" s="0">
+        <v>7.08877872317256</v>
+      </c>
+      <c r="G602" s="0">
+        <v>35050</v>
+      </c>
+      <c r="H602" s="0">
+        <v>9.31620887445312</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="603">
+      <c r="A603" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B603" s="1">
+        <v>44249</v>
+      </c>
+      <c r="C603" s="0">
+        <v>115247</v>
+      </c>
+      <c r="D603" s="0">
+        <v>10.1836281876028</v>
+      </c>
+      <c r="E603" s="0">
+        <v>68616</v>
+      </c>
+      <c r="F603" s="0">
+        <v>9.11226588863052</v>
+      </c>
+      <c r="G603" s="0">
+        <v>46430</v>
+      </c>
+      <c r="H603" s="0">
+        <v>12.3409865346893</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="604">
+      <c r="A604" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B604" s="1">
+        <v>44249</v>
+      </c>
+      <c r="C604" s="0">
+        <v>123570</v>
+      </c>
+      <c r="D604" s="0">
+        <v>10.919077591105</v>
+      </c>
+      <c r="E604" s="0">
+        <v>74363</v>
+      </c>
+      <c r="F604" s="0">
+        <v>9.87547260516834</v>
+      </c>
+      <c r="G604" s="0">
+        <v>48927</v>
+      </c>
+      <c r="H604" s="0">
+        <v>13.0046833552173</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="605">
+      <c r="A605" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B605" s="1">
+        <v>44249</v>
+      </c>
+      <c r="C605" s="0">
+        <v>135216</v>
+      </c>
+      <c r="D605" s="0">
+        <v>11.9481589023133</v>
+      </c>
+      <c r="E605" s="0">
+        <v>82665</v>
+      </c>
+      <c r="F605" s="0">
+        <v>10.9779855964154</v>
+      </c>
+      <c r="G605" s="0">
+        <v>52270</v>
+      </c>
+      <c r="H605" s="0">
+        <v>13.8932450176224</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="606">
+      <c r="A606" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B606" s="1">
+        <v>44249</v>
+      </c>
+      <c r="C606" s="0">
+        <v>145715</v>
+      </c>
+      <c r="D606" s="0">
+        <v>12.8758872799859</v>
+      </c>
+      <c r="E606" s="0">
+        <v>105263</v>
+      </c>
+      <c r="F606" s="0">
+        <v>13.9790201153509</v>
+      </c>
+      <c r="G606" s="0">
+        <v>40130</v>
+      </c>
+      <c r="H606" s="0">
+        <v>10.6664611164566</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="607">
+      <c r="A607" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B607" s="1">
+        <v>44249</v>
+      </c>
+      <c r="C607" s="0">
+        <v>328573</v>
+      </c>
+      <c r="D607" s="0">
+        <v>29.0338600092428</v>
+      </c>
+      <c r="E607" s="0">
+        <v>240826</v>
+      </c>
+      <c r="F607" s="0">
+        <v>31.9819072067059</v>
+      </c>
+      <c r="G607" s="0">
+        <v>87045</v>
+      </c>
+      <c r="H607" s="0">
+        <v>23.1363595285812</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="608">
+      <c r="A608" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B608" s="1">
+        <v>44249</v>
+      </c>
+      <c r="C608" s="0">
+        <v>188319</v>
+      </c>
+      <c r="D608" s="0">
+        <v>16.6405257981654</v>
+      </c>
+      <c r="E608" s="0">
+        <v>123564</v>
+      </c>
+      <c r="F608" s="0">
+        <v>16.4094092086793</v>
+      </c>
+      <c r="G608" s="0">
+        <v>64191</v>
+      </c>
+      <c r="H608" s="0">
+        <v>17.0618192256782</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="609">
+      <c r="A609" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B609" s="1">
+        <v>44249</v>
+      </c>
+      <c r="C609" s="0">
+        <v>89</v>
+      </c>
+      <c r="D609" s="0">
+        <v>7.8643514251707E-03</v>
+      </c>
+      <c r="E609" s="0">
+        <v>75</v>
+      </c>
+      <c r="F609" s="0">
+        <v>9.96006677228764E-03</v>
+      </c>
+      <c r="G609" s="0">
+        <v>14</v>
+      </c>
+      <c r="H609" s="0">
+        <v>3.72116759607257E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$609</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$627</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H609"/>
+  <dimension ref="A1:H627"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -14752,13 +14752,13 @@
         <v>4256</v>
       </c>
       <c r="F601" s="0">
-        <v>0.565200589104749</v>
+        <v>0.565</v>
       </c>
       <c r="G601" s="0">
         <v>2169</v>
       </c>
       <c r="H601" s="0">
-        <v>0.576515179705815</v>
+        <v>0.576</v>
       </c>
     </row>
     <row outlineLevel="0" r="602">
@@ -14780,13 +14780,13 @@
         <v>53379</v>
       </c>
       <c r="F602" s="0">
-        <v>7.08877872317256</v>
+        <v>7.088</v>
       </c>
       <c r="G602" s="0">
         <v>35050</v>
       </c>
       <c r="H602" s="0">
-        <v>9.31620887445312</v>
+        <v>9.316</v>
       </c>
     </row>
     <row outlineLevel="0" r="603">
@@ -14808,13 +14808,13 @@
         <v>68616</v>
       </c>
       <c r="F603" s="0">
-        <v>9.11226588863052</v>
+        <v>9.112</v>
       </c>
       <c r="G603" s="0">
         <v>46430</v>
       </c>
       <c r="H603" s="0">
-        <v>12.3409865346893</v>
+        <v>12.34</v>
       </c>
     </row>
     <row outlineLevel="0" r="604">
@@ -14836,13 +14836,13 @@
         <v>74363</v>
       </c>
       <c r="F604" s="0">
-        <v>9.87547260516834</v>
+        <v>9.875</v>
       </c>
       <c r="G604" s="0">
         <v>48927</v>
       </c>
       <c r="H604" s="0">
-        <v>13.0046833552173</v>
+        <v>0.13</v>
       </c>
     </row>
     <row outlineLevel="0" r="605">
@@ -14864,13 +14864,13 @@
         <v>82665</v>
       </c>
       <c r="F605" s="0">
-        <v>10.9779855964154</v>
+        <v>10.97</v>
       </c>
       <c r="G605" s="0">
         <v>52270</v>
       </c>
       <c r="H605" s="0">
-        <v>13.8932450176224</v>
+        <v>13.89</v>
       </c>
     </row>
     <row outlineLevel="0" r="606">
@@ -14892,13 +14892,13 @@
         <v>105263</v>
       </c>
       <c r="F606" s="0">
-        <v>13.9790201153509</v>
+        <v>13.97</v>
       </c>
       <c r="G606" s="0">
         <v>40130</v>
       </c>
       <c r="H606" s="0">
-        <v>10.6664611164566</v>
+        <v>10.66</v>
       </c>
     </row>
     <row outlineLevel="0" r="607">
@@ -14920,13 +14920,13 @@
         <v>240826</v>
       </c>
       <c r="F607" s="0">
-        <v>31.9819072067059</v>
+        <v>31.98</v>
       </c>
       <c r="G607" s="0">
         <v>87045</v>
       </c>
       <c r="H607" s="0">
-        <v>23.1363595285812</v>
+        <v>23.13</v>
       </c>
     </row>
     <row outlineLevel="0" r="608">
@@ -14948,13 +14948,13 @@
         <v>123564</v>
       </c>
       <c r="F608" s="0">
-        <v>16.4094092086793</v>
+        <v>16.4</v>
       </c>
       <c r="G608" s="0">
         <v>64191</v>
       </c>
       <c r="H608" s="0">
-        <v>17.0618192256782</v>
+        <v>17.06</v>
       </c>
     </row>
     <row outlineLevel="0" r="609">
@@ -14976,13 +14976,517 @@
         <v>75</v>
       </c>
       <c r="F609" s="0">
-        <v>9.96006677228764E-03</v>
+        <v>0.009</v>
       </c>
       <c r="G609" s="0">
         <v>14</v>
       </c>
       <c r="H609" s="0">
-        <v>3.72116759607257E-03</v>
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="610">
+      <c r="A610" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B610" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C610" s="0">
+        <v>6578</v>
+      </c>
+      <c r="D610" s="0">
+        <v>0.564331955532907</v>
+      </c>
+      <c r="E610" s="0">
+        <v>4321</v>
+      </c>
+      <c r="F610" s="0">
+        <v>0.562</v>
+      </c>
+      <c r="G610" s="0">
+        <v>2251</v>
+      </c>
+      <c r="H610" s="0">
+        <v>0.571</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="611">
+      <c r="A611" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B611" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C611" s="0">
+        <v>89828</v>
+      </c>
+      <c r="D611" s="0">
+        <v>7.70641698108999</v>
+      </c>
+      <c r="E611" s="0">
+        <v>54008</v>
+      </c>
+      <c r="F611" s="0">
+        <v>7.025</v>
+      </c>
+      <c r="G611" s="0">
+        <v>35720</v>
+      </c>
+      <c r="H611" s="0">
+        <v>9.061</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="612">
+      <c r="A612" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B612" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C612" s="0">
+        <v>117229</v>
+      </c>
+      <c r="D612" s="0">
+        <v>10.0571709965289</v>
+      </c>
+      <c r="E612" s="0">
+        <v>69655</v>
+      </c>
+      <c r="F612" s="0">
+        <v>9.06</v>
+      </c>
+      <c r="G612" s="0">
+        <v>47368</v>
+      </c>
+      <c r="H612" s="0">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="613">
+      <c r="A613" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B613" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C613" s="0">
+        <v>125897</v>
+      </c>
+      <c r="D613" s="0">
+        <v>10.800805747298</v>
+      </c>
+      <c r="E613" s="0">
+        <v>75537</v>
+      </c>
+      <c r="F613" s="0">
+        <v>9.825</v>
+      </c>
+      <c r="G613" s="0">
+        <v>50077</v>
+      </c>
+      <c r="H613" s="0">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="614">
+      <c r="A614" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B614" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C614" s="0">
+        <v>137917</v>
+      </c>
+      <c r="D614" s="0">
+        <v>11.832011296934</v>
+      </c>
+      <c r="E614" s="0">
+        <v>83947</v>
+      </c>
+      <c r="F614" s="0">
+        <v>10.91</v>
+      </c>
+      <c r="G614" s="0">
+        <v>53679</v>
+      </c>
+      <c r="H614" s="0">
+        <v>13.61</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="615">
+      <c r="A615" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B615" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C615" s="0">
+        <v>153641</v>
+      </c>
+      <c r="D615" s="0">
+        <v>13.1809860109503</v>
+      </c>
+      <c r="E615" s="0">
+        <v>111215</v>
+      </c>
+      <c r="F615" s="0">
+        <v>14.46</v>
+      </c>
+      <c r="G615" s="0">
+        <v>42076</v>
+      </c>
+      <c r="H615" s="0">
+        <v>10.67</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="616">
+      <c r="A616" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B616" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C616" s="0">
+        <v>340164</v>
+      </c>
+      <c r="D616" s="0">
+        <v>29.1829454730763</v>
+      </c>
+      <c r="E616" s="0">
+        <v>245354</v>
+      </c>
+      <c r="F616" s="0">
+        <v>31.91</v>
+      </c>
+      <c r="G616" s="0">
+        <v>94019</v>
+      </c>
+      <c r="H616" s="0">
+        <v>23.85</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="617">
+      <c r="A617" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B617" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C617" s="0">
+        <v>194283</v>
+      </c>
+      <c r="D617" s="0">
+        <v>16.6676961564001</v>
+      </c>
+      <c r="E617" s="0">
+        <v>124668</v>
+      </c>
+      <c r="F617" s="0">
+        <v>16.21</v>
+      </c>
+      <c r="G617" s="0">
+        <v>68995</v>
+      </c>
+      <c r="H617" s="0">
+        <v>17.5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="618">
+      <c r="A618" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B618" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C618" s="0">
+        <v>89</v>
+      </c>
+      <c r="D618" s="0">
+        <v>7.63538218948445E-03</v>
+      </c>
+      <c r="E618" s="0">
+        <v>75</v>
+      </c>
+      <c r="F618" s="0">
+        <v>0.009</v>
+      </c>
+      <c r="G618" s="0">
+        <v>14</v>
+      </c>
+      <c r="H618" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="619">
+      <c r="A619" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B619" s="1">
+        <v>44251</v>
+      </c>
+      <c r="C619" s="0">
+        <v>6752</v>
+      </c>
+      <c r="D619" s="0">
+        <v>0.562377979303957</v>
+      </c>
+      <c r="E619" s="0">
+        <v>4407</v>
+      </c>
+      <c r="F619" s="0">
+        <v>0.560005896136506</v>
+      </c>
+      <c r="G619" s="0">
+        <v>2337</v>
+      </c>
+      <c r="H619" s="0">
+        <v>0.56893290389489</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="620">
+      <c r="A620" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B620" s="1">
+        <v>44251</v>
+      </c>
+      <c r="C620" s="0">
+        <v>91393</v>
+      </c>
+      <c r="D620" s="0">
+        <v>7.61217574978178</v>
+      </c>
+      <c r="E620" s="0">
+        <v>54791</v>
+      </c>
+      <c r="F620" s="0">
+        <v>6.9623968811471</v>
+      </c>
+      <c r="G620" s="0">
+        <v>36497</v>
+      </c>
+      <c r="H620" s="0">
+        <v>8.8850424447804</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="621">
+      <c r="A621" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B621" s="1">
+        <v>44251</v>
+      </c>
+      <c r="C621" s="0">
+        <v>119429</v>
+      </c>
+      <c r="D621" s="0">
+        <v>9.94731038067125</v>
+      </c>
+      <c r="E621" s="0">
+        <v>70780</v>
+      </c>
+      <c r="F621" s="0">
+        <v>8.99414960938096</v>
+      </c>
+      <c r="G621" s="0">
+        <v>48436</v>
+      </c>
+      <c r="H621" s="0">
+        <v>11.7915422049863</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="622">
+      <c r="A622" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B622" s="1">
+        <v>44251</v>
+      </c>
+      <c r="C622" s="0">
+        <v>128581</v>
+      </c>
+      <c r="D622" s="0">
+        <v>10.7095857459837</v>
+      </c>
+      <c r="E622" s="0">
+        <v>76996</v>
+      </c>
+      <c r="F622" s="0">
+        <v>9.7840285860963</v>
+      </c>
+      <c r="G622" s="0">
+        <v>51291</v>
+      </c>
+      <c r="H622" s="0">
+        <v>12.4865800486405</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="623">
+      <c r="A623" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B623" s="1">
+        <v>44251</v>
+      </c>
+      <c r="C623" s="0">
+        <v>140991</v>
+      </c>
+      <c r="D623" s="0">
+        <v>11.7432218128028</v>
+      </c>
+      <c r="E623" s="0">
+        <v>85595</v>
+      </c>
+      <c r="F623" s="0">
+        <v>10.8767199182673</v>
+      </c>
+      <c r="G623" s="0">
+        <v>55083</v>
+      </c>
+      <c r="H623" s="0">
+        <v>13.4097266346779</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="624">
+      <c r="A624" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B624" s="1">
+        <v>44251</v>
+      </c>
+      <c r="C624" s="0">
+        <v>163517</v>
+      </c>
+      <c r="D624" s="0">
+        <v>13.6194253616477</v>
+      </c>
+      <c r="E624" s="0">
+        <v>119098</v>
+      </c>
+      <c r="F624" s="0">
+        <v>15.1340100335978</v>
+      </c>
+      <c r="G624" s="0">
+        <v>44037</v>
+      </c>
+      <c r="H624" s="0">
+        <v>10.7206240003506</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="625">
+      <c r="A625" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B625" s="1">
+        <v>44251</v>
+      </c>
+      <c r="C625" s="0">
+        <v>350459</v>
+      </c>
+      <c r="D625" s="0">
+        <v>29.189932501316</v>
+      </c>
+      <c r="E625" s="0">
+        <v>249510</v>
+      </c>
+      <c r="F625" s="0">
+        <v>31.7057116280961</v>
+      </c>
+      <c r="G625" s="0">
+        <v>100062</v>
+      </c>
+      <c r="H625" s="0">
+        <v>24.3596766065599</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="626">
+      <c r="A626" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B626" s="1">
+        <v>44251</v>
+      </c>
+      <c r="C626" s="0">
+        <v>199404</v>
+      </c>
+      <c r="D626" s="0">
+        <v>16.6084743165175</v>
+      </c>
+      <c r="E626" s="0">
+        <v>125703</v>
+      </c>
+      <c r="F626" s="0">
+        <v>15.9733199823116</v>
+      </c>
+      <c r="G626" s="0">
+        <v>73012</v>
+      </c>
+      <c r="H626" s="0">
+        <v>17.7744669144945</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="627">
+      <c r="A627" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B627" s="1">
+        <v>44251</v>
+      </c>
+      <c r="C627" s="0">
+        <v>90</v>
+      </c>
+      <c r="D627" s="0">
+        <v>7.49615197531934E-03</v>
+      </c>
+      <c r="E627" s="0">
+        <v>76</v>
+      </c>
+      <c r="F627" s="0">
+        <v>9.65746496627511E-03</v>
+      </c>
+      <c r="G627" s="0">
+        <v>14</v>
+      </c>
+      <c r="H627" s="0">
+        <v>3.40824161511701E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$609</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$618</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H609"/>
+  <dimension ref="A1:H618"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -14752,13 +14752,13 @@
         <v>4256</v>
       </c>
       <c r="F601" s="0">
-        <v>0.565200589104749</v>
+        <v>0.565</v>
       </c>
       <c r="G601" s="0">
         <v>2169</v>
       </c>
       <c r="H601" s="0">
-        <v>0.576515179705815</v>
+        <v>0.576</v>
       </c>
     </row>
     <row outlineLevel="0" r="602">
@@ -14780,13 +14780,13 @@
         <v>53379</v>
       </c>
       <c r="F602" s="0">
-        <v>7.08877872317256</v>
+        <v>7.088</v>
       </c>
       <c r="G602" s="0">
         <v>35050</v>
       </c>
       <c r="H602" s="0">
-        <v>9.31620887445312</v>
+        <v>9.316</v>
       </c>
     </row>
     <row outlineLevel="0" r="603">
@@ -14808,13 +14808,13 @@
         <v>68616</v>
       </c>
       <c r="F603" s="0">
-        <v>9.11226588863052</v>
+        <v>9.112</v>
       </c>
       <c r="G603" s="0">
         <v>46430</v>
       </c>
       <c r="H603" s="0">
-        <v>12.3409865346893</v>
+        <v>12.34</v>
       </c>
     </row>
     <row outlineLevel="0" r="604">
@@ -14836,13 +14836,13 @@
         <v>74363</v>
       </c>
       <c r="F604" s="0">
-        <v>9.87547260516834</v>
+        <v>9.875</v>
       </c>
       <c r="G604" s="0">
         <v>48927</v>
       </c>
       <c r="H604" s="0">
-        <v>13.0046833552173</v>
+        <v>13</v>
       </c>
     </row>
     <row outlineLevel="0" r="605">
@@ -14864,13 +14864,13 @@
         <v>82665</v>
       </c>
       <c r="F605" s="0">
-        <v>10.9779855964154</v>
+        <v>10.97</v>
       </c>
       <c r="G605" s="0">
         <v>52270</v>
       </c>
       <c r="H605" s="0">
-        <v>13.8932450176224</v>
+        <v>13.89</v>
       </c>
     </row>
     <row outlineLevel="0" r="606">
@@ -14892,13 +14892,13 @@
         <v>105263</v>
       </c>
       <c r="F606" s="0">
-        <v>13.9790201153509</v>
+        <v>13.97</v>
       </c>
       <c r="G606" s="0">
         <v>40130</v>
       </c>
       <c r="H606" s="0">
-        <v>10.6664611164566</v>
+        <v>10.66</v>
       </c>
     </row>
     <row outlineLevel="0" r="607">
@@ -14920,13 +14920,13 @@
         <v>240826</v>
       </c>
       <c r="F607" s="0">
-        <v>31.9819072067059</v>
+        <v>31.98</v>
       </c>
       <c r="G607" s="0">
         <v>87045</v>
       </c>
       <c r="H607" s="0">
-        <v>23.1363595285812</v>
+        <v>23.13</v>
       </c>
     </row>
     <row outlineLevel="0" r="608">
@@ -14948,13 +14948,13 @@
         <v>123564</v>
       </c>
       <c r="F608" s="0">
-        <v>16.4094092086793</v>
+        <v>16.4</v>
       </c>
       <c r="G608" s="0">
         <v>64191</v>
       </c>
       <c r="H608" s="0">
-        <v>17.0618192256782</v>
+        <v>17.06</v>
       </c>
     </row>
     <row outlineLevel="0" r="609">
@@ -14976,13 +14976,265 @@
         <v>75</v>
       </c>
       <c r="F609" s="0">
-        <v>9.96006677228764E-03</v>
+        <v>0.009</v>
       </c>
       <c r="G609" s="0">
         <v>14</v>
       </c>
       <c r="H609" s="0">
-        <v>3.72116759607257E-03</v>
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="610">
+      <c r="A610" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B610" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C610" s="0">
+        <v>6578</v>
+      </c>
+      <c r="D610" s="0">
+        <v>0.564331955532907</v>
+      </c>
+      <c r="E610" s="0">
+        <v>4321</v>
+      </c>
+      <c r="F610" s="0">
+        <v>0.562059366788938</v>
+      </c>
+      <c r="G610" s="0">
+        <v>2251</v>
+      </c>
+      <c r="H610" s="0">
+        <v>0.571031382626541</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="611">
+      <c r="A611" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B611" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C611" s="0">
+        <v>89828</v>
+      </c>
+      <c r="D611" s="0">
+        <v>7.70641698108999</v>
+      </c>
+      <c r="E611" s="0">
+        <v>54008</v>
+      </c>
+      <c r="F611" s="0">
+        <v>7.02515674185072</v>
+      </c>
+      <c r="G611" s="0">
+        <v>35720</v>
+      </c>
+      <c r="H611" s="0">
+        <v>9.06141314412264</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="612">
+      <c r="A612" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B612" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C612" s="0">
+        <v>117229</v>
+      </c>
+      <c r="D612" s="0">
+        <v>10.0571709965289</v>
+      </c>
+      <c r="E612" s="0">
+        <v>69655</v>
+      </c>
+      <c r="F612" s="0">
+        <v>9.06045942922553</v>
+      </c>
+      <c r="G612" s="0">
+        <v>47368</v>
+      </c>
+      <c r="H612" s="0">
+        <v>12.016265896159</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="613">
+      <c r="A613" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B613" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C613" s="0">
+        <v>125897</v>
+      </c>
+      <c r="D613" s="0">
+        <v>10.800805747298</v>
+      </c>
+      <c r="E613" s="0">
+        <v>75537</v>
+      </c>
+      <c r="F613" s="0">
+        <v>9.82556778272068</v>
+      </c>
+      <c r="G613" s="0">
+        <v>50077</v>
+      </c>
+      <c r="H613" s="0">
+        <v>12.7034822513502</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="614">
+      <c r="A614" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B614" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C614" s="0">
+        <v>137917</v>
+      </c>
+      <c r="D614" s="0">
+        <v>11.832011296934</v>
+      </c>
+      <c r="E614" s="0">
+        <v>83947</v>
+      </c>
+      <c r="F614" s="0">
+        <v>10.9195088321757</v>
+      </c>
+      <c r="G614" s="0">
+        <v>53679</v>
+      </c>
+      <c r="H614" s="0">
+        <v>13.6172339351444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="615">
+      <c r="A615" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B615" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C615" s="0">
+        <v>153641</v>
+      </c>
+      <c r="D615" s="0">
+        <v>13.1809860109503</v>
+      </c>
+      <c r="E615" s="0">
+        <v>111215</v>
+      </c>
+      <c r="F615" s="0">
+        <v>14.4664273264133</v>
+      </c>
+      <c r="G615" s="0">
+        <v>42076</v>
+      </c>
+      <c r="H615" s="0">
+        <v>10.673796737181</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="616">
+      <c r="A616" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B616" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C616" s="0">
+        <v>340164</v>
+      </c>
+      <c r="D616" s="0">
+        <v>29.1829454730763</v>
+      </c>
+      <c r="E616" s="0">
+        <v>245354</v>
+      </c>
+      <c r="F616" s="0">
+        <v>31.9147220271079</v>
+      </c>
+      <c r="G616" s="0">
+        <v>94019</v>
+      </c>
+      <c r="H616" s="0">
+        <v>23.8506439640892</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="617">
+      <c r="A617" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B617" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C617" s="0">
+        <v>194283</v>
+      </c>
+      <c r="D617" s="0">
+        <v>16.6676961564001</v>
+      </c>
+      <c r="E617" s="0">
+        <v>124668</v>
+      </c>
+      <c r="F617" s="0">
+        <v>16.2163427768672</v>
+      </c>
+      <c r="G617" s="0">
+        <v>68995</v>
+      </c>
+      <c r="H617" s="0">
+        <v>17.5025811836154</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="618">
+      <c r="A618" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B618" s="1">
+        <v>44250</v>
+      </c>
+      <c r="C618" s="0">
+        <v>89</v>
+      </c>
+      <c r="D618" s="0">
+        <v>7.63538218948445E-03</v>
+      </c>
+      <c r="E618" s="0">
+        <v>75</v>
+      </c>
+      <c r="F618" s="0">
+        <v>9.75571685007414E-03</v>
+      </c>
+      <c r="G618" s="0">
+        <v>14</v>
+      </c>
+      <c r="H618" s="0">
+        <v>3.55150571158222E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$627</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$636</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H627"/>
+  <dimension ref="A1:H636"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -15256,13 +15256,13 @@
         <v>4407</v>
       </c>
       <c r="F619" s="0">
-        <v>0.560005896136506</v>
+        <v>0.56</v>
       </c>
       <c r="G619" s="0">
         <v>2337</v>
       </c>
       <c r="H619" s="0">
-        <v>0.56893290389489</v>
+        <v>0.568</v>
       </c>
     </row>
     <row outlineLevel="0" r="620">
@@ -15284,13 +15284,13 @@
         <v>54791</v>
       </c>
       <c r="F620" s="0">
-        <v>6.9623968811471</v>
+        <v>6.962</v>
       </c>
       <c r="G620" s="0">
         <v>36497</v>
       </c>
       <c r="H620" s="0">
-        <v>8.8850424447804</v>
+        <v>8.885</v>
       </c>
     </row>
     <row outlineLevel="0" r="621">
@@ -15312,13 +15312,13 @@
         <v>70780</v>
       </c>
       <c r="F621" s="0">
-        <v>8.99414960938096</v>
+        <v>8.994</v>
       </c>
       <c r="G621" s="0">
         <v>48436</v>
       </c>
       <c r="H621" s="0">
-        <v>11.7915422049863</v>
+        <v>11.79</v>
       </c>
     </row>
     <row outlineLevel="0" r="622">
@@ -15340,13 +15340,13 @@
         <v>76996</v>
       </c>
       <c r="F622" s="0">
-        <v>9.7840285860963</v>
+        <v>9.784</v>
       </c>
       <c r="G622" s="0">
         <v>51291</v>
       </c>
       <c r="H622" s="0">
-        <v>12.4865800486405</v>
+        <v>12.48</v>
       </c>
     </row>
     <row outlineLevel="0" r="623">
@@ -15368,13 +15368,13 @@
         <v>85595</v>
       </c>
       <c r="F623" s="0">
-        <v>10.8767199182673</v>
+        <v>10.87</v>
       </c>
       <c r="G623" s="0">
         <v>55083</v>
       </c>
       <c r="H623" s="0">
-        <v>13.4097266346779</v>
+        <v>13.4</v>
       </c>
     </row>
     <row outlineLevel="0" r="624">
@@ -15396,13 +15396,13 @@
         <v>119098</v>
       </c>
       <c r="F624" s="0">
-        <v>15.1340100335978</v>
+        <v>15.13</v>
       </c>
       <c r="G624" s="0">
         <v>44037</v>
       </c>
       <c r="H624" s="0">
-        <v>10.7206240003506</v>
+        <v>10.72</v>
       </c>
     </row>
     <row outlineLevel="0" r="625">
@@ -15424,13 +15424,13 @@
         <v>249510</v>
       </c>
       <c r="F625" s="0">
-        <v>31.7057116280961</v>
+        <v>31.7</v>
       </c>
       <c r="G625" s="0">
         <v>100062</v>
       </c>
       <c r="H625" s="0">
-        <v>24.3596766065599</v>
+        <v>24.35</v>
       </c>
     </row>
     <row outlineLevel="0" r="626">
@@ -15452,13 +15452,13 @@
         <v>125703</v>
       </c>
       <c r="F626" s="0">
-        <v>15.9733199823116</v>
+        <v>15.97</v>
       </c>
       <c r="G626" s="0">
         <v>73012</v>
       </c>
       <c r="H626" s="0">
-        <v>17.7744669144945</v>
+        <v>17.77</v>
       </c>
     </row>
     <row outlineLevel="0" r="627">
@@ -15480,13 +15480,265 @@
         <v>76</v>
       </c>
       <c r="F627" s="0">
-        <v>9.65746496627511E-03</v>
+        <v>0.009</v>
       </c>
       <c r="G627" s="0">
         <v>14</v>
       </c>
       <c r="H627" s="0">
-        <v>3.40824161511701E-03</v>
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="628">
+      <c r="A628" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B628" s="1">
+        <v>44252</v>
+      </c>
+      <c r="C628" s="0">
+        <v>6969</v>
+      </c>
+      <c r="D628" s="0">
+        <v>0.559487606012826</v>
+      </c>
+      <c r="E628" s="0">
+        <v>4536</v>
+      </c>
+      <c r="F628" s="0">
+        <v>0.55884780760654</v>
+      </c>
+      <c r="G628" s="0">
+        <v>2420</v>
+      </c>
+      <c r="H628" s="0">
+        <v>0.562046965759263</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="629">
+      <c r="A629" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B629" s="1">
+        <v>44252</v>
+      </c>
+      <c r="C629" s="0">
+        <v>93494</v>
+      </c>
+      <c r="D629" s="0">
+        <v>7.50591680823119</v>
+      </c>
+      <c r="E629" s="0">
+        <v>56027</v>
+      </c>
+      <c r="F629" s="0">
+        <v>6.90268212450873</v>
+      </c>
+      <c r="G629" s="0">
+        <v>37342</v>
+      </c>
+      <c r="H629" s="0">
+        <v>8.67270983280264</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="630">
+      <c r="A630" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B630" s="1">
+        <v>44252</v>
+      </c>
+      <c r="C630" s="0">
+        <v>122218</v>
+      </c>
+      <c r="D630" s="0">
+        <v>9.81194665399276</v>
+      </c>
+      <c r="E630" s="0">
+        <v>72592</v>
+      </c>
+      <c r="F630" s="0">
+        <v>8.94353616617591</v>
+      </c>
+      <c r="G630" s="0">
+        <v>49385</v>
+      </c>
+      <c r="H630" s="0">
+        <v>11.469706365298</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="631">
+      <c r="A631" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B631" s="1">
+        <v>44252</v>
+      </c>
+      <c r="C631" s="0">
+        <v>132077</v>
+      </c>
+      <c r="D631" s="0">
+        <v>10.6034502137116</v>
+      </c>
+      <c r="E631" s="0">
+        <v>79305</v>
+      </c>
+      <c r="F631" s="0">
+        <v>9.77059642465534</v>
+      </c>
+      <c r="G631" s="0">
+        <v>52451</v>
+      </c>
+      <c r="H631" s="0">
+        <v>12.1817873558013</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="632">
+      <c r="A632" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B632" s="1">
+        <v>44252</v>
+      </c>
+      <c r="C632" s="0">
+        <v>144963</v>
+      </c>
+      <c r="D632" s="0">
+        <v>11.6379684072948</v>
+      </c>
+      <c r="E632" s="0">
+        <v>88107</v>
+      </c>
+      <c r="F632" s="0">
+        <v>10.8550272894156</v>
+      </c>
+      <c r="G632" s="0">
+        <v>56498</v>
+      </c>
+      <c r="H632" s="0">
+        <v>13.1217063931681</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="633">
+      <c r="A633" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B633" s="1">
+        <v>44252</v>
+      </c>
+      <c r="C633" s="0">
+        <v>176575</v>
+      </c>
+      <c r="D633" s="0">
+        <v>14.1758536420885</v>
+      </c>
+      <c r="E633" s="0">
+        <v>129775</v>
+      </c>
+      <c r="F633" s="0">
+        <v>15.9886407037343</v>
+      </c>
+      <c r="G633" s="0">
+        <v>46355</v>
+      </c>
+      <c r="H633" s="0">
+        <v>10.7659864040374</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="634">
+      <c r="A634" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B634" s="1">
+        <v>44252</v>
+      </c>
+      <c r="C634" s="0">
+        <v>363412</v>
+      </c>
+      <c r="D634" s="0">
+        <v>29.1755646256756</v>
+      </c>
+      <c r="E634" s="0">
+        <v>254286</v>
+      </c>
+      <c r="F634" s="0">
+        <v>31.328741976419</v>
+      </c>
+      <c r="G634" s="0">
+        <v>108057</v>
+      </c>
+      <c r="H634" s="0">
+        <v>25.0963260244003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="635">
+      <c r="A635" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B635" s="1">
+        <v>44252</v>
+      </c>
+      <c r="C635" s="0">
+        <v>205787</v>
+      </c>
+      <c r="D635" s="0">
+        <v>16.5210612682682</v>
+      </c>
+      <c r="E635" s="0">
+        <v>126947</v>
+      </c>
+      <c r="F635" s="0">
+        <v>15.6402232434364</v>
+      </c>
+      <c r="G635" s="0">
+        <v>78047</v>
+      </c>
+      <c r="H635" s="0">
+        <v>18.1264791473608</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="636">
+      <c r="A636" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B636" s="1">
+        <v>44252</v>
+      </c>
+      <c r="C636" s="0">
+        <v>109</v>
+      </c>
+      <c r="D636" s="0">
+        <v>8.7507747245513E-03</v>
+      </c>
+      <c r="E636" s="0">
+        <v>95</v>
+      </c>
+      <c r="F636" s="0">
+        <v>1.17042640481969E-02</v>
+      </c>
+      <c r="G636" s="0">
+        <v>14</v>
+      </c>
+      <c r="H636" s="0">
+        <v>3.25151137216102E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$636</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$645</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H636"/>
+  <dimension ref="A1:H645"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -15508,13 +15508,13 @@
         <v>4536</v>
       </c>
       <c r="F628" s="0">
-        <v>0.55884780760654</v>
+        <v>0.558</v>
       </c>
       <c r="G628" s="0">
         <v>2420</v>
       </c>
       <c r="H628" s="0">
-        <v>0.562046965759263</v>
+        <v>0.562</v>
       </c>
     </row>
     <row outlineLevel="0" r="629">
@@ -15536,13 +15536,13 @@
         <v>56027</v>
       </c>
       <c r="F629" s="0">
-        <v>6.90268212450873</v>
+        <v>6.902</v>
       </c>
       <c r="G629" s="0">
         <v>37342</v>
       </c>
       <c r="H629" s="0">
-        <v>8.67270983280264</v>
+        <v>8.672</v>
       </c>
     </row>
     <row outlineLevel="0" r="630">
@@ -15564,13 +15564,13 @@
         <v>72592</v>
       </c>
       <c r="F630" s="0">
-        <v>8.94353616617591</v>
+        <v>8.943</v>
       </c>
       <c r="G630" s="0">
         <v>49385</v>
       </c>
       <c r="H630" s="0">
-        <v>11.469706365298</v>
+        <v>11.46</v>
       </c>
     </row>
     <row outlineLevel="0" r="631">
@@ -15592,13 +15592,13 @@
         <v>79305</v>
       </c>
       <c r="F631" s="0">
-        <v>9.77059642465534</v>
+        <v>9.77</v>
       </c>
       <c r="G631" s="0">
         <v>52451</v>
       </c>
       <c r="H631" s="0">
-        <v>12.1817873558013</v>
+        <v>12.18</v>
       </c>
     </row>
     <row outlineLevel="0" r="632">
@@ -15620,13 +15620,13 @@
         <v>88107</v>
       </c>
       <c r="F632" s="0">
-        <v>10.8550272894156</v>
+        <v>10.85</v>
       </c>
       <c r="G632" s="0">
         <v>56498</v>
       </c>
       <c r="H632" s="0">
-        <v>13.1217063931681</v>
+        <v>13.12</v>
       </c>
     </row>
     <row outlineLevel="0" r="633">
@@ -15648,13 +15648,13 @@
         <v>129775</v>
       </c>
       <c r="F633" s="0">
-        <v>15.9886407037343</v>
+        <v>15.98</v>
       </c>
       <c r="G633" s="0">
         <v>46355</v>
       </c>
       <c r="H633" s="0">
-        <v>10.7659864040374</v>
+        <v>10.76</v>
       </c>
     </row>
     <row outlineLevel="0" r="634">
@@ -15676,13 +15676,13 @@
         <v>254286</v>
       </c>
       <c r="F634" s="0">
-        <v>31.328741976419</v>
+        <v>31.32</v>
       </c>
       <c r="G634" s="0">
         <v>108057</v>
       </c>
       <c r="H634" s="0">
-        <v>25.0963260244003</v>
+        <v>25.09</v>
       </c>
     </row>
     <row outlineLevel="0" r="635">
@@ -15704,13 +15704,13 @@
         <v>126947</v>
       </c>
       <c r="F635" s="0">
-        <v>15.6402232434364</v>
+        <v>15.64</v>
       </c>
       <c r="G635" s="0">
         <v>78047</v>
       </c>
       <c r="H635" s="0">
-        <v>18.1264791473608</v>
+        <v>18.12</v>
       </c>
     </row>
     <row outlineLevel="0" r="636">
@@ -15732,13 +15732,265 @@
         <v>95</v>
       </c>
       <c r="F636" s="0">
-        <v>1.17042640481969E-02</v>
+        <v>0.011</v>
       </c>
       <c r="G636" s="0">
         <v>14</v>
       </c>
       <c r="H636" s="0">
-        <v>3.25151137216102E-03</v>
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="637">
+      <c r="A637" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B637" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C637" s="0">
+        <v>7216</v>
+      </c>
+      <c r="D637" s="0">
+        <v>0.553115914423402</v>
+      </c>
+      <c r="E637" s="0">
+        <v>4683</v>
+      </c>
+      <c r="F637" s="0">
+        <v>0.553468247374187</v>
+      </c>
+      <c r="G637" s="0">
+        <v>2519</v>
+      </c>
+      <c r="H637" s="0">
+        <v>0.553821123911705</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="638">
+      <c r="A638" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B638" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C638" s="0">
+        <v>96376</v>
+      </c>
+      <c r="D638" s="0">
+        <v>7.38734747345756</v>
+      </c>
+      <c r="E638" s="0">
+        <v>57978</v>
+      </c>
+      <c r="F638" s="0">
+        <v>6.85222764173834</v>
+      </c>
+      <c r="G638" s="0">
+        <v>38267</v>
+      </c>
+      <c r="H638" s="0">
+        <v>8.41328818925336</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="639">
+      <c r="A639" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B639" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C639" s="0">
+        <v>126430</v>
+      </c>
+      <c r="D639" s="0">
+        <v>9.69102620018718</v>
+      </c>
+      <c r="E639" s="0">
+        <v>75567</v>
+      </c>
+      <c r="F639" s="0">
+        <v>8.93101324990929</v>
+      </c>
+      <c r="G639" s="0">
+        <v>50612</v>
+      </c>
+      <c r="H639" s="0">
+        <v>11.1274294257321</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="640">
+      <c r="A640" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B640" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C640" s="0">
+        <v>137352</v>
+      </c>
+      <c r="D640" s="0">
+        <v>10.528211901037</v>
+      </c>
+      <c r="E640" s="0">
+        <v>83057</v>
+      </c>
+      <c r="F640" s="0">
+        <v>9.81623152298908</v>
+      </c>
+      <c r="G640" s="0">
+        <v>53957</v>
+      </c>
+      <c r="H640" s="0">
+        <v>11.8628528713394</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="641">
+      <c r="A641" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B641" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C641" s="0">
+        <v>150870</v>
+      </c>
+      <c r="D641" s="0">
+        <v>11.5643844247587</v>
+      </c>
+      <c r="E641" s="0">
+        <v>92247</v>
+      </c>
+      <c r="F641" s="0">
+        <v>10.9023671611204</v>
+      </c>
+      <c r="G641" s="0">
+        <v>58235</v>
+      </c>
+      <c r="H641" s="0">
+        <v>12.8034033946003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="642">
+      <c r="A642" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B642" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C642" s="0">
+        <v>193406</v>
+      </c>
+      <c r="D642" s="0">
+        <v>14.8248249092257</v>
+      </c>
+      <c r="E642" s="0">
+        <v>143719</v>
+      </c>
+      <c r="F642" s="0">
+        <v>16.9856722281381</v>
+      </c>
+      <c r="G642" s="0">
+        <v>49210</v>
+      </c>
+      <c r="H642" s="0">
+        <v>10.8191891654208</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="643">
+      <c r="A643" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B643" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C643" s="0">
+        <v>379744</v>
+      </c>
+      <c r="D643" s="0">
+        <v>29.1078782991686</v>
+      </c>
+      <c r="E643" s="0">
+        <v>260325</v>
+      </c>
+      <c r="F643" s="0">
+        <v>30.7669488570757</v>
+      </c>
+      <c r="G643" s="0">
+        <v>118221</v>
+      </c>
+      <c r="H643" s="0">
+        <v>25.9917773282913</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="644">
+      <c r="A644" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B644" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C644" s="0">
+        <v>213101</v>
+      </c>
+      <c r="D644" s="0">
+        <v>16.3344726274309</v>
+      </c>
+      <c r="E644" s="0">
+        <v>128443</v>
+      </c>
+      <c r="F644" s="0">
+        <v>15.1802524231225</v>
+      </c>
+      <c r="G644" s="0">
+        <v>83805</v>
+      </c>
+      <c r="H644" s="0">
+        <v>18.4251604959986</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="645">
+      <c r="A645" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B645" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C645" s="0">
+        <v>114</v>
+      </c>
+      <c r="D645" s="0">
+        <v>8.73825031101273E-03</v>
+      </c>
+      <c r="E645" s="0">
+        <v>100</v>
+      </c>
+      <c r="F645" s="0">
+        <v>1.18186685324405E-02</v>
+      </c>
+      <c r="G645" s="0">
+        <v>14</v>
+      </c>
+      <c r="H645" s="0">
+        <v>3.0780054524668E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$636</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$663</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H636"/>
+  <dimension ref="A1:H663"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -15508,13 +15508,13 @@
         <v>4536</v>
       </c>
       <c r="F628" s="0">
-        <v>0.55884780760654</v>
+        <v>0.558</v>
       </c>
       <c r="G628" s="0">
         <v>2420</v>
       </c>
       <c r="H628" s="0">
-        <v>0.562046965759263</v>
+        <v>0.562</v>
       </c>
     </row>
     <row outlineLevel="0" r="629">
@@ -15536,13 +15536,13 @@
         <v>56027</v>
       </c>
       <c r="F629" s="0">
-        <v>6.90268212450873</v>
+        <v>6.902</v>
       </c>
       <c r="G629" s="0">
         <v>37342</v>
       </c>
       <c r="H629" s="0">
-        <v>8.67270983280264</v>
+        <v>8.672</v>
       </c>
     </row>
     <row outlineLevel="0" r="630">
@@ -15564,13 +15564,13 @@
         <v>72592</v>
       </c>
       <c r="F630" s="0">
-        <v>8.94353616617591</v>
+        <v>8.943</v>
       </c>
       <c r="G630" s="0">
         <v>49385</v>
       </c>
       <c r="H630" s="0">
-        <v>11.469706365298</v>
+        <v>11.46</v>
       </c>
     </row>
     <row outlineLevel="0" r="631">
@@ -15592,13 +15592,13 @@
         <v>79305</v>
       </c>
       <c r="F631" s="0">
-        <v>9.77059642465534</v>
+        <v>9.77</v>
       </c>
       <c r="G631" s="0">
         <v>52451</v>
       </c>
       <c r="H631" s="0">
-        <v>12.1817873558013</v>
+        <v>12.18</v>
       </c>
     </row>
     <row outlineLevel="0" r="632">
@@ -15620,13 +15620,13 @@
         <v>88107</v>
       </c>
       <c r="F632" s="0">
-        <v>10.8550272894156</v>
+        <v>10.85</v>
       </c>
       <c r="G632" s="0">
         <v>56498</v>
       </c>
       <c r="H632" s="0">
-        <v>13.1217063931681</v>
+        <v>13.12</v>
       </c>
     </row>
     <row outlineLevel="0" r="633">
@@ -15648,13 +15648,13 @@
         <v>129775</v>
       </c>
       <c r="F633" s="0">
-        <v>15.9886407037343</v>
+        <v>15.98</v>
       </c>
       <c r="G633" s="0">
         <v>46355</v>
       </c>
       <c r="H633" s="0">
-        <v>10.7659864040374</v>
+        <v>10.76</v>
       </c>
     </row>
     <row outlineLevel="0" r="634">
@@ -15676,13 +15676,13 @@
         <v>254286</v>
       </c>
       <c r="F634" s="0">
-        <v>31.328741976419</v>
+        <v>31.32</v>
       </c>
       <c r="G634" s="0">
         <v>108057</v>
       </c>
       <c r="H634" s="0">
-        <v>25.0963260244003</v>
+        <v>25.09</v>
       </c>
     </row>
     <row outlineLevel="0" r="635">
@@ -15704,13 +15704,13 @@
         <v>126947</v>
       </c>
       <c r="F635" s="0">
-        <v>15.6402232434364</v>
+        <v>15.64</v>
       </c>
       <c r="G635" s="0">
         <v>78047</v>
       </c>
       <c r="H635" s="0">
-        <v>18.1264791473608</v>
+        <v>18.12</v>
       </c>
     </row>
     <row outlineLevel="0" r="636">
@@ -15732,13 +15732,769 @@
         <v>95</v>
       </c>
       <c r="F636" s="0">
-        <v>1.17042640481969E-02</v>
+        <v>0.011</v>
       </c>
       <c r="G636" s="0">
         <v>14</v>
       </c>
       <c r="H636" s="0">
-        <v>3.25151137216102E-03</v>
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="637">
+      <c r="A637" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B637" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C637" s="0">
+        <v>7216</v>
+      </c>
+      <c r="D637" s="0">
+        <v>0.553115914423402</v>
+      </c>
+      <c r="E637" s="0">
+        <v>4683</v>
+      </c>
+      <c r="F637" s="0">
+        <v>0.553</v>
+      </c>
+      <c r="G637" s="0">
+        <v>2519</v>
+      </c>
+      <c r="H637" s="0">
+        <v>0.553</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="638">
+      <c r="A638" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B638" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C638" s="0">
+        <v>96376</v>
+      </c>
+      <c r="D638" s="0">
+        <v>7.38734747345756</v>
+      </c>
+      <c r="E638" s="0">
+        <v>57978</v>
+      </c>
+      <c r="F638" s="0">
+        <v>6.852</v>
+      </c>
+      <c r="G638" s="0">
+        <v>38267</v>
+      </c>
+      <c r="H638" s="0">
+        <v>8.413</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="639">
+      <c r="A639" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B639" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C639" s="0">
+        <v>126430</v>
+      </c>
+      <c r="D639" s="0">
+        <v>9.69102620018718</v>
+      </c>
+      <c r="E639" s="0">
+        <v>75567</v>
+      </c>
+      <c r="F639" s="0">
+        <v>8.931</v>
+      </c>
+      <c r="G639" s="0">
+        <v>50612</v>
+      </c>
+      <c r="H639" s="0">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="640">
+      <c r="A640" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B640" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C640" s="0">
+        <v>137352</v>
+      </c>
+      <c r="D640" s="0">
+        <v>10.528211901037</v>
+      </c>
+      <c r="E640" s="0">
+        <v>83057</v>
+      </c>
+      <c r="F640" s="0">
+        <v>9.816</v>
+      </c>
+      <c r="G640" s="0">
+        <v>53957</v>
+      </c>
+      <c r="H640" s="0">
+        <v>11.86</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="641">
+      <c r="A641" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B641" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C641" s="0">
+        <v>150870</v>
+      </c>
+      <c r="D641" s="0">
+        <v>11.5643844247587</v>
+      </c>
+      <c r="E641" s="0">
+        <v>92247</v>
+      </c>
+      <c r="F641" s="0">
+        <v>10.9</v>
+      </c>
+      <c r="G641" s="0">
+        <v>58235</v>
+      </c>
+      <c r="H641" s="0">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="642">
+      <c r="A642" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B642" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C642" s="0">
+        <v>193406</v>
+      </c>
+      <c r="D642" s="0">
+        <v>14.8248249092257</v>
+      </c>
+      <c r="E642" s="0">
+        <v>143719</v>
+      </c>
+      <c r="F642" s="0">
+        <v>16.98</v>
+      </c>
+      <c r="G642" s="0">
+        <v>49210</v>
+      </c>
+      <c r="H642" s="0">
+        <v>10.81</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="643">
+      <c r="A643" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B643" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C643" s="0">
+        <v>379744</v>
+      </c>
+      <c r="D643" s="0">
+        <v>29.1078782991686</v>
+      </c>
+      <c r="E643" s="0">
+        <v>260325</v>
+      </c>
+      <c r="F643" s="0">
+        <v>30.76</v>
+      </c>
+      <c r="G643" s="0">
+        <v>118221</v>
+      </c>
+      <c r="H643" s="0">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="644">
+      <c r="A644" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B644" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C644" s="0">
+        <v>213101</v>
+      </c>
+      <c r="D644" s="0">
+        <v>16.3344726274309</v>
+      </c>
+      <c r="E644" s="0">
+        <v>128443</v>
+      </c>
+      <c r="F644" s="0">
+        <v>15.18</v>
+      </c>
+      <c r="G644" s="0">
+        <v>83805</v>
+      </c>
+      <c r="H644" s="0">
+        <v>18.42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="645">
+      <c r="A645" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B645" s="1">
+        <v>44253</v>
+      </c>
+      <c r="C645" s="0">
+        <v>114</v>
+      </c>
+      <c r="D645" s="0">
+        <v>8.73825031101273E-03</v>
+      </c>
+      <c r="E645" s="0">
+        <v>100</v>
+      </c>
+      <c r="F645" s="0">
+        <v>0.011</v>
+      </c>
+      <c r="G645" s="0">
+        <v>14</v>
+      </c>
+      <c r="H645" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="646">
+      <c r="A646" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B646" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C646" s="0">
+        <v>7495</v>
+      </c>
+      <c r="D646" s="0">
+        <v>0.556062115736595</v>
+      </c>
+      <c r="E646" s="0">
+        <v>4899</v>
+      </c>
+      <c r="F646" s="0">
+        <v>0.56</v>
+      </c>
+      <c r="G646" s="0">
+        <v>2582</v>
+      </c>
+      <c r="H646" s="0">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="647">
+      <c r="A647" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B647" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C647" s="0">
+        <v>99166</v>
+      </c>
+      <c r="D647" s="0">
+        <v>7.35723225738962</v>
+      </c>
+      <c r="E647" s="0">
+        <v>60041</v>
+      </c>
+      <c r="F647" s="0">
+        <v>6.863</v>
+      </c>
+      <c r="G647" s="0">
+        <v>38990</v>
+      </c>
+      <c r="H647" s="0">
+        <v>8.308</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="648">
+      <c r="A648" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B648" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C648" s="0">
+        <v>130222</v>
+      </c>
+      <c r="D648" s="0">
+        <v>9.6613103182723</v>
+      </c>
+      <c r="E648" s="0">
+        <v>78427</v>
+      </c>
+      <c r="F648" s="0">
+        <v>8.965</v>
+      </c>
+      <c r="G648" s="0">
+        <v>51539</v>
+      </c>
+      <c r="H648" s="0">
+        <v>10.98</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="649">
+      <c r="A649" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B649" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C649" s="0">
+        <v>141912</v>
+      </c>
+      <c r="D649" s="0">
+        <v>10.5286039984539</v>
+      </c>
+      <c r="E649" s="0">
+        <v>86594</v>
+      </c>
+      <c r="F649" s="0">
+        <v>9.898</v>
+      </c>
+      <c r="G649" s="0">
+        <v>54964</v>
+      </c>
+      <c r="H649" s="0">
+        <v>11.71</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="650">
+      <c r="A650" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B650" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C650" s="0">
+        <v>155944</v>
+      </c>
+      <c r="D650" s="0">
+        <v>11.5696531789763</v>
+      </c>
+      <c r="E650" s="0">
+        <v>96227</v>
+      </c>
+      <c r="F650" s="0">
+        <v>10.99</v>
+      </c>
+      <c r="G650" s="0">
+        <v>59318</v>
+      </c>
+      <c r="H650" s="0">
+        <v>12.63</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="651">
+      <c r="A651" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B651" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C651" s="0">
+        <v>205526</v>
+      </c>
+      <c r="D651" s="0">
+        <v>15.248195116595</v>
+      </c>
+      <c r="E651" s="0">
+        <v>154182</v>
+      </c>
+      <c r="F651" s="0">
+        <v>17.62</v>
+      </c>
+      <c r="G651" s="0">
+        <v>50860</v>
+      </c>
+      <c r="H651" s="0">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="652">
+      <c r="A652" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B652" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C652" s="0">
+        <v>389989</v>
+      </c>
+      <c r="D652" s="0">
+        <v>28.933703596264</v>
+      </c>
+      <c r="E652" s="0">
+        <v>264709</v>
+      </c>
+      <c r="F652" s="0">
+        <v>30.25</v>
+      </c>
+      <c r="G652" s="0">
+        <v>124033</v>
+      </c>
+      <c r="H652" s="0">
+        <v>26.42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="653">
+      <c r="A653" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B653" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C653" s="0">
+        <v>217490</v>
+      </c>
+      <c r="D653" s="0">
+        <v>16.1358171516414</v>
+      </c>
+      <c r="E653" s="0">
+        <v>129606</v>
+      </c>
+      <c r="F653" s="0">
+        <v>14.81</v>
+      </c>
+      <c r="G653" s="0">
+        <v>86992</v>
+      </c>
+      <c r="H653" s="0">
+        <v>18.53</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="654">
+      <c r="A654" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B654" s="1">
+        <v>44254</v>
+      </c>
+      <c r="C654" s="0">
+        <v>127</v>
+      </c>
+      <c r="D654" s="0">
+        <v>9.42226667092029E-03</v>
+      </c>
+      <c r="E654" s="0">
+        <v>113</v>
+      </c>
+      <c r="F654" s="0">
+        <v>0.012</v>
+      </c>
+      <c r="G654" s="0">
+        <v>14</v>
+      </c>
+      <c r="H654" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="655">
+      <c r="A655" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B655" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C655" s="0">
+        <v>7638</v>
+      </c>
+      <c r="D655" s="0">
+        <v>0.557972364369542</v>
+      </c>
+      <c r="E655" s="0">
+        <v>4999</v>
+      </c>
+      <c r="F655" s="0">
+        <v>0.56208580044661</v>
+      </c>
+      <c r="G655" s="0">
+        <v>2625</v>
+      </c>
+      <c r="H655" s="0">
+        <v>0.551957609655578</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="656">
+      <c r="A656" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B656" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C656" s="0">
+        <v>100362</v>
+      </c>
+      <c r="D656" s="0">
+        <v>7.3316604389704</v>
+      </c>
+      <c r="E656" s="0">
+        <v>60980</v>
+      </c>
+      <c r="F656" s="0">
+        <v>6.8565697361941</v>
+      </c>
+      <c r="G656" s="0">
+        <v>39245</v>
+      </c>
+      <c r="H656" s="0">
+        <v>8.25202910130788</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="657">
+      <c r="A657" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B657" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C657" s="0">
+        <v>131827</v>
+      </c>
+      <c r="D657" s="0">
+        <v>9.63024651449903</v>
+      </c>
+      <c r="E657" s="0">
+        <v>79694</v>
+      </c>
+      <c r="F657" s="0">
+        <v>8.96076530922027</v>
+      </c>
+      <c r="G657" s="0">
+        <v>51869</v>
+      </c>
+      <c r="H657" s="0">
+        <v>10.9064720972286</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="658">
+      <c r="A658" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B658" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C658" s="0">
+        <v>143840</v>
+      </c>
+      <c r="D658" s="0">
+        <v>10.5078220595594</v>
+      </c>
+      <c r="E658" s="0">
+        <v>88134</v>
+      </c>
+      <c r="F658" s="0">
+        <v>9.90975593850001</v>
+      </c>
+      <c r="G658" s="0">
+        <v>55341</v>
+      </c>
+      <c r="H658" s="0">
+        <v>11.6365280289331</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="659">
+      <c r="A659" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B659" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C659" s="0">
+        <v>158331</v>
+      </c>
+      <c r="D659" s="0">
+        <v>11.5664208461631</v>
+      </c>
+      <c r="E659" s="0">
+        <v>98099</v>
+      </c>
+      <c r="F659" s="0">
+        <v>11.0302170310086</v>
+      </c>
+      <c r="G659" s="0">
+        <v>59823</v>
+      </c>
+      <c r="H659" s="0">
+        <v>12.5789562218764</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="660">
+      <c r="A660" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B660" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C660" s="0">
+        <v>212500</v>
+      </c>
+      <c r="D660" s="0">
+        <v>15.5235830621272</v>
+      </c>
+      <c r="E660" s="0">
+        <v>160229</v>
+      </c>
+      <c r="F660" s="0">
+        <v>18.0160923624245</v>
+      </c>
+      <c r="G660" s="0">
+        <v>51769</v>
+      </c>
+      <c r="H660" s="0">
+        <v>10.8854451406703</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="661">
+      <c r="A661" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B661" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C661" s="0">
+        <v>394240</v>
+      </c>
+      <c r="D661" s="0">
+        <v>28.8000818184143</v>
+      </c>
+      <c r="E661" s="0">
+        <v>266884</v>
+      </c>
+      <c r="F661" s="0">
+        <v>30.008343021883</v>
+      </c>
+      <c r="G661" s="0">
+        <v>126051</v>
+      </c>
+      <c r="H661" s="0">
+        <v>26.5046890113125</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="662">
+      <c r="A662" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B662" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C662" s="0">
+        <v>220019</v>
+      </c>
+      <c r="D662" s="0">
+        <v>16.072862219982</v>
+      </c>
+      <c r="E662" s="0">
+        <v>130233</v>
+      </c>
+      <c r="F662" s="0">
+        <v>14.6433526804488</v>
+      </c>
+      <c r="G662" s="0">
+        <v>88843</v>
+      </c>
+      <c r="H662" s="0">
+        <v>18.6809790150974</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="663">
+      <c r="A663" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B663" s="1">
+        <v>44255</v>
+      </c>
+      <c r="C663" s="0">
+        <v>128</v>
+      </c>
+      <c r="D663" s="0">
+        <v>9.35067591506956E-03</v>
+      </c>
+      <c r="E663" s="0">
+        <v>114</v>
+      </c>
+      <c r="F663" s="0">
+        <v>1.28181198741575E-02</v>
+      </c>
+      <c r="G663" s="0">
+        <v>14</v>
+      </c>
+      <c r="H663" s="0">
+        <v>2.94377391816309E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$663</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$672</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H663"/>
+  <dimension ref="A1:H672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16264,13 +16264,13 @@
         <v>4999</v>
       </c>
       <c r="F655" s="0">
-        <v>0.56208580044661</v>
+        <v>0.562</v>
       </c>
       <c r="G655" s="0">
         <v>2625</v>
       </c>
       <c r="H655" s="0">
-        <v>0.551957609655578</v>
+        <v>0.551</v>
       </c>
     </row>
     <row outlineLevel="0" r="656">
@@ -16292,13 +16292,13 @@
         <v>60980</v>
       </c>
       <c r="F656" s="0">
-        <v>6.8565697361941</v>
+        <v>6.856</v>
       </c>
       <c r="G656" s="0">
         <v>39245</v>
       </c>
       <c r="H656" s="0">
-        <v>8.25202910130788</v>
+        <v>8.252</v>
       </c>
     </row>
     <row outlineLevel="0" r="657">
@@ -16320,13 +16320,13 @@
         <v>79694</v>
       </c>
       <c r="F657" s="0">
-        <v>8.96076530922027</v>
+        <v>8.96</v>
       </c>
       <c r="G657" s="0">
         <v>51869</v>
       </c>
       <c r="H657" s="0">
-        <v>10.9064720972286</v>
+        <v>10.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="658">
@@ -16348,13 +16348,13 @@
         <v>88134</v>
       </c>
       <c r="F658" s="0">
-        <v>9.90975593850001</v>
+        <v>9.909</v>
       </c>
       <c r="G658" s="0">
         <v>55341</v>
       </c>
       <c r="H658" s="0">
-        <v>11.6365280289331</v>
+        <v>11.63</v>
       </c>
     </row>
     <row outlineLevel="0" r="659">
@@ -16376,13 +16376,13 @@
         <v>98099</v>
       </c>
       <c r="F659" s="0">
-        <v>11.0302170310086</v>
+        <v>11.03</v>
       </c>
       <c r="G659" s="0">
         <v>59823</v>
       </c>
       <c r="H659" s="0">
-        <v>12.5789562218764</v>
+        <v>12.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="660">
@@ -16404,13 +16404,13 @@
         <v>160229</v>
       </c>
       <c r="F660" s="0">
-        <v>18.0160923624245</v>
+        <v>18.01</v>
       </c>
       <c r="G660" s="0">
         <v>51769</v>
       </c>
       <c r="H660" s="0">
-        <v>10.8854451406703</v>
+        <v>10.88</v>
       </c>
     </row>
     <row outlineLevel="0" r="661">
@@ -16432,13 +16432,13 @@
         <v>266884</v>
       </c>
       <c r="F661" s="0">
-        <v>30.008343021883</v>
+        <v>30</v>
       </c>
       <c r="G661" s="0">
         <v>126051</v>
       </c>
       <c r="H661" s="0">
-        <v>26.5046890113125</v>
+        <v>26.5</v>
       </c>
     </row>
     <row outlineLevel="0" r="662">
@@ -16460,13 +16460,13 @@
         <v>130233</v>
       </c>
       <c r="F662" s="0">
-        <v>14.6433526804488</v>
+        <v>14.64</v>
       </c>
       <c r="G662" s="0">
         <v>88843</v>
       </c>
       <c r="H662" s="0">
-        <v>18.6809790150974</v>
+        <v>18.68</v>
       </c>
     </row>
     <row outlineLevel="0" r="663">
@@ -16488,13 +16488,265 @@
         <v>114</v>
       </c>
       <c r="F663" s="0">
-        <v>1.28181198741575E-02</v>
+        <v>0.012</v>
       </c>
       <c r="G663" s="0">
         <v>14</v>
       </c>
       <c r="H663" s="0">
-        <v>2.94377391816309E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="664">
+      <c r="A664" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B664" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C664" s="0">
+        <v>7765</v>
+      </c>
+      <c r="D664" s="0">
+        <v>0.557296384068716</v>
+      </c>
+      <c r="E664" s="0">
+        <v>5100</v>
+      </c>
+      <c r="F664" s="0">
+        <v>0.562823830623134</v>
+      </c>
+      <c r="G664" s="0">
+        <v>2651</v>
+      </c>
+      <c r="H664" s="0">
+        <v>0.548795382749069</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="665">
+      <c r="A665" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B665" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C665" s="0">
+        <v>101567</v>
+      </c>
+      <c r="D665" s="0">
+        <v>7.28949411985927</v>
+      </c>
+      <c r="E665" s="0">
+        <v>61857</v>
+      </c>
+      <c r="F665" s="0">
+        <v>6.82639091977553</v>
+      </c>
+      <c r="G665" s="0">
+        <v>39569</v>
+      </c>
+      <c r="H665" s="0">
+        <v>8.19135590343189</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="666">
+      <c r="A666" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B666" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C666" s="0">
+        <v>133568</v>
+      </c>
+      <c r="D666" s="0">
+        <v>9.5862155089878</v>
+      </c>
+      <c r="E666" s="0">
+        <v>81082</v>
+      </c>
+      <c r="F666" s="0">
+        <v>8.94801604599705</v>
+      </c>
+      <c r="G666" s="0">
+        <v>52220</v>
+      </c>
+      <c r="H666" s="0">
+        <v>10.8102960721073</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="667">
+      <c r="A667" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B667" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C667" s="0">
+        <v>145966</v>
+      </c>
+      <c r="D667" s="0">
+        <v>10.4760236956824</v>
+      </c>
+      <c r="E667" s="0">
+        <v>89785</v>
+      </c>
+      <c r="F667" s="0">
+        <v>9.90845835931335</v>
+      </c>
+      <c r="G667" s="0">
+        <v>55808</v>
+      </c>
+      <c r="H667" s="0">
+        <v>11.5530640212977</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="668">
+      <c r="A668" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B668" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C668" s="0">
+        <v>161035</v>
+      </c>
+      <c r="D668" s="0">
+        <v>11.5575303552486</v>
+      </c>
+      <c r="E668" s="0">
+        <v>100150</v>
+      </c>
+      <c r="F668" s="0">
+        <v>11.0523150268445</v>
+      </c>
+      <c r="G668" s="0">
+        <v>60462</v>
+      </c>
+      <c r="H668" s="0">
+        <v>12.5165094046678</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="669">
+      <c r="A669" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B669" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C669" s="0">
+        <v>220892</v>
+      </c>
+      <c r="D669" s="0">
+        <v>15.8534852375669</v>
+      </c>
+      <c r="E669" s="0">
+        <v>167563</v>
+      </c>
+      <c r="F669" s="0">
+        <v>18.4918528491577</v>
+      </c>
+      <c r="G669" s="0">
+        <v>52804</v>
+      </c>
+      <c r="H669" s="0">
+        <v>10.9311925276054</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="670">
+      <c r="A670" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B670" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C670" s="0">
+        <v>400189</v>
+      </c>
+      <c r="D670" s="0">
+        <v>28.7216848221604</v>
+      </c>
+      <c r="E670" s="0">
+        <v>269568</v>
+      </c>
+      <c r="F670" s="0">
+        <v>29.7488812496896</v>
+      </c>
+      <c r="G670" s="0">
+        <v>129226</v>
+      </c>
+      <c r="H670" s="0">
+        <v>26.7516530106116</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="671">
+      <c r="A671" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B671" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C671" s="0">
+        <v>222223</v>
+      </c>
+      <c r="D671" s="0">
+        <v>15.94901150765</v>
+      </c>
+      <c r="E671" s="0">
+        <v>130925</v>
+      </c>
+      <c r="F671" s="0">
+        <v>14.4485705930066</v>
+      </c>
+      <c r="G671" s="0">
+        <v>90304</v>
+      </c>
+      <c r="H671" s="0">
+        <v>18.6942354748291</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="672">
+      <c r="A672" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B672" s="1">
+        <v>44256</v>
+      </c>
+      <c r="C672" s="0">
+        <v>129</v>
+      </c>
+      <c r="D672" s="0">
+        <v>9.25836877590011E-03</v>
+      </c>
+      <c r="E672" s="0">
+        <v>115</v>
+      </c>
+      <c r="F672" s="0">
+        <v>1.26911255924824E-02</v>
+      </c>
+      <c r="G672" s="0">
+        <v>14</v>
+      </c>
+      <c r="H672" s="0">
+        <v>2.89820270029686E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$672</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$681</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H672"/>
+  <dimension ref="A1:H681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16432,7 +16432,7 @@
         <v>266884</v>
       </c>
       <c r="F661" s="0">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="G661" s="0">
         <v>126051</v>
@@ -16516,13 +16516,13 @@
         <v>5100</v>
       </c>
       <c r="F664" s="0">
-        <v>0.562823830623134</v>
+        <v>0.562</v>
       </c>
       <c r="G664" s="0">
         <v>2651</v>
       </c>
       <c r="H664" s="0">
-        <v>0.548795382749069</v>
+        <v>0.548</v>
       </c>
     </row>
     <row outlineLevel="0" r="665">
@@ -16544,13 +16544,13 @@
         <v>61857</v>
       </c>
       <c r="F665" s="0">
-        <v>6.82639091977553</v>
+        <v>6.826</v>
       </c>
       <c r="G665" s="0">
         <v>39569</v>
       </c>
       <c r="H665" s="0">
-        <v>8.19135590343189</v>
+        <v>8.191</v>
       </c>
     </row>
     <row outlineLevel="0" r="666">
@@ -16572,13 +16572,13 @@
         <v>81082</v>
       </c>
       <c r="F666" s="0">
-        <v>8.94801604599705</v>
+        <v>8.948</v>
       </c>
       <c r="G666" s="0">
         <v>52220</v>
       </c>
       <c r="H666" s="0">
-        <v>10.8102960721073</v>
+        <v>10.81</v>
       </c>
     </row>
     <row outlineLevel="0" r="667">
@@ -16600,13 +16600,13 @@
         <v>89785</v>
       </c>
       <c r="F667" s="0">
-        <v>9.90845835931335</v>
+        <v>9.908</v>
       </c>
       <c r="G667" s="0">
         <v>55808</v>
       </c>
       <c r="H667" s="0">
-        <v>11.5530640212977</v>
+        <v>11.55</v>
       </c>
     </row>
     <row outlineLevel="0" r="668">
@@ -16628,13 +16628,13 @@
         <v>100150</v>
       </c>
       <c r="F668" s="0">
-        <v>11.0523150268445</v>
+        <v>11.05</v>
       </c>
       <c r="G668" s="0">
         <v>60462</v>
       </c>
       <c r="H668" s="0">
-        <v>12.5165094046678</v>
+        <v>12.51</v>
       </c>
     </row>
     <row outlineLevel="0" r="669">
@@ -16656,13 +16656,13 @@
         <v>167563</v>
       </c>
       <c r="F669" s="0">
-        <v>18.4918528491577</v>
+        <v>18.49</v>
       </c>
       <c r="G669" s="0">
         <v>52804</v>
       </c>
       <c r="H669" s="0">
-        <v>10.9311925276054</v>
+        <v>10.93</v>
       </c>
     </row>
     <row outlineLevel="0" r="670">
@@ -16684,13 +16684,13 @@
         <v>269568</v>
       </c>
       <c r="F670" s="0">
-        <v>29.7488812496896</v>
+        <v>29.74</v>
       </c>
       <c r="G670" s="0">
         <v>129226</v>
       </c>
       <c r="H670" s="0">
-        <v>26.7516530106116</v>
+        <v>26.75</v>
       </c>
     </row>
     <row outlineLevel="0" r="671">
@@ -16712,13 +16712,13 @@
         <v>130925</v>
       </c>
       <c r="F671" s="0">
-        <v>14.4485705930066</v>
+        <v>14.44</v>
       </c>
       <c r="G671" s="0">
         <v>90304</v>
       </c>
       <c r="H671" s="0">
-        <v>18.6942354748291</v>
+        <v>18.69</v>
       </c>
     </row>
     <row outlineLevel="0" r="672">
@@ -16740,13 +16740,265 @@
         <v>115</v>
       </c>
       <c r="F672" s="0">
-        <v>1.26911255924824E-02</v>
+        <v>0.012</v>
       </c>
       <c r="G672" s="0">
         <v>14</v>
       </c>
       <c r="H672" s="0">
-        <v>2.89820270029686E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="673">
+      <c r="A673" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B673" s="1">
+        <v>44257</v>
+      </c>
+      <c r="C673" s="0">
+        <v>7990</v>
+      </c>
+      <c r="D673" s="0">
+        <v>0.556535742619981</v>
+      </c>
+      <c r="E673" s="0">
+        <v>5261</v>
+      </c>
+      <c r="F673" s="0">
+        <v>0.563728904366461</v>
+      </c>
+      <c r="G673" s="0">
+        <v>2718</v>
+      </c>
+      <c r="H673" s="0">
+        <v>0.545514756796355</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="674">
+      <c r="A674" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B674" s="1">
+        <v>44257</v>
+      </c>
+      <c r="C674" s="0">
+        <v>103730</v>
+      </c>
+      <c r="D674" s="0">
+        <v>7.22521308910771</v>
+      </c>
+      <c r="E674" s="0">
+        <v>63217</v>
+      </c>
+      <c r="F674" s="0">
+        <v>6.77385480846504</v>
+      </c>
+      <c r="G674" s="0">
+        <v>40383</v>
+      </c>
+      <c r="H674" s="0">
+        <v>8.10504872101075</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="675">
+      <c r="A675" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B675" s="1">
+        <v>44257</v>
+      </c>
+      <c r="C675" s="0">
+        <v>136180</v>
+      </c>
+      <c r="D675" s="0">
+        <v>9.48548653691977</v>
+      </c>
+      <c r="E675" s="0">
+        <v>82958</v>
+      </c>
+      <c r="F675" s="0">
+        <v>8.88915081703724</v>
+      </c>
+      <c r="G675" s="0">
+        <v>52965</v>
+      </c>
+      <c r="H675" s="0">
+        <v>10.6303123965118</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="676">
+      <c r="A676" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B676" s="1">
+        <v>44257</v>
+      </c>
+      <c r="C676" s="0">
+        <v>149071</v>
+      </c>
+      <c r="D676" s="0">
+        <v>10.3833967068965</v>
+      </c>
+      <c r="E676" s="0">
+        <v>92093</v>
+      </c>
+      <c r="F676" s="0">
+        <v>9.86798821323332</v>
+      </c>
+      <c r="G676" s="0">
+        <v>56617</v>
+      </c>
+      <c r="H676" s="0">
+        <v>11.3632851308091</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="677">
+      <c r="A677" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B677" s="1">
+        <v>44257</v>
+      </c>
+      <c r="C677" s="0">
+        <v>165141</v>
+      </c>
+      <c r="D677" s="0">
+        <v>11.5027370553199</v>
+      </c>
+      <c r="E677" s="0">
+        <v>103092</v>
+      </c>
+      <c r="F677" s="0">
+        <v>11.0465577283686</v>
+      </c>
+      <c r="G677" s="0">
+        <v>61651</v>
+      </c>
+      <c r="H677" s="0">
+        <v>12.3736314463768</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="678">
+      <c r="A678" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B678" s="1">
+        <v>44257</v>
+      </c>
+      <c r="C678" s="0">
+        <v>234761</v>
+      </c>
+      <c r="D678" s="0">
+        <v>16.3520509978985</v>
+      </c>
+      <c r="E678" s="0">
+        <v>179048</v>
+      </c>
+      <c r="F678" s="0">
+        <v>19.185427270292</v>
+      </c>
+      <c r="G678" s="0">
+        <v>55177</v>
+      </c>
+      <c r="H678" s="0">
+        <v>11.0742706901223</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="679">
+      <c r="A679" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B679" s="1">
+        <v>44257</v>
+      </c>
+      <c r="C679" s="0">
+        <v>412161</v>
+      </c>
+      <c r="D679" s="0">
+        <v>28.7086768728403</v>
+      </c>
+      <c r="E679" s="0">
+        <v>275135</v>
+      </c>
+      <c r="F679" s="0">
+        <v>29.4813822662738</v>
+      </c>
+      <c r="G679" s="0">
+        <v>135587</v>
+      </c>
+      <c r="H679" s="0">
+        <v>27.2129173398629</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="680">
+      <c r="A680" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B680" s="1">
+        <v>44257</v>
+      </c>
+      <c r="C680" s="0">
+        <v>226525</v>
+      </c>
+      <c r="D680" s="0">
+        <v>15.7783803625771</v>
+      </c>
+      <c r="E680" s="0">
+        <v>132352</v>
+      </c>
+      <c r="F680" s="0">
+        <v>14.1818376640771</v>
+      </c>
+      <c r="G680" s="0">
+        <v>93133</v>
+      </c>
+      <c r="H680" s="0">
+        <v>18.6922096558922</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="681">
+      <c r="A681" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B681" s="1">
+        <v>44257</v>
+      </c>
+      <c r="C681" s="0">
+        <v>108</v>
+      </c>
+      <c r="D681" s="0">
+        <v>7.52263582014492E-03</v>
+      </c>
+      <c r="E681" s="0">
+        <v>94</v>
+      </c>
+      <c r="F681" s="0">
+        <v>1.00723278864184E-02</v>
+      </c>
+      <c r="G681" s="0">
+        <v>14</v>
+      </c>
+      <c r="H681" s="0">
+        <v>2.80986261778844E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$681</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$690</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H681"/>
+  <dimension ref="A1:H690"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16768,13 +16768,13 @@
         <v>5261</v>
       </c>
       <c r="F673" s="0">
-        <v>0.563728904366461</v>
+        <v>0.563</v>
       </c>
       <c r="G673" s="0">
         <v>2718</v>
       </c>
       <c r="H673" s="0">
-        <v>0.545514756796355</v>
+        <v>0.545</v>
       </c>
     </row>
     <row outlineLevel="0" r="674">
@@ -16796,13 +16796,13 @@
         <v>63217</v>
       </c>
       <c r="F674" s="0">
-        <v>6.77385480846504</v>
+        <v>6.773</v>
       </c>
       <c r="G674" s="0">
         <v>40383</v>
       </c>
       <c r="H674" s="0">
-        <v>8.10504872101075</v>
+        <v>8.105</v>
       </c>
     </row>
     <row outlineLevel="0" r="675">
@@ -16824,13 +16824,13 @@
         <v>82958</v>
       </c>
       <c r="F675" s="0">
-        <v>8.88915081703724</v>
+        <v>8.889</v>
       </c>
       <c r="G675" s="0">
         <v>52965</v>
       </c>
       <c r="H675" s="0">
-        <v>10.6303123965118</v>
+        <v>10.63</v>
       </c>
     </row>
     <row outlineLevel="0" r="676">
@@ -16852,13 +16852,13 @@
         <v>92093</v>
       </c>
       <c r="F676" s="0">
-        <v>9.86798821323332</v>
+        <v>9.867</v>
       </c>
       <c r="G676" s="0">
         <v>56617</v>
       </c>
       <c r="H676" s="0">
-        <v>11.3632851308091</v>
+        <v>11.36</v>
       </c>
     </row>
     <row outlineLevel="0" r="677">
@@ -16880,13 +16880,13 @@
         <v>103092</v>
       </c>
       <c r="F677" s="0">
-        <v>11.0465577283686</v>
+        <v>11.04</v>
       </c>
       <c r="G677" s="0">
         <v>61651</v>
       </c>
       <c r="H677" s="0">
-        <v>12.3736314463768</v>
+        <v>12.37</v>
       </c>
     </row>
     <row outlineLevel="0" r="678">
@@ -16908,13 +16908,13 @@
         <v>179048</v>
       </c>
       <c r="F678" s="0">
-        <v>19.185427270292</v>
+        <v>19.18</v>
       </c>
       <c r="G678" s="0">
         <v>55177</v>
       </c>
       <c r="H678" s="0">
-        <v>11.0742706901223</v>
+        <v>11.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="679">
@@ -16936,13 +16936,13 @@
         <v>275135</v>
       </c>
       <c r="F679" s="0">
-        <v>29.4813822662738</v>
+        <v>29.48</v>
       </c>
       <c r="G679" s="0">
         <v>135587</v>
       </c>
       <c r="H679" s="0">
-        <v>27.2129173398629</v>
+        <v>27.21</v>
       </c>
     </row>
     <row outlineLevel="0" r="680">
@@ -16964,13 +16964,13 @@
         <v>132352</v>
       </c>
       <c r="F680" s="0">
-        <v>14.1818376640771</v>
+        <v>14.18</v>
       </c>
       <c r="G680" s="0">
         <v>93133</v>
       </c>
       <c r="H680" s="0">
-        <v>18.6922096558922</v>
+        <v>18.69</v>
       </c>
     </row>
     <row outlineLevel="0" r="681">
@@ -16992,13 +16992,265 @@
         <v>94</v>
       </c>
       <c r="F681" s="0">
-        <v>1.00723278864184E-02</v>
+        <v>0.01</v>
       </c>
       <c r="G681" s="0">
         <v>14</v>
       </c>
       <c r="H681" s="0">
-        <v>2.80986261778844E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="682">
+      <c r="A682" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B682" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C682" s="0">
+        <v>8257</v>
+      </c>
+      <c r="D682" s="0">
+        <v>0.557462825121947</v>
+      </c>
+      <c r="E682" s="0">
+        <v>5413</v>
+      </c>
+      <c r="F682" s="0">
+        <v>0.564418585251919</v>
+      </c>
+      <c r="G682" s="0">
+        <v>2829</v>
+      </c>
+      <c r="H682" s="0">
+        <v>0.546830451632856</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="683">
+      <c r="A683" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B683" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C683" s="0">
+        <v>105812</v>
+      </c>
+      <c r="D683" s="0">
+        <v>7.14378787111584</v>
+      </c>
+      <c r="E683" s="0">
+        <v>64456</v>
+      </c>
+      <c r="F683" s="0">
+        <v>6.72088755422089</v>
+      </c>
+      <c r="G683" s="0">
+        <v>41201</v>
+      </c>
+      <c r="H683" s="0">
+        <v>7.96393122577777</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="684">
+      <c r="A684" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B684" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C684" s="0">
+        <v>138844</v>
+      </c>
+      <c r="D684" s="0">
+        <v>9.37390922747143</v>
+      </c>
+      <c r="E684" s="0">
+        <v>84629</v>
+      </c>
+      <c r="F684" s="0">
+        <v>8.82434517851185</v>
+      </c>
+      <c r="G684" s="0">
+        <v>53918</v>
+      </c>
+      <c r="H684" s="0">
+        <v>10.4220587808909</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="685">
+      <c r="A685" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B685" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C685" s="0">
+        <v>152274</v>
+      </c>
+      <c r="D685" s="0">
+        <v>10.2806218036356</v>
+      </c>
+      <c r="E685" s="0">
+        <v>94155</v>
+      </c>
+      <c r="F685" s="0">
+        <v>9.81763013013013</v>
+      </c>
+      <c r="G685" s="0">
+        <v>57714</v>
+      </c>
+      <c r="H685" s="0">
+        <v>11.1558051203742</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="686">
+      <c r="A686" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B686" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C686" s="0">
+        <v>169342</v>
+      </c>
+      <c r="D686" s="0">
+        <v>11.4329501915709</v>
+      </c>
+      <c r="E686" s="0">
+        <v>105757</v>
+      </c>
+      <c r="F686" s="0">
+        <v>11.0273815482149</v>
+      </c>
+      <c r="G686" s="0">
+        <v>63115</v>
+      </c>
+      <c r="H686" s="0">
+        <v>12.1997893088751</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="687">
+      <c r="A687" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B687" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C687" s="0">
+        <v>250152</v>
+      </c>
+      <c r="D687" s="0">
+        <v>16.888753860955</v>
+      </c>
+      <c r="E687" s="0">
+        <v>191331</v>
+      </c>
+      <c r="F687" s="0">
+        <v>19.9502627627628</v>
+      </c>
+      <c r="G687" s="0">
+        <v>58210</v>
+      </c>
+      <c r="H687" s="0">
+        <v>11.2516792469242</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="688">
+      <c r="A688" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B688" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C688" s="0">
+        <v>425536</v>
+      </c>
+      <c r="D688" s="0">
+        <v>28.7296234408493</v>
+      </c>
+      <c r="E688" s="0">
+        <v>279629</v>
+      </c>
+      <c r="F688" s="0">
+        <v>29.1571780113447</v>
+      </c>
+      <c r="G688" s="0">
+        <v>144251</v>
+      </c>
+      <c r="H688" s="0">
+        <v>27.8829407841962</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="689">
+      <c r="A689" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B689" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C689" s="0">
+        <v>230821</v>
+      </c>
+      <c r="D689" s="0">
+        <v>15.5836413658076</v>
+      </c>
+      <c r="E689" s="0">
+        <v>133547</v>
+      </c>
+      <c r="F689" s="0">
+        <v>13.9250709042376</v>
+      </c>
+      <c r="G689" s="0">
+        <v>96093</v>
+      </c>
+      <c r="H689" s="0">
+        <v>18.574258956789</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="690">
+      <c r="A690" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B690" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C690" s="0">
+        <v>137</v>
+      </c>
+      <c r="D690" s="0">
+        <v>9.24941347241211E-03</v>
+      </c>
+      <c r="E690" s="0">
+        <v>123</v>
+      </c>
+      <c r="F690" s="0">
+        <v>1.28253253253253E-02</v>
+      </c>
+      <c r="G690" s="0">
+        <v>14</v>
+      </c>
+      <c r="H690" s="0">
+        <v>2.70612453971721E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$681</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$699</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H681"/>
+  <dimension ref="A1:H699"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16768,13 +16768,13 @@
         <v>5261</v>
       </c>
       <c r="F673" s="0">
-        <v>0.563728904366461</v>
+        <v>0.563</v>
       </c>
       <c r="G673" s="0">
         <v>2718</v>
       </c>
       <c r="H673" s="0">
-        <v>0.545514756796355</v>
+        <v>0.545</v>
       </c>
     </row>
     <row outlineLevel="0" r="674">
@@ -16796,13 +16796,13 @@
         <v>63217</v>
       </c>
       <c r="F674" s="0">
-        <v>6.77385480846504</v>
+        <v>6.773</v>
       </c>
       <c r="G674" s="0">
         <v>40383</v>
       </c>
       <c r="H674" s="0">
-        <v>8.10504872101075</v>
+        <v>8.105</v>
       </c>
     </row>
     <row outlineLevel="0" r="675">
@@ -16824,13 +16824,13 @@
         <v>82958</v>
       </c>
       <c r="F675" s="0">
-        <v>8.88915081703724</v>
+        <v>8.889</v>
       </c>
       <c r="G675" s="0">
         <v>52965</v>
       </c>
       <c r="H675" s="0">
-        <v>10.6303123965118</v>
+        <v>10.63</v>
       </c>
     </row>
     <row outlineLevel="0" r="676">
@@ -16852,13 +16852,13 @@
         <v>92093</v>
       </c>
       <c r="F676" s="0">
-        <v>9.86798821323332</v>
+        <v>9.867</v>
       </c>
       <c r="G676" s="0">
         <v>56617</v>
       </c>
       <c r="H676" s="0">
-        <v>11.3632851308091</v>
+        <v>11.36</v>
       </c>
     </row>
     <row outlineLevel="0" r="677">
@@ -16880,13 +16880,13 @@
         <v>103092</v>
       </c>
       <c r="F677" s="0">
-        <v>11.0465577283686</v>
+        <v>11.04</v>
       </c>
       <c r="G677" s="0">
         <v>61651</v>
       </c>
       <c r="H677" s="0">
-        <v>12.3736314463768</v>
+        <v>12.37</v>
       </c>
     </row>
     <row outlineLevel="0" r="678">
@@ -16908,13 +16908,13 @@
         <v>179048</v>
       </c>
       <c r="F678" s="0">
-        <v>19.185427270292</v>
+        <v>19.18</v>
       </c>
       <c r="G678" s="0">
         <v>55177</v>
       </c>
       <c r="H678" s="0">
-        <v>11.0742706901223</v>
+        <v>11.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="679">
@@ -16936,13 +16936,13 @@
         <v>275135</v>
       </c>
       <c r="F679" s="0">
-        <v>29.4813822662738</v>
+        <v>29.48</v>
       </c>
       <c r="G679" s="0">
         <v>135587</v>
       </c>
       <c r="H679" s="0">
-        <v>27.2129173398629</v>
+        <v>27.21</v>
       </c>
     </row>
     <row outlineLevel="0" r="680">
@@ -16964,13 +16964,13 @@
         <v>132352</v>
       </c>
       <c r="F680" s="0">
-        <v>14.1818376640771</v>
+        <v>14.18</v>
       </c>
       <c r="G680" s="0">
         <v>93133</v>
       </c>
       <c r="H680" s="0">
-        <v>18.6922096558922</v>
+        <v>18.69</v>
       </c>
     </row>
     <row outlineLevel="0" r="681">
@@ -16992,13 +16992,517 @@
         <v>94</v>
       </c>
       <c r="F681" s="0">
-        <v>1.00723278864184E-02</v>
+        <v>0.01</v>
       </c>
       <c r="G681" s="0">
         <v>14</v>
       </c>
       <c r="H681" s="0">
-        <v>2.80986261778844E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="682">
+      <c r="A682" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B682" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C682" s="0">
+        <v>8257</v>
+      </c>
+      <c r="D682" s="0">
+        <v>0.557462825121947</v>
+      </c>
+      <c r="E682" s="0">
+        <v>5413</v>
+      </c>
+      <c r="F682" s="0">
+        <v>0.564</v>
+      </c>
+      <c r="G682" s="0">
+        <v>2829</v>
+      </c>
+      <c r="H682" s="0">
+        <v>0.546</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="683">
+      <c r="A683" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B683" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C683" s="0">
+        <v>105812</v>
+      </c>
+      <c r="D683" s="0">
+        <v>7.14378787111584</v>
+      </c>
+      <c r="E683" s="0">
+        <v>64456</v>
+      </c>
+      <c r="F683" s="0">
+        <v>6.72</v>
+      </c>
+      <c r="G683" s="0">
+        <v>41201</v>
+      </c>
+      <c r="H683" s="0">
+        <v>7.963</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="684">
+      <c r="A684" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B684" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C684" s="0">
+        <v>138844</v>
+      </c>
+      <c r="D684" s="0">
+        <v>9.37390922747143</v>
+      </c>
+      <c r="E684" s="0">
+        <v>84629</v>
+      </c>
+      <c r="F684" s="0">
+        <v>8.824</v>
+      </c>
+      <c r="G684" s="0">
+        <v>53918</v>
+      </c>
+      <c r="H684" s="0">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="685">
+      <c r="A685" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B685" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C685" s="0">
+        <v>152274</v>
+      </c>
+      <c r="D685" s="0">
+        <v>10.2806218036356</v>
+      </c>
+      <c r="E685" s="0">
+        <v>94155</v>
+      </c>
+      <c r="F685" s="0">
+        <v>9.817</v>
+      </c>
+      <c r="G685" s="0">
+        <v>57714</v>
+      </c>
+      <c r="H685" s="0">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="686">
+      <c r="A686" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B686" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C686" s="0">
+        <v>169342</v>
+      </c>
+      <c r="D686" s="0">
+        <v>11.4329501915709</v>
+      </c>
+      <c r="E686" s="0">
+        <v>105757</v>
+      </c>
+      <c r="F686" s="0">
+        <v>11.02</v>
+      </c>
+      <c r="G686" s="0">
+        <v>63115</v>
+      </c>
+      <c r="H686" s="0">
+        <v>12.19</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="687">
+      <c r="A687" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B687" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C687" s="0">
+        <v>250152</v>
+      </c>
+      <c r="D687" s="0">
+        <v>16.888753860955</v>
+      </c>
+      <c r="E687" s="0">
+        <v>191331</v>
+      </c>
+      <c r="F687" s="0">
+        <v>19.95</v>
+      </c>
+      <c r="G687" s="0">
+        <v>58210</v>
+      </c>
+      <c r="H687" s="0">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="688">
+      <c r="A688" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B688" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C688" s="0">
+        <v>425536</v>
+      </c>
+      <c r="D688" s="0">
+        <v>28.7296234408493</v>
+      </c>
+      <c r="E688" s="0">
+        <v>279629</v>
+      </c>
+      <c r="F688" s="0">
+        <v>29.15</v>
+      </c>
+      <c r="G688" s="0">
+        <v>144251</v>
+      </c>
+      <c r="H688" s="0">
+        <v>27.88</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="689">
+      <c r="A689" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B689" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C689" s="0">
+        <v>230821</v>
+      </c>
+      <c r="D689" s="0">
+        <v>15.5836413658076</v>
+      </c>
+      <c r="E689" s="0">
+        <v>133547</v>
+      </c>
+      <c r="F689" s="0">
+        <v>13.92</v>
+      </c>
+      <c r="G689" s="0">
+        <v>96093</v>
+      </c>
+      <c r="H689" s="0">
+        <v>18.57</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="690">
+      <c r="A690" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B690" s="1">
+        <v>44258</v>
+      </c>
+      <c r="C690" s="0">
+        <v>137</v>
+      </c>
+      <c r="D690" s="0">
+        <v>9.24941347241211E-03</v>
+      </c>
+      <c r="E690" s="0">
+        <v>123</v>
+      </c>
+      <c r="F690" s="0">
+        <v>0.012</v>
+      </c>
+      <c r="G690" s="0">
+        <v>14</v>
+      </c>
+      <c r="H690" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="691">
+      <c r="A691" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B691" s="1">
+        <v>44259</v>
+      </c>
+      <c r="C691" s="0">
+        <v>8494</v>
+      </c>
+      <c r="D691" s="0">
+        <v>0.558531012148411</v>
+      </c>
+      <c r="E691" s="0">
+        <v>5572</v>
+      </c>
+      <c r="F691" s="0">
+        <v>0.568110563369511</v>
+      </c>
+      <c r="G691" s="0">
+        <v>2906</v>
+      </c>
+      <c r="H691" s="0">
+        <v>0.543373590846791</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="692">
+      <c r="A692" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B692" s="1">
+        <v>44259</v>
+      </c>
+      <c r="C692" s="0">
+        <v>107706</v>
+      </c>
+      <c r="D692" s="0">
+        <v>7.0823100064112</v>
+      </c>
+      <c r="E692" s="0">
+        <v>65632</v>
+      </c>
+      <c r="F692" s="0">
+        <v>6.69171437456349</v>
+      </c>
+      <c r="G692" s="0">
+        <v>41897</v>
+      </c>
+      <c r="H692" s="0">
+        <v>7.83404106528149</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="693">
+      <c r="A693" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B693" s="1">
+        <v>44259</v>
+      </c>
+      <c r="C693" s="0">
+        <v>141313</v>
+      </c>
+      <c r="D693" s="0">
+        <v>9.29217011063438</v>
+      </c>
+      <c r="E693" s="0">
+        <v>86210</v>
+      </c>
+      <c r="F693" s="0">
+        <v>8.78980826778277</v>
+      </c>
+      <c r="G693" s="0">
+        <v>54782</v>
+      </c>
+      <c r="H693" s="0">
+        <v>10.2433214224945</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="694">
+      <c r="A694" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B694" s="1">
+        <v>44259</v>
+      </c>
+      <c r="C694" s="0">
+        <v>155334</v>
+      </c>
+      <c r="D694" s="0">
+        <v>10.2141342407654</v>
+      </c>
+      <c r="E694" s="0">
+        <v>96208</v>
+      </c>
+      <c r="F694" s="0">
+        <v>9.80918540571679</v>
+      </c>
+      <c r="G694" s="0">
+        <v>58701</v>
+      </c>
+      <c r="H694" s="0">
+        <v>10.9761091384369</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="695">
+      <c r="A695" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B695" s="1">
+        <v>44259</v>
+      </c>
+      <c r="C695" s="0">
+        <v>173280</v>
+      </c>
+      <c r="D695" s="0">
+        <v>11.3941904620999</v>
+      </c>
+      <c r="E695" s="0">
+        <v>108420</v>
+      </c>
+      <c r="F695" s="0">
+        <v>11.0542977890385</v>
+      </c>
+      <c r="G695" s="0">
+        <v>64356</v>
+      </c>
+      <c r="H695" s="0">
+        <v>12.0334999354907</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="696">
+      <c r="A696" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B696" s="1">
+        <v>44259</v>
+      </c>
+      <c r="C696" s="0">
+        <v>262575</v>
+      </c>
+      <c r="D696" s="0">
+        <v>17.265867731913</v>
+      </c>
+      <c r="E696" s="0">
+        <v>200917</v>
+      </c>
+      <c r="F696" s="0">
+        <v>20.4851166655621</v>
+      </c>
+      <c r="G696" s="0">
+        <v>60982</v>
+      </c>
+      <c r="H696" s="0">
+        <v>11.4026181407498</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="697">
+      <c r="A697" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B697" s="1">
+        <v>44259</v>
+      </c>
+      <c r="C697" s="0">
+        <v>437394</v>
+      </c>
+      <c r="D697" s="0">
+        <v>28.7612565961434</v>
+      </c>
+      <c r="E697" s="0">
+        <v>283183</v>
+      </c>
+      <c r="F697" s="0">
+        <v>28.8728021655902</v>
+      </c>
+      <c r="G697" s="0">
+        <v>152416</v>
+      </c>
+      <c r="H697" s="0">
+        <v>28.4992530015501</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="698">
+      <c r="A698" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B698" s="1">
+        <v>44259</v>
+      </c>
+      <c r="C698" s="0">
+        <v>234541</v>
+      </c>
+      <c r="D698" s="0">
+        <v>15.4224655192254</v>
+      </c>
+      <c r="E698" s="0">
+        <v>134529</v>
+      </c>
+      <c r="F698" s="0">
+        <v>13.7163219633053</v>
+      </c>
+      <c r="G698" s="0">
+        <v>98753</v>
+      </c>
+      <c r="H698" s="0">
+        <v>18.4651659383665</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="699">
+      <c r="A699" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B699" s="1">
+        <v>44259</v>
+      </c>
+      <c r="C699" s="0">
+        <v>138</v>
+      </c>
+      <c r="D699" s="0">
+        <v>9.07432065887459E-03</v>
+      </c>
+      <c r="E699" s="0">
+        <v>124</v>
+      </c>
+      <c r="F699" s="0">
+        <v>1.26428050713962E-02</v>
+      </c>
+      <c r="G699" s="0">
+        <v>14</v>
+      </c>
+      <c r="H699" s="0">
+        <v>2.61776678315729E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$699</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$708</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H699"/>
+  <dimension ref="A1:H708"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -17272,13 +17272,13 @@
         <v>5572</v>
       </c>
       <c r="F691" s="0">
-        <v>0.568110563369511</v>
+        <v>0.568</v>
       </c>
       <c r="G691" s="0">
         <v>2906</v>
       </c>
       <c r="H691" s="0">
-        <v>0.543373590846791</v>
+        <v>0.543</v>
       </c>
     </row>
     <row outlineLevel="0" r="692">
@@ -17300,13 +17300,13 @@
         <v>65632</v>
       </c>
       <c r="F692" s="0">
-        <v>6.69171437456349</v>
+        <v>6.691</v>
       </c>
       <c r="G692" s="0">
         <v>41897</v>
       </c>
       <c r="H692" s="0">
-        <v>7.83404106528149</v>
+        <v>7.834</v>
       </c>
     </row>
     <row outlineLevel="0" r="693">
@@ -17328,13 +17328,13 @@
         <v>86210</v>
       </c>
       <c r="F693" s="0">
-        <v>8.78980826778277</v>
+        <v>8.789</v>
       </c>
       <c r="G693" s="0">
         <v>54782</v>
       </c>
       <c r="H693" s="0">
-        <v>10.2433214224945</v>
+        <v>10.24</v>
       </c>
     </row>
     <row outlineLevel="0" r="694">
@@ -17356,13 +17356,13 @@
         <v>96208</v>
       </c>
       <c r="F694" s="0">
-        <v>9.80918540571679</v>
+        <v>9.809</v>
       </c>
       <c r="G694" s="0">
         <v>58701</v>
       </c>
       <c r="H694" s="0">
-        <v>10.9761091384369</v>
+        <v>10.97</v>
       </c>
     </row>
     <row outlineLevel="0" r="695">
@@ -17384,13 +17384,13 @@
         <v>108420</v>
       </c>
       <c r="F695" s="0">
-        <v>11.0542977890385</v>
+        <v>11.05</v>
       </c>
       <c r="G695" s="0">
         <v>64356</v>
       </c>
       <c r="H695" s="0">
-        <v>12.0334999354907</v>
+        <v>12.03</v>
       </c>
     </row>
     <row outlineLevel="0" r="696">
@@ -17412,13 +17412,13 @@
         <v>200917</v>
       </c>
       <c r="F696" s="0">
-        <v>20.4851166655621</v>
+        <v>20.48</v>
       </c>
       <c r="G696" s="0">
         <v>60982</v>
       </c>
       <c r="H696" s="0">
-        <v>11.4026181407498</v>
+        <v>11.4</v>
       </c>
     </row>
     <row outlineLevel="0" r="697">
@@ -17440,13 +17440,13 @@
         <v>283183</v>
       </c>
       <c r="F697" s="0">
-        <v>28.8728021655902</v>
+        <v>28.87</v>
       </c>
       <c r="G697" s="0">
         <v>152416</v>
       </c>
       <c r="H697" s="0">
-        <v>28.4992530015501</v>
+        <v>28.49</v>
       </c>
     </row>
     <row outlineLevel="0" r="698">
@@ -17468,13 +17468,13 @@
         <v>134529</v>
       </c>
       <c r="F698" s="0">
-        <v>13.7163219633053</v>
+        <v>13.71</v>
       </c>
       <c r="G698" s="0">
         <v>98753</v>
       </c>
       <c r="H698" s="0">
-        <v>18.4651659383665</v>
+        <v>18.46</v>
       </c>
     </row>
     <row outlineLevel="0" r="699">
@@ -17496,13 +17496,265 @@
         <v>124</v>
       </c>
       <c r="F699" s="0">
-        <v>1.26428050713962E-02</v>
+        <v>0.012</v>
       </c>
       <c r="G699" s="0">
         <v>14</v>
       </c>
       <c r="H699" s="0">
-        <v>2.61776678315729E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="700">
+      <c r="A700" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B700" s="1">
+        <v>44260</v>
+      </c>
+      <c r="C700" s="0">
+        <v>8775</v>
+      </c>
+      <c r="D700" s="0">
+        <v>0.559678645596812</v>
+      </c>
+      <c r="E700" s="0">
+        <v>5761</v>
+      </c>
+      <c r="F700" s="0">
+        <v>0.571441041191168</v>
+      </c>
+      <c r="G700" s="0">
+        <v>2997</v>
+      </c>
+      <c r="H700" s="0">
+        <v>0.54073559526924</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="701">
+      <c r="A701" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B701" s="1">
+        <v>44260</v>
+      </c>
+      <c r="C701" s="0">
+        <v>110012</v>
+      </c>
+      <c r="D701" s="0">
+        <v>7.01668001816484</v>
+      </c>
+      <c r="E701" s="0">
+        <v>67109</v>
+      </c>
+      <c r="F701" s="0">
+        <v>6.6566285077761</v>
+      </c>
+      <c r="G701" s="0">
+        <v>42720</v>
+      </c>
+      <c r="H701" s="0">
+        <v>7.70778265929327</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="702">
+      <c r="A702" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B702" s="1">
+        <v>44260</v>
+      </c>
+      <c r="C702" s="0">
+        <v>144379</v>
+      </c>
+      <c r="D702" s="0">
+        <v>9.20864309659511</v>
+      </c>
+      <c r="E702" s="0">
+        <v>88458</v>
+      </c>
+      <c r="F702" s="0">
+        <v>8.77426343025315</v>
+      </c>
+      <c r="G702" s="0">
+        <v>55587</v>
+      </c>
+      <c r="H702" s="0">
+        <v>10.0293191639077</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="703">
+      <c r="A703" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B703" s="1">
+        <v>44260</v>
+      </c>
+      <c r="C703" s="0">
+        <v>159218</v>
+      </c>
+      <c r="D703" s="0">
+        <v>10.1550899822944</v>
+      </c>
+      <c r="E703" s="0">
+        <v>99062</v>
+      </c>
+      <c r="F703" s="0">
+        <v>9.82608790530802</v>
+      </c>
+      <c r="G703" s="0">
+        <v>59715</v>
+      </c>
+      <c r="H703" s="0">
+        <v>10.7741161399742</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="704">
+      <c r="A704" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B704" s="1">
+        <v>44260</v>
+      </c>
+      <c r="C704" s="0">
+        <v>178298</v>
+      </c>
+      <c r="D704" s="0">
+        <v>11.3720322681049</v>
+      </c>
+      <c r="E704" s="0">
+        <v>112168</v>
+      </c>
+      <c r="F704" s="0">
+        <v>11.1260889964122</v>
+      </c>
+      <c r="G704" s="0">
+        <v>65591</v>
+      </c>
+      <c r="H704" s="0">
+        <v>11.8342971068751</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="705">
+      <c r="A705" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B705" s="1">
+        <v>44260</v>
+      </c>
+      <c r="C705" s="0">
+        <v>277604</v>
+      </c>
+      <c r="D705" s="0">
+        <v>17.7058724481205</v>
+      </c>
+      <c r="E705" s="0">
+        <v>212603</v>
+      </c>
+      <c r="F705" s="0">
+        <v>21.0883665475379</v>
+      </c>
+      <c r="G705" s="0">
+        <v>64275</v>
+      </c>
+      <c r="H705" s="0">
+        <v>11.5968569856291</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="706">
+      <c r="A706" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B706" s="1">
+        <v>44260</v>
+      </c>
+      <c r="C706" s="0">
+        <v>451452</v>
+      </c>
+      <c r="D706" s="0">
+        <v>28.7940790782874</v>
+      </c>
+      <c r="E706" s="0">
+        <v>287285</v>
+      </c>
+      <c r="F706" s="0">
+        <v>28.4961707201189</v>
+      </c>
+      <c r="G706" s="0">
+        <v>162256</v>
+      </c>
+      <c r="H706" s="0">
+        <v>29.2751400553907</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="707">
+      <c r="A707" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B707" s="1">
+        <v>44260</v>
+      </c>
+      <c r="C707" s="0">
+        <v>237982</v>
+      </c>
+      <c r="D707" s="0">
+        <v>15.1787399927545</v>
+      </c>
+      <c r="E707" s="0">
+        <v>135577</v>
+      </c>
+      <c r="F707" s="0">
+        <v>13.4480579832625</v>
+      </c>
+      <c r="G707" s="0">
+        <v>101090</v>
+      </c>
+      <c r="H707" s="0">
+        <v>18.2392263349241</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="708">
+      <c r="A708" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B708" s="1">
+        <v>44260</v>
+      </c>
+      <c r="C708" s="0">
+        <v>144</v>
+      </c>
+      <c r="D708" s="0">
+        <v>9.18447008158871E-03</v>
+      </c>
+      <c r="E708" s="0">
+        <v>130</v>
+      </c>
+      <c r="F708" s="0">
+        <v>1.28948681400541E-02</v>
+      </c>
+      <c r="G708" s="0">
+        <v>14</v>
+      </c>
+      <c r="H708" s="0">
+        <v>2.52595873665978E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$708</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$726</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H708"/>
+  <dimension ref="A1:H726"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -17524,13 +17524,13 @@
         <v>5761</v>
       </c>
       <c r="F700" s="0">
-        <v>0.571441041191168</v>
+        <v>0.571</v>
       </c>
       <c r="G700" s="0">
         <v>2997</v>
       </c>
       <c r="H700" s="0">
-        <v>0.54073559526924</v>
+        <v>0.54</v>
       </c>
     </row>
     <row outlineLevel="0" r="701">
@@ -17552,13 +17552,13 @@
         <v>67109</v>
       </c>
       <c r="F701" s="0">
-        <v>6.6566285077761</v>
+        <v>6.656</v>
       </c>
       <c r="G701" s="0">
         <v>42720</v>
       </c>
       <c r="H701" s="0">
-        <v>7.70778265929327</v>
+        <v>7.707</v>
       </c>
     </row>
     <row outlineLevel="0" r="702">
@@ -17580,13 +17580,13 @@
         <v>88458</v>
       </c>
       <c r="F702" s="0">
-        <v>8.77426343025315</v>
+        <v>8.774</v>
       </c>
       <c r="G702" s="0">
         <v>55587</v>
       </c>
       <c r="H702" s="0">
-        <v>10.0293191639077</v>
+        <v>10.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="703">
@@ -17608,13 +17608,13 @@
         <v>99062</v>
       </c>
       <c r="F703" s="0">
-        <v>9.82608790530802</v>
+        <v>9.826</v>
       </c>
       <c r="G703" s="0">
         <v>59715</v>
       </c>
       <c r="H703" s="0">
-        <v>10.7741161399742</v>
+        <v>10.77</v>
       </c>
     </row>
     <row outlineLevel="0" r="704">
@@ -17636,13 +17636,13 @@
         <v>112168</v>
       </c>
       <c r="F704" s="0">
-        <v>11.1260889964122</v>
+        <v>11.12</v>
       </c>
       <c r="G704" s="0">
         <v>65591</v>
       </c>
       <c r="H704" s="0">
-        <v>11.8342971068751</v>
+        <v>11.83</v>
       </c>
     </row>
     <row outlineLevel="0" r="705">
@@ -17664,13 +17664,13 @@
         <v>212603</v>
       </c>
       <c r="F705" s="0">
-        <v>21.0883665475379</v>
+        <v>21.08</v>
       </c>
       <c r="G705" s="0">
         <v>64275</v>
       </c>
       <c r="H705" s="0">
-        <v>11.5968569856291</v>
+        <v>11.59</v>
       </c>
     </row>
     <row outlineLevel="0" r="706">
@@ -17692,13 +17692,13 @@
         <v>287285</v>
       </c>
       <c r="F706" s="0">
-        <v>28.4961707201189</v>
+        <v>28.49</v>
       </c>
       <c r="G706" s="0">
         <v>162256</v>
       </c>
       <c r="H706" s="0">
-        <v>29.2751400553907</v>
+        <v>29.27</v>
       </c>
     </row>
     <row outlineLevel="0" r="707">
@@ -17720,13 +17720,13 @@
         <v>135577</v>
       </c>
       <c r="F707" s="0">
-        <v>13.4480579832625</v>
+        <v>13.44</v>
       </c>
       <c r="G707" s="0">
         <v>101090</v>
       </c>
       <c r="H707" s="0">
-        <v>18.2392263349241</v>
+        <v>18.23</v>
       </c>
     </row>
     <row outlineLevel="0" r="708">
@@ -17748,13 +17748,517 @@
         <v>130</v>
       </c>
       <c r="F708" s="0">
-        <v>1.28948681400541E-02</v>
+        <v>0.012</v>
       </c>
       <c r="G708" s="0">
         <v>14</v>
       </c>
       <c r="H708" s="0">
-        <v>2.52595873665978E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="709">
+      <c r="A709" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B709" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C709" s="0">
+        <v>9038</v>
+      </c>
+      <c r="D709" s="0">
+        <v>0.562836476636183</v>
+      </c>
+      <c r="E709" s="0">
+        <v>5917</v>
+      </c>
+      <c r="F709" s="0">
+        <v>0.575</v>
+      </c>
+      <c r="G709" s="0">
+        <v>3100</v>
+      </c>
+      <c r="H709" s="0">
+        <v>0.541</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="710">
+      <c r="A710" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B710" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C710" s="0">
+        <v>112239</v>
+      </c>
+      <c r="D710" s="0">
+        <v>6.98962196295293</v>
+      </c>
+      <c r="E710" s="0">
+        <v>68434</v>
+      </c>
+      <c r="F710" s="0">
+        <v>6.66</v>
+      </c>
+      <c r="G710" s="0">
+        <v>43618</v>
+      </c>
+      <c r="H710" s="0">
+        <v>7.616</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="711">
+      <c r="A711" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B711" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C711" s="0">
+        <v>147286</v>
+      </c>
+      <c r="D711" s="0">
+        <v>9.17215460254889</v>
+      </c>
+      <c r="E711" s="0">
+        <v>90339</v>
+      </c>
+      <c r="F711" s="0">
+        <v>8.792</v>
+      </c>
+      <c r="G711" s="0">
+        <v>56606</v>
+      </c>
+      <c r="H711" s="0">
+        <v>9.884</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="712">
+      <c r="A712" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B712" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C712" s="0">
+        <v>162852</v>
+      </c>
+      <c r="D712" s="0">
+        <v>10.1415186870055</v>
+      </c>
+      <c r="E712" s="0">
+        <v>101401</v>
+      </c>
+      <c r="F712" s="0">
+        <v>9.869</v>
+      </c>
+      <c r="G712" s="0">
+        <v>60992</v>
+      </c>
+      <c r="H712" s="0">
+        <v>10.64</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="713">
+      <c r="A713" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B713" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C713" s="0">
+        <v>182744</v>
+      </c>
+      <c r="D713" s="0">
+        <v>11.3802820409828</v>
+      </c>
+      <c r="E713" s="0">
+        <v>115066</v>
+      </c>
+      <c r="F713" s="0">
+        <v>11.19</v>
+      </c>
+      <c r="G713" s="0">
+        <v>67129</v>
+      </c>
+      <c r="H713" s="0">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="714">
+      <c r="A714" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B714" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C714" s="0">
+        <v>287946</v>
+      </c>
+      <c r="D714" s="0">
+        <v>17.9316787012041</v>
+      </c>
+      <c r="E714" s="0">
+        <v>219764</v>
+      </c>
+      <c r="F714" s="0">
+        <v>21.38</v>
+      </c>
+      <c r="G714" s="0">
+        <v>67425</v>
+      </c>
+      <c r="H714" s="0">
+        <v>11.77</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="715">
+      <c r="A715" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B715" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C715" s="0">
+        <v>462485</v>
+      </c>
+      <c r="D715" s="0">
+        <v>28.8009988821736</v>
+      </c>
+      <c r="E715" s="0">
+        <v>290062</v>
+      </c>
+      <c r="F715" s="0">
+        <v>28.23</v>
+      </c>
+      <c r="G715" s="0">
+        <v>170430</v>
+      </c>
+      <c r="H715" s="0">
+        <v>29.75</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="716">
+      <c r="A716" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B716" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C716" s="0">
+        <v>241061</v>
+      </c>
+      <c r="D716" s="0">
+        <v>15.0119411257352</v>
+      </c>
+      <c r="E716" s="0">
+        <v>136351</v>
+      </c>
+      <c r="F716" s="0">
+        <v>13.27</v>
+      </c>
+      <c r="G716" s="0">
+        <v>103388</v>
+      </c>
+      <c r="H716" s="0">
+        <v>18.05</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="717">
+      <c r="A717" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B717" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C717" s="0">
+        <v>144</v>
+      </c>
+      <c r="D717" s="0">
+        <v>8.96752076074468E-03</v>
+      </c>
+      <c r="E717" s="0">
+        <v>130</v>
+      </c>
+      <c r="F717" s="0">
+        <v>0.012</v>
+      </c>
+      <c r="G717" s="0">
+        <v>14</v>
+      </c>
+      <c r="H717" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="718">
+      <c r="A718" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B718" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C718" s="0">
+        <v>9210</v>
+      </c>
+      <c r="D718" s="0">
+        <v>0.56654784130509</v>
+      </c>
+      <c r="E718" s="0">
+        <v>6040</v>
+      </c>
+      <c r="F718" s="0">
+        <v>0.580389187464747</v>
+      </c>
+      <c r="G718" s="0">
+        <v>3150</v>
+      </c>
+      <c r="H718" s="0">
+        <v>0.543708089168127</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="719">
+      <c r="A719" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B719" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C719" s="0">
+        <v>113348</v>
+      </c>
+      <c r="D719" s="0">
+        <v>6.97253688558625</v>
+      </c>
+      <c r="E719" s="0">
+        <v>69185</v>
+      </c>
+      <c r="F719" s="0">
+        <v>6.64805065144843</v>
+      </c>
+      <c r="G719" s="0">
+        <v>43979</v>
+      </c>
+      <c r="H719" s="0">
+        <v>7.59102795350001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="720">
+      <c r="A720" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B720" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C720" s="0">
+        <v>149031</v>
+      </c>
+      <c r="D720" s="0">
+        <v>9.1675560627078</v>
+      </c>
+      <c r="E720" s="0">
+        <v>91556</v>
+      </c>
+      <c r="F720" s="0">
+        <v>8.79770073634476</v>
+      </c>
+      <c r="G720" s="0">
+        <v>57136</v>
+      </c>
+      <c r="H720" s="0">
+        <v>9.86200170879685</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="721">
+      <c r="A721" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B721" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C721" s="0">
+        <v>165028</v>
+      </c>
+      <c r="D721" s="0">
+        <v>10.1516022969486</v>
+      </c>
+      <c r="E721" s="0">
+        <v>103004</v>
+      </c>
+      <c r="F721" s="0">
+        <v>9.89774964662562</v>
+      </c>
+      <c r="G721" s="0">
+        <v>61571</v>
+      </c>
+      <c r="H721" s="0">
+        <v>10.6275081771971</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="722">
+      <c r="A722" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B722" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C722" s="0">
+        <v>185329</v>
+      </c>
+      <c r="D722" s="0">
+        <v>11.40040661034</v>
+      </c>
+      <c r="E722" s="0">
+        <v>117023</v>
+      </c>
+      <c r="F722" s="0">
+        <v>11.2448483252793</v>
+      </c>
+      <c r="G722" s="0">
+        <v>67763</v>
+      </c>
+      <c r="H722" s="0">
+        <v>11.6962829353333</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="723">
+      <c r="A723" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B723" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C723" s="0">
+        <v>294042</v>
+      </c>
+      <c r="D723" s="0">
+        <v>18.0878241425658</v>
+      </c>
+      <c r="E723" s="0">
+        <v>224799</v>
+      </c>
+      <c r="F723" s="0">
+        <v>21.6011438663721</v>
+      </c>
+      <c r="G723" s="0">
+        <v>68517</v>
+      </c>
+      <c r="H723" s="0">
+        <v>11.8264276652484</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="724">
+      <c r="A724" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B724" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C724" s="0">
+        <v>466952</v>
+      </c>
+      <c r="D724" s="0">
+        <v>28.724283126286</v>
+      </c>
+      <c r="E724" s="0">
+        <v>291944</v>
+      </c>
+      <c r="F724" s="0">
+        <v>28.0531690306636</v>
+      </c>
+      <c r="G724" s="0">
+        <v>173006</v>
+      </c>
+      <c r="H724" s="0">
+        <v>29.8618291030543</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="725">
+      <c r="A725" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B725" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C725" s="0">
+        <v>242550</v>
+      </c>
+      <c r="D725" s="0">
+        <v>14.9203234428393</v>
+      </c>
+      <c r="E725" s="0">
+        <v>136999</v>
+      </c>
+      <c r="F725" s="0">
+        <v>13.1643606446164</v>
+      </c>
+      <c r="G725" s="0">
+        <v>104219</v>
+      </c>
+      <c r="H725" s="0">
+        <v>17.9887978873057</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="726">
+      <c r="A726" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B726" s="1">
+        <v>44262</v>
+      </c>
+      <c r="C726" s="0">
+        <v>145</v>
+      </c>
+      <c r="D726" s="0">
+        <v>8.91959142119849E-03</v>
+      </c>
+      <c r="E726" s="0">
+        <v>131</v>
+      </c>
+      <c r="F726" s="0">
+        <v>1.25879111850798E-02</v>
+      </c>
+      <c r="G726" s="0">
+        <v>14</v>
+      </c>
+      <c r="H726" s="0">
+        <v>2.41648039630278E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$708</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$717</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H708"/>
+  <dimension ref="A1:H717"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -17524,13 +17524,13 @@
         <v>5761</v>
       </c>
       <c r="F700" s="0">
-        <v>0.571441041191168</v>
+        <v>0.571</v>
       </c>
       <c r="G700" s="0">
         <v>2997</v>
       </c>
       <c r="H700" s="0">
-        <v>0.54073559526924</v>
+        <v>0.54</v>
       </c>
     </row>
     <row outlineLevel="0" r="701">
@@ -17552,13 +17552,13 @@
         <v>67109</v>
       </c>
       <c r="F701" s="0">
-        <v>6.6566285077761</v>
+        <v>6.656</v>
       </c>
       <c r="G701" s="0">
         <v>42720</v>
       </c>
       <c r="H701" s="0">
-        <v>7.70778265929327</v>
+        <v>7.707</v>
       </c>
     </row>
     <row outlineLevel="0" r="702">
@@ -17580,13 +17580,13 @@
         <v>88458</v>
       </c>
       <c r="F702" s="0">
-        <v>8.77426343025315</v>
+        <v>8.774</v>
       </c>
       <c r="G702" s="0">
         <v>55587</v>
       </c>
       <c r="H702" s="0">
-        <v>10.0293191639077</v>
+        <v>10.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="703">
@@ -17608,13 +17608,13 @@
         <v>99062</v>
       </c>
       <c r="F703" s="0">
-        <v>9.82608790530802</v>
+        <v>9.826</v>
       </c>
       <c r="G703" s="0">
         <v>59715</v>
       </c>
       <c r="H703" s="0">
-        <v>10.7741161399742</v>
+        <v>10.77</v>
       </c>
     </row>
     <row outlineLevel="0" r="704">
@@ -17636,13 +17636,13 @@
         <v>112168</v>
       </c>
       <c r="F704" s="0">
-        <v>11.1260889964122</v>
+        <v>11.12</v>
       </c>
       <c r="G704" s="0">
         <v>65591</v>
       </c>
       <c r="H704" s="0">
-        <v>11.8342971068751</v>
+        <v>11.83</v>
       </c>
     </row>
     <row outlineLevel="0" r="705">
@@ -17664,13 +17664,13 @@
         <v>212603</v>
       </c>
       <c r="F705" s="0">
-        <v>21.0883665475379</v>
+        <v>21.08</v>
       </c>
       <c r="G705" s="0">
         <v>64275</v>
       </c>
       <c r="H705" s="0">
-        <v>11.5968569856291</v>
+        <v>11.59</v>
       </c>
     </row>
     <row outlineLevel="0" r="706">
@@ -17692,13 +17692,13 @@
         <v>287285</v>
       </c>
       <c r="F706" s="0">
-        <v>28.4961707201189</v>
+        <v>28.49</v>
       </c>
       <c r="G706" s="0">
         <v>162256</v>
       </c>
       <c r="H706" s="0">
-        <v>29.2751400553907</v>
+        <v>29.27</v>
       </c>
     </row>
     <row outlineLevel="0" r="707">
@@ -17720,13 +17720,13 @@
         <v>135577</v>
       </c>
       <c r="F707" s="0">
-        <v>13.4480579832625</v>
+        <v>13.44</v>
       </c>
       <c r="G707" s="0">
         <v>101090</v>
       </c>
       <c r="H707" s="0">
-        <v>18.2392263349241</v>
+        <v>18.23</v>
       </c>
     </row>
     <row outlineLevel="0" r="708">
@@ -17748,13 +17748,265 @@
         <v>130</v>
       </c>
       <c r="F708" s="0">
-        <v>1.28948681400541E-02</v>
+        <v>0.012</v>
       </c>
       <c r="G708" s="0">
         <v>14</v>
       </c>
       <c r="H708" s="0">
-        <v>2.52595873665978E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="709">
+      <c r="A709" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B709" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C709" s="0">
+        <v>9038</v>
+      </c>
+      <c r="D709" s="0">
+        <v>0.562836476636183</v>
+      </c>
+      <c r="E709" s="0">
+        <v>5917</v>
+      </c>
+      <c r="F709" s="0">
+        <v>0.575883923913636</v>
+      </c>
+      <c r="G709" s="0">
+        <v>3100</v>
+      </c>
+      <c r="H709" s="0">
+        <v>0.541293726929538</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="710">
+      <c r="A710" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B710" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C710" s="0">
+        <v>112239</v>
+      </c>
+      <c r="D710" s="0">
+        <v>6.98962196295293</v>
+      </c>
+      <c r="E710" s="0">
+        <v>68434</v>
+      </c>
+      <c r="F710" s="0">
+        <v>6.66047666876893</v>
+      </c>
+      <c r="G710" s="0">
+        <v>43618</v>
+      </c>
+      <c r="H710" s="0">
+        <v>7.61617734877825</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="711">
+      <c r="A711" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B711" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C711" s="0">
+        <v>147286</v>
+      </c>
+      <c r="D711" s="0">
+        <v>9.17215460254889</v>
+      </c>
+      <c r="E711" s="0">
+        <v>90339</v>
+      </c>
+      <c r="F711" s="0">
+        <v>8.79242484408213</v>
+      </c>
+      <c r="G711" s="0">
+        <v>56606</v>
+      </c>
+      <c r="H711" s="0">
+        <v>9.88402345373336</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="712">
+      <c r="A712" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B712" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C712" s="0">
+        <v>162852</v>
+      </c>
+      <c r="D712" s="0">
+        <v>10.1415186870055</v>
+      </c>
+      <c r="E712" s="0">
+        <v>101401</v>
+      </c>
+      <c r="F712" s="0">
+        <v>9.86905623944002</v>
+      </c>
+      <c r="G712" s="0">
+        <v>60992</v>
+      </c>
+      <c r="H712" s="0">
+        <v>10.6498667718988</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="713">
+      <c r="A713" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B713" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C713" s="0">
+        <v>182744</v>
+      </c>
+      <c r="D713" s="0">
+        <v>11.3802820409828</v>
+      </c>
+      <c r="E713" s="0">
+        <v>115066</v>
+      </c>
+      <c r="F713" s="0">
+        <v>11.1990298443546</v>
+      </c>
+      <c r="G713" s="0">
+        <v>67129</v>
+      </c>
+      <c r="H713" s="0">
+        <v>11.7214537403397</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="714">
+      <c r="A714" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B714" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C714" s="0">
+        <v>287946</v>
+      </c>
+      <c r="D714" s="0">
+        <v>17.9316787012041</v>
+      </c>
+      <c r="E714" s="0">
+        <v>219764</v>
+      </c>
+      <c r="F714" s="0">
+        <v>21.3889732389651</v>
+      </c>
+      <c r="G714" s="0">
+        <v>67425</v>
+      </c>
+      <c r="H714" s="0">
+        <v>11.7731385607174</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="715">
+      <c r="A715" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B715" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C715" s="0">
+        <v>462485</v>
+      </c>
+      <c r="D715" s="0">
+        <v>28.8009988821736</v>
+      </c>
+      <c r="E715" s="0">
+        <v>290062</v>
+      </c>
+      <c r="F715" s="0">
+        <v>28.2308674561834</v>
+      </c>
+      <c r="G715" s="0">
+        <v>170430</v>
+      </c>
+      <c r="H715" s="0">
+        <v>29.7589322195487</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="716">
+      <c r="A716" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B716" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C716" s="0">
+        <v>241061</v>
+      </c>
+      <c r="D716" s="0">
+        <v>15.0119411257352</v>
+      </c>
+      <c r="E716" s="0">
+        <v>136351</v>
+      </c>
+      <c r="F716" s="0">
+        <v>13.270635272866</v>
+      </c>
+      <c r="G716" s="0">
+        <v>103388</v>
+      </c>
+      <c r="H716" s="0">
+        <v>18.052669625739</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="717">
+      <c r="A717" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B717" s="1">
+        <v>44261</v>
+      </c>
+      <c r="C717" s="0">
+        <v>144</v>
+      </c>
+      <c r="D717" s="0">
+        <v>8.96752076074468E-03</v>
+      </c>
+      <c r="E717" s="0">
+        <v>130</v>
+      </c>
+      <c r="F717" s="0">
+        <v>1.26525114261911E-02</v>
+      </c>
+      <c r="G717" s="0">
+        <v>14</v>
+      </c>
+      <c r="H717" s="0">
+        <v>2.44455231516565E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$726</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$735</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H726"/>
+  <dimension ref="A1:H735"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18028,13 +18028,13 @@
         <v>6040</v>
       </c>
       <c r="F718" s="0">
-        <v>0.580389187464747</v>
+        <v>0.58</v>
       </c>
       <c r="G718" s="0">
         <v>3150</v>
       </c>
       <c r="H718" s="0">
-        <v>0.543708089168127</v>
+        <v>0.543</v>
       </c>
     </row>
     <row outlineLevel="0" r="719">
@@ -18056,13 +18056,13 @@
         <v>69185</v>
       </c>
       <c r="F719" s="0">
-        <v>6.64805065144843</v>
+        <v>6.648</v>
       </c>
       <c r="G719" s="0">
         <v>43979</v>
       </c>
       <c r="H719" s="0">
-        <v>7.59102795350001</v>
+        <v>7.591</v>
       </c>
     </row>
     <row outlineLevel="0" r="720">
@@ -18084,13 +18084,13 @@
         <v>91556</v>
       </c>
       <c r="F720" s="0">
-        <v>8.79770073634476</v>
+        <v>8.797</v>
       </c>
       <c r="G720" s="0">
         <v>57136</v>
       </c>
       <c r="H720" s="0">
-        <v>9.86200170879685</v>
+        <v>9.862</v>
       </c>
     </row>
     <row outlineLevel="0" r="721">
@@ -18112,13 +18112,13 @@
         <v>103004</v>
       </c>
       <c r="F721" s="0">
-        <v>9.89774964662562</v>
+        <v>9.897</v>
       </c>
       <c r="G721" s="0">
         <v>61571</v>
       </c>
       <c r="H721" s="0">
-        <v>10.6275081771971</v>
+        <v>10.62</v>
       </c>
     </row>
     <row outlineLevel="0" r="722">
@@ -18140,13 +18140,13 @@
         <v>117023</v>
       </c>
       <c r="F722" s="0">
-        <v>11.2448483252793</v>
+        <v>11.24</v>
       </c>
       <c r="G722" s="0">
         <v>67763</v>
       </c>
       <c r="H722" s="0">
-        <v>11.6962829353333</v>
+        <v>11.69</v>
       </c>
     </row>
     <row outlineLevel="0" r="723">
@@ -18168,13 +18168,13 @@
         <v>224799</v>
       </c>
       <c r="F723" s="0">
-        <v>21.6011438663721</v>
+        <v>21.6</v>
       </c>
       <c r="G723" s="0">
         <v>68517</v>
       </c>
       <c r="H723" s="0">
-        <v>11.8264276652484</v>
+        <v>11.82</v>
       </c>
     </row>
     <row outlineLevel="0" r="724">
@@ -18196,13 +18196,13 @@
         <v>291944</v>
       </c>
       <c r="F724" s="0">
-        <v>28.0531690306636</v>
+        <v>28.05</v>
       </c>
       <c r="G724" s="0">
         <v>173006</v>
       </c>
       <c r="H724" s="0">
-        <v>29.8618291030543</v>
+        <v>29.86</v>
       </c>
     </row>
     <row outlineLevel="0" r="725">
@@ -18224,13 +18224,13 @@
         <v>136999</v>
       </c>
       <c r="F725" s="0">
-        <v>13.1643606446164</v>
+        <v>13.16</v>
       </c>
       <c r="G725" s="0">
         <v>104219</v>
       </c>
       <c r="H725" s="0">
-        <v>17.9887978873057</v>
+        <v>17.98</v>
       </c>
     </row>
     <row outlineLevel="0" r="726">
@@ -18252,13 +18252,265 @@
         <v>131</v>
       </c>
       <c r="F726" s="0">
-        <v>1.25879111850798E-02</v>
+        <v>0.012</v>
       </c>
       <c r="G726" s="0">
         <v>14</v>
       </c>
       <c r="H726" s="0">
-        <v>2.41648039630278E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="727">
+      <c r="A727" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B727" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C727" s="0">
+        <v>9346</v>
+      </c>
+      <c r="D727" s="0">
+        <v>0.567079993107181</v>
+      </c>
+      <c r="E727" s="0">
+        <v>6145</v>
+      </c>
+      <c r="F727" s="0">
+        <v>0.582266870578515</v>
+      </c>
+      <c r="G727" s="0">
+        <v>3181</v>
+      </c>
+      <c r="H727" s="0">
+        <v>0.541790788023715</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="728">
+      <c r="A728" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B728" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C728" s="0">
+        <v>114276</v>
+      </c>
+      <c r="D728" s="0">
+        <v>6.93383621788104</v>
+      </c>
+      <c r="E728" s="0">
+        <v>69833</v>
+      </c>
+      <c r="F728" s="0">
+        <v>6.61699631783717</v>
+      </c>
+      <c r="G728" s="0">
+        <v>44294</v>
+      </c>
+      <c r="H728" s="0">
+        <v>7.54419401594544</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="729">
+      <c r="A729" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B729" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C729" s="0">
+        <v>150567</v>
+      </c>
+      <c r="D729" s="0">
+        <v>9.13583707705638</v>
+      </c>
+      <c r="E729" s="0">
+        <v>92698</v>
+      </c>
+      <c r="F729" s="0">
+        <v>8.78355970201581</v>
+      </c>
+      <c r="G729" s="0">
+        <v>57531</v>
+      </c>
+      <c r="H729" s="0">
+        <v>9.79873179056661</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="730">
+      <c r="A730" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B730" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C730" s="0">
+        <v>166841</v>
+      </c>
+      <c r="D730" s="0">
+        <v>10.1232819527065</v>
+      </c>
+      <c r="E730" s="0">
+        <v>104368</v>
+      </c>
+      <c r="F730" s="0">
+        <v>9.88934560594604</v>
+      </c>
+      <c r="G730" s="0">
+        <v>62025</v>
+      </c>
+      <c r="H730" s="0">
+        <v>10.5641539224052</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="731">
+      <c r="A731" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B731" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C731" s="0">
+        <v>188298</v>
+      </c>
+      <c r="D731" s="0">
+        <v>11.4252116993469</v>
+      </c>
+      <c r="E731" s="0">
+        <v>119461</v>
+      </c>
+      <c r="F731" s="0">
+        <v>11.3194764241139</v>
+      </c>
+      <c r="G731" s="0">
+        <v>68314</v>
+      </c>
+      <c r="H731" s="0">
+        <v>11.6353020726351</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="732">
+      <c r="A732" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B732" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C732" s="0">
+        <v>301672</v>
+      </c>
+      <c r="D732" s="0">
+        <v>18.3043179628322</v>
+      </c>
+      <c r="E732" s="0">
+        <v>231091</v>
+      </c>
+      <c r="F732" s="0">
+        <v>21.8969297622229</v>
+      </c>
+      <c r="G732" s="0">
+        <v>69878</v>
+      </c>
+      <c r="H732" s="0">
+        <v>11.9016839627542</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="733">
+      <c r="A733" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B733" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C733" s="0">
+        <v>472908</v>
+      </c>
+      <c r="D733" s="0">
+        <v>28.6942719217131</v>
+      </c>
+      <c r="E733" s="0">
+        <v>294002</v>
+      </c>
+      <c r="F733" s="0">
+        <v>27.8580349037957</v>
+      </c>
+      <c r="G733" s="0">
+        <v>176850</v>
+      </c>
+      <c r="H733" s="0">
+        <v>30.1212514498567</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="734">
+      <c r="A734" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B734" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C734" s="0">
+        <v>244039</v>
+      </c>
+      <c r="D734" s="0">
+        <v>14.8073651228208</v>
+      </c>
+      <c r="E734" s="0">
+        <v>137629</v>
+      </c>
+      <c r="F734" s="0">
+        <v>13.0409775640115</v>
+      </c>
+      <c r="G734" s="0">
+        <v>105040</v>
+      </c>
+      <c r="H734" s="0">
+        <v>17.8905075051905</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="735">
+      <c r="A735" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B735" s="1">
+        <v>44263</v>
+      </c>
+      <c r="C735" s="0">
+        <v>145</v>
+      </c>
+      <c r="D735" s="0">
+        <v>8.79805253590212E-03</v>
+      </c>
+      <c r="E735" s="0">
+        <v>131</v>
+      </c>
+      <c r="F735" s="0">
+        <v>1.24128494785656E-02</v>
+      </c>
+      <c r="G735" s="0">
+        <v>14</v>
+      </c>
+      <c r="H735" s="0">
+        <v>2.38449262255015E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$735</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$744</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H735"/>
+  <dimension ref="A1:H744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18280,13 +18280,13 @@
         <v>6145</v>
       </c>
       <c r="F727" s="0">
-        <v>0.582266870578515</v>
+        <v>0.582</v>
       </c>
       <c r="G727" s="0">
         <v>3181</v>
       </c>
       <c r="H727" s="0">
-        <v>0.541790788023715</v>
+        <v>0.541</v>
       </c>
     </row>
     <row outlineLevel="0" r="728">
@@ -18308,13 +18308,13 @@
         <v>69833</v>
       </c>
       <c r="F728" s="0">
-        <v>6.61699631783717</v>
+        <v>6.616</v>
       </c>
       <c r="G728" s="0">
         <v>44294</v>
       </c>
       <c r="H728" s="0">
-        <v>7.54419401594544</v>
+        <v>7.544</v>
       </c>
     </row>
     <row outlineLevel="0" r="729">
@@ -18336,13 +18336,13 @@
         <v>92698</v>
       </c>
       <c r="F729" s="0">
-        <v>8.78355970201581</v>
+        <v>8.783</v>
       </c>
       <c r="G729" s="0">
         <v>57531</v>
       </c>
       <c r="H729" s="0">
-        <v>9.79873179056661</v>
+        <v>9.798</v>
       </c>
     </row>
     <row outlineLevel="0" r="730">
@@ -18364,13 +18364,13 @@
         <v>104368</v>
       </c>
       <c r="F730" s="0">
-        <v>9.88934560594604</v>
+        <v>9.889</v>
       </c>
       <c r="G730" s="0">
         <v>62025</v>
       </c>
       <c r="H730" s="0">
-        <v>10.5641539224052</v>
+        <v>10.56</v>
       </c>
     </row>
     <row outlineLevel="0" r="731">
@@ -18392,13 +18392,13 @@
         <v>119461</v>
       </c>
       <c r="F731" s="0">
-        <v>11.3194764241139</v>
+        <v>11.31</v>
       </c>
       <c r="G731" s="0">
         <v>68314</v>
       </c>
       <c r="H731" s="0">
-        <v>11.6353020726351</v>
+        <v>11.63</v>
       </c>
     </row>
     <row outlineLevel="0" r="732">
@@ -18420,13 +18420,13 @@
         <v>231091</v>
       </c>
       <c r="F732" s="0">
-        <v>21.8969297622229</v>
+        <v>21.89</v>
       </c>
       <c r="G732" s="0">
         <v>69878</v>
       </c>
       <c r="H732" s="0">
-        <v>11.9016839627542</v>
+        <v>11.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="733">
@@ -18448,13 +18448,13 @@
         <v>294002</v>
       </c>
       <c r="F733" s="0">
-        <v>27.8580349037957</v>
+        <v>27.85</v>
       </c>
       <c r="G733" s="0">
         <v>176850</v>
       </c>
       <c r="H733" s="0">
-        <v>30.1212514498567</v>
+        <v>30.12</v>
       </c>
     </row>
     <row outlineLevel="0" r="734">
@@ -18476,13 +18476,13 @@
         <v>137629</v>
       </c>
       <c r="F734" s="0">
-        <v>13.0409775640115</v>
+        <v>13.04</v>
       </c>
       <c r="G734" s="0">
         <v>105040</v>
       </c>
       <c r="H734" s="0">
-        <v>17.8905075051905</v>
+        <v>17.89</v>
       </c>
     </row>
     <row outlineLevel="0" r="735">
@@ -18504,13 +18504,265 @@
         <v>131</v>
       </c>
       <c r="F735" s="0">
-        <v>1.24128494785656E-02</v>
+        <v>0.012</v>
       </c>
       <c r="G735" s="0">
         <v>14</v>
       </c>
       <c r="H735" s="0">
-        <v>2.38449262255015E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="736">
+      <c r="A736" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B736" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C736" s="0">
+        <v>9710</v>
+      </c>
+      <c r="D736" s="0">
+        <v>0.574495364100489</v>
+      </c>
+      <c r="E736" s="0">
+        <v>6463</v>
+      </c>
+      <c r="F736" s="0">
+        <v>0.596517621867083</v>
+      </c>
+      <c r="G736" s="0">
+        <v>3242</v>
+      </c>
+      <c r="H736" s="0">
+        <v>0.53892852630809</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="737">
+      <c r="A737" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B737" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C737" s="0">
+        <v>116597</v>
+      </c>
+      <c r="D737" s="0">
+        <v>6.89850009969358</v>
+      </c>
+      <c r="E737" s="0">
+        <v>71590</v>
+      </c>
+      <c r="F737" s="0">
+        <v>6.60756561186205</v>
+      </c>
+      <c r="G737" s="0">
+        <v>44908</v>
+      </c>
+      <c r="H737" s="0">
+        <v>7.46520735948295</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="738">
+      <c r="A738" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B738" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C738" s="0">
+        <v>154205</v>
+      </c>
+      <c r="D738" s="0">
+        <v>9.12358986829206</v>
+      </c>
+      <c r="E738" s="0">
+        <v>95580</v>
+      </c>
+      <c r="F738" s="0">
+        <v>8.82177847718641</v>
+      </c>
+      <c r="G738" s="0">
+        <v>58365</v>
+      </c>
+      <c r="H738" s="0">
+        <v>9.70220957371119</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="739">
+      <c r="A739" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B739" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C739" s="0">
+        <v>171095</v>
+      </c>
+      <c r="D739" s="0">
+        <v>10.1228923090395</v>
+      </c>
+      <c r="E739" s="0">
+        <v>107820</v>
+      </c>
+      <c r="F739" s="0">
+        <v>9.95149775486753</v>
+      </c>
+      <c r="G739" s="0">
+        <v>62938</v>
+      </c>
+      <c r="H739" s="0">
+        <v>10.4623946911717</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="740">
+      <c r="A740" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B740" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C740" s="0">
+        <v>194578</v>
+      </c>
+      <c r="D740" s="0">
+        <v>11.5122717771313</v>
+      </c>
+      <c r="E740" s="0">
+        <v>124833</v>
+      </c>
+      <c r="F740" s="0">
+        <v>11.5217521724483</v>
+      </c>
+      <c r="G740" s="0">
+        <v>69379</v>
+      </c>
+      <c r="H740" s="0">
+        <v>11.5331037096635</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="741">
+      <c r="A741" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B741" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C741" s="0">
+        <v>314371</v>
+      </c>
+      <c r="D741" s="0">
+        <v>18.5998642747307</v>
+      </c>
+      <c r="E741" s="0">
+        <v>241082</v>
+      </c>
+      <c r="F741" s="0">
+        <v>22.2512240932941</v>
+      </c>
+      <c r="G741" s="0">
+        <v>72773</v>
+      </c>
+      <c r="H741" s="0">
+        <v>12.0972997054345</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="742">
+      <c r="A742" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B742" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C742" s="0">
+        <v>482759</v>
+      </c>
+      <c r="D742" s="0">
+        <v>28.5625960327279</v>
+      </c>
+      <c r="E742" s="0">
+        <v>297308</v>
+      </c>
+      <c r="F742" s="0">
+        <v>27.4407335791519</v>
+      </c>
+      <c r="G742" s="0">
+        <v>183296</v>
+      </c>
+      <c r="H742" s="0">
+        <v>30.4699084386699</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="743">
+      <c r="A743" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B743" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C743" s="0">
+        <v>246717</v>
+      </c>
+      <c r="D743" s="0">
+        <v>14.5970929706262</v>
+      </c>
+      <c r="E743" s="0">
+        <v>138647</v>
+      </c>
+      <c r="F743" s="0">
+        <v>12.7967474422103</v>
+      </c>
+      <c r="G743" s="0">
+        <v>106647</v>
+      </c>
+      <c r="H743" s="0">
+        <v>17.7282882619306</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="744">
+      <c r="A744" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B744" s="1">
+        <v>44264</v>
+      </c>
+      <c r="C744" s="0">
+        <v>147</v>
+      </c>
+      <c r="D744" s="0">
+        <v>8.69730365836991E-03</v>
+      </c>
+      <c r="E744" s="0">
+        <v>132</v>
+      </c>
+      <c r="F744" s="0">
+        <v>1.21832471122474E-02</v>
+      </c>
+      <c r="G744" s="0">
+        <v>16</v>
+      </c>
+      <c r="H744" s="0">
+        <v>2.65973362767719E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$744</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$753</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H744"/>
+  <dimension ref="A1:H753"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18532,13 +18532,13 @@
         <v>6463</v>
       </c>
       <c r="F736" s="0">
-        <v>0.596517621867083</v>
+        <v>0.596</v>
       </c>
       <c r="G736" s="0">
         <v>3242</v>
       </c>
       <c r="H736" s="0">
-        <v>0.53892852630809</v>
+        <v>0.538</v>
       </c>
     </row>
     <row outlineLevel="0" r="737">
@@ -18560,13 +18560,13 @@
         <v>71590</v>
       </c>
       <c r="F737" s="0">
-        <v>6.60756561186205</v>
+        <v>6.607</v>
       </c>
       <c r="G737" s="0">
         <v>44908</v>
       </c>
       <c r="H737" s="0">
-        <v>7.46520735948295</v>
+        <v>7.465</v>
       </c>
     </row>
     <row outlineLevel="0" r="738">
@@ -18588,13 +18588,13 @@
         <v>95580</v>
       </c>
       <c r="F738" s="0">
-        <v>8.82177847718641</v>
+        <v>8.821</v>
       </c>
       <c r="G738" s="0">
         <v>58365</v>
       </c>
       <c r="H738" s="0">
-        <v>9.70220957371119</v>
+        <v>9.702</v>
       </c>
     </row>
     <row outlineLevel="0" r="739">
@@ -18616,13 +18616,13 @@
         <v>107820</v>
       </c>
       <c r="F739" s="0">
-        <v>9.95149775486753</v>
+        <v>9.951</v>
       </c>
       <c r="G739" s="0">
         <v>62938</v>
       </c>
       <c r="H739" s="0">
-        <v>10.4623946911717</v>
+        <v>10.46</v>
       </c>
     </row>
     <row outlineLevel="0" r="740">
@@ -18644,13 +18644,13 @@
         <v>124833</v>
       </c>
       <c r="F740" s="0">
-        <v>11.5217521724483</v>
+        <v>11.52</v>
       </c>
       <c r="G740" s="0">
         <v>69379</v>
       </c>
       <c r="H740" s="0">
-        <v>11.5331037096635</v>
+        <v>11.53</v>
       </c>
     </row>
     <row outlineLevel="0" r="741">
@@ -18672,13 +18672,13 @@
         <v>241082</v>
       </c>
       <c r="F741" s="0">
-        <v>22.2512240932941</v>
+        <v>22.25</v>
       </c>
       <c r="G741" s="0">
         <v>72773</v>
       </c>
       <c r="H741" s="0">
-        <v>12.0972997054345</v>
+        <v>12.09</v>
       </c>
     </row>
     <row outlineLevel="0" r="742">
@@ -18700,13 +18700,13 @@
         <v>297308</v>
       </c>
       <c r="F742" s="0">
-        <v>27.4407335791519</v>
+        <v>27.44</v>
       </c>
       <c r="G742" s="0">
         <v>183296</v>
       </c>
       <c r="H742" s="0">
-        <v>30.4699084386699</v>
+        <v>30.46</v>
       </c>
     </row>
     <row outlineLevel="0" r="743">
@@ -18728,13 +18728,13 @@
         <v>138647</v>
       </c>
       <c r="F743" s="0">
-        <v>12.7967474422103</v>
+        <v>12.79</v>
       </c>
       <c r="G743" s="0">
         <v>106647</v>
       </c>
       <c r="H743" s="0">
-        <v>17.7282882619306</v>
+        <v>17.72</v>
       </c>
     </row>
     <row outlineLevel="0" r="744">
@@ -18756,13 +18756,265 @@
         <v>132</v>
       </c>
       <c r="F744" s="0">
-        <v>1.21832471122474E-02</v>
+        <v>0.012</v>
       </c>
       <c r="G744" s="0">
         <v>16</v>
       </c>
       <c r="H744" s="0">
-        <v>2.65973362767719E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="745">
+      <c r="A745" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B745" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C745" s="0">
+        <v>10221</v>
+      </c>
+      <c r="D745" s="0">
+        <v>0.586270901782273</v>
+      </c>
+      <c r="E745" s="0">
+        <v>6923</v>
+      </c>
+      <c r="F745" s="0">
+        <v>0.617380835599946</v>
+      </c>
+      <c r="G745" s="0">
+        <v>3343</v>
+      </c>
+      <c r="H745" s="0">
+        <v>0.540364920084829</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="746">
+      <c r="A746" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B746" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C746" s="0">
+        <v>119536</v>
+      </c>
+      <c r="D746" s="0">
+        <v>6.85651878636589</v>
+      </c>
+      <c r="E746" s="0">
+        <v>74053</v>
+      </c>
+      <c r="F746" s="0">
+        <v>6.60391492397557</v>
+      </c>
+      <c r="G746" s="0">
+        <v>45547</v>
+      </c>
+      <c r="H746" s="0">
+        <v>7.36224978016862</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="747">
+      <c r="A747" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B747" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C747" s="0">
+        <v>159269</v>
+      </c>
+      <c r="D747" s="0">
+        <v>9.13558167067418</v>
+      </c>
+      <c r="E747" s="0">
+        <v>99948</v>
+      </c>
+      <c r="F747" s="0">
+        <v>8.91318500022295</v>
+      </c>
+      <c r="G747" s="0">
+        <v>59320</v>
+      </c>
+      <c r="H747" s="0">
+        <v>9.58852738840325</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="748">
+      <c r="A748" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B748" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C748" s="0">
+        <v>177420</v>
+      </c>
+      <c r="D748" s="0">
+        <v>10.1767129825077</v>
+      </c>
+      <c r="E748" s="0">
+        <v>113322</v>
+      </c>
+      <c r="F748" s="0">
+        <v>10.1058545503188</v>
+      </c>
+      <c r="G748" s="0">
+        <v>64171</v>
+      </c>
+      <c r="H748" s="0">
+        <v>10.3726465111467</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="749">
+      <c r="A749" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B749" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C749" s="0">
+        <v>204108</v>
+      </c>
+      <c r="D749" s="0">
+        <v>11.7075218883648</v>
+      </c>
+      <c r="E749" s="0">
+        <v>133319</v>
+      </c>
+      <c r="F749" s="0">
+        <v>11.8891514692112</v>
+      </c>
+      <c r="G749" s="0">
+        <v>70987</v>
+      </c>
+      <c r="H749" s="0">
+        <v>11.474389644649</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="750">
+      <c r="A750" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B750" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C750" s="0">
+        <v>329999</v>
+      </c>
+      <c r="D750" s="0">
+        <v>18.9285599566821</v>
+      </c>
+      <c r="E750" s="0">
+        <v>252961</v>
+      </c>
+      <c r="F750" s="0">
+        <v>22.5586123868551</v>
+      </c>
+      <c r="G750" s="0">
+        <v>76942</v>
+      </c>
+      <c r="H750" s="0">
+        <v>12.4369601200021</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="751">
+      <c r="A751" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B751" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C751" s="0">
+        <v>493246</v>
+      </c>
+      <c r="D751" s="0">
+        <v>28.2923175051853</v>
+      </c>
+      <c r="E751" s="0">
+        <v>300957</v>
+      </c>
+      <c r="F751" s="0">
+        <v>26.8388103625095</v>
+      </c>
+      <c r="G751" s="0">
+        <v>190105</v>
+      </c>
+      <c r="H751" s="0">
+        <v>30.7287086846325</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="752">
+      <c r="A752" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B752" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C752" s="0">
+        <v>249433</v>
+      </c>
+      <c r="D752" s="0">
+        <v>14.3073387970118</v>
+      </c>
+      <c r="E752" s="0">
+        <v>139722</v>
+      </c>
+      <c r="F752" s="0">
+        <v>12.4601596290186</v>
+      </c>
+      <c r="G752" s="0">
+        <v>108224</v>
+      </c>
+      <c r="H752" s="0">
+        <v>17.4934050587079</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="753">
+      <c r="A753" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B753" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C753" s="0">
+        <v>160</v>
+      </c>
+      <c r="D753" s="0">
+        <v>9.17751142600173E-03</v>
+      </c>
+      <c r="E753" s="0">
+        <v>145</v>
+      </c>
+      <c r="F753" s="0">
+        <v>1.29308422883132E-02</v>
+      </c>
+      <c r="G753" s="0">
+        <v>17</v>
+      </c>
+      <c r="H753" s="0">
+        <v>2.74789220503802E-03</v>
       </c>
     </row>
   </sheetData>

--- a/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
+++ b/data_tndoh/COVID_VACCINE_AGE_GROUPS.XLSX
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="FINAL_AGEGROUPS"/>
   </sheets>
   <definedNames>
-    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$753</definedName>
+    <definedName name="FINAL_AGEGROUPS">'FINAL_AGEGROUPS'!$A$1:$H$762</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H753"/>
+  <dimension ref="A1:H762"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18784,13 +18784,13 @@
         <v>6923</v>
       </c>
       <c r="F745" s="0">
-        <v>0.617380835599946</v>
+        <v>0.617</v>
       </c>
       <c r="G745" s="0">
         <v>3343</v>
       </c>
       <c r="H745" s="0">
-        <v>0.540364920084829</v>
+        <v>0.54</v>
       </c>
     </row>
     <row outlineLevel="0" r="746">
@@ -18812,13 +18812,13 @@
         <v>74053</v>
       </c>
       <c r="F746" s="0">
-        <v>6.60391492397557</v>
+        <v>6.603</v>
       </c>
       <c r="G746" s="0">
         <v>45547</v>
       </c>
       <c r="H746" s="0">
-        <v>7.36224978016862</v>
+        <v>7.362</v>
       </c>
     </row>
     <row outlineLevel="0" r="747">
@@ -18840,13 +18840,13 @@
         <v>99948</v>
       </c>
       <c r="F747" s="0">
-        <v>8.91318500022295</v>
+        <v>8.913</v>
       </c>
       <c r="G747" s="0">
         <v>59320</v>
       </c>
       <c r="H747" s="0">
-        <v>9.58852738840325</v>
+        <v>9.588</v>
       </c>
     </row>
     <row outlineLevel="0" r="748">
@@ -18868,13 +18868,13 @@
         <v>113322</v>
       </c>
       <c r="F748" s="0">
-        <v>10.1058545503188</v>
+        <v>10.1</v>
       </c>
       <c r="G748" s="0">
         <v>64171</v>
       </c>
       <c r="H748" s="0">
-        <v>10.3726465111467</v>
+        <v>10.37</v>
       </c>
     </row>
     <row outlineLevel="0" r="749">
@@ -18896,13 +18896,13 @@
         <v>133319</v>
       </c>
       <c r="F749" s="0">
-        <v>11.8891514692112</v>
+        <v>11.88</v>
       </c>
       <c r="G749" s="0">
         <v>70987</v>
       </c>
       <c r="H749" s="0">
-        <v>11.474389644649</v>
+        <v>11.47</v>
       </c>
     </row>
     <row outlineLevel="0" r="750">
@@ -18924,13 +18924,13 @@
         <v>252961</v>
       </c>
       <c r="F750" s="0">
-        <v>22.5586123868551</v>
+        <v>22.55</v>
       </c>
       <c r="G750" s="0">
         <v>76942</v>
       </c>
       <c r="H750" s="0">
-        <v>12.4369601200021</v>
+        <v>12.43</v>
       </c>
     </row>
     <row outlineLevel="0" r="751">
@@ -18952,13 +18952,13 @@
         <v>300957</v>
       </c>
       <c r="F751" s="0">
-        <v>26.8388103625095</v>
+        <v>26.83</v>
       </c>
       <c r="G751" s="0">
         <v>190105</v>
       </c>
       <c r="H751" s="0">
-        <v>30.7287086846325</v>
+        <v>30.72</v>
       </c>
     </row>
     <row outlineLevel="0" r="752">
@@ -18980,13 +18980,13 @@
         <v>139722</v>
       </c>
       <c r="F752" s="0">
-        <v>12.4601596290186</v>
+        <v>12.46</v>
       </c>
       <c r="G752" s="0">
         <v>108224</v>
       </c>
       <c r="H752" s="0">
-        <v>17.4934050587079</v>
+        <v>17.49</v>
       </c>
     </row>
     <row outlineLevel="0" r="753">
@@ -19008,13 +19008,265 @@
         <v>145</v>
       </c>
       <c r="F753" s="0">
-        <v>1.29308422883132E-02</v>
+        <v>0.012</v>
       </c>
       <c r="G753" s="0">
         <v>17</v>
       </c>
       <c r="H753" s="0">
-        <v>2.74789220503802E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="754">
+      <c r="A754" s="0" t="inlineStr">
+        <is>
+          <t>16-20</t>
+        </is>
+      </c>
+      <c r="B754" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C754" s="0">
+        <v>10891</v>
+      </c>
+      <c r="D754" s="0">
+        <v>0.606497672242889</v>
+      </c>
+      <c r="E754" s="0">
+        <v>7525</v>
+      </c>
+      <c r="F754" s="0">
+        <v>0.648577181115501</v>
+      </c>
+      <c r="G754" s="0">
+        <v>3439</v>
+      </c>
+      <c r="H754" s="0">
+        <v>0.542523150704381</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="755">
+      <c r="A755" s="0" t="inlineStr">
+        <is>
+          <t>21-30</t>
+        </is>
+      </c>
+      <c r="B755" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C755" s="0">
+        <v>122610</v>
+      </c>
+      <c r="D755" s="0">
+        <v>6.82790190007351</v>
+      </c>
+      <c r="E755" s="0">
+        <v>76638</v>
+      </c>
+      <c r="F755" s="0">
+        <v>6.60540305731957</v>
+      </c>
+      <c r="G755" s="0">
+        <v>46214</v>
+      </c>
+      <c r="H755" s="0">
+        <v>7.29053936802915</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="756">
+      <c r="A756" s="0" t="inlineStr">
+        <is>
+          <t>31-40</t>
+        </is>
+      </c>
+      <c r="B756" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C756" s="0">
+        <v>164493</v>
+      </c>
+      <c r="D756" s="0">
+        <v>9.16028111286838</v>
+      </c>
+      <c r="E756" s="0">
+        <v>104486</v>
+      </c>
+      <c r="F756" s="0">
+        <v>9.00561267056933</v>
+      </c>
+      <c r="G756" s="0">
+        <v>60335</v>
+      </c>
+      <c r="H756" s="0">
+        <v>9.51821293915348</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="757">
+      <c r="A757" s="0" t="inlineStr">
+        <is>
+          <t>41-50</t>
+        </is>
+      </c>
+      <c r="B757" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C757" s="0">
+        <v>184003</v>
+      </c>
+      <c r="D757" s="0">
+        <v>10.2467533913973</v>
+      </c>
+      <c r="E757" s="0">
+        <v>119063</v>
+      </c>
+      <c r="F757" s="0">
+        <v>10.2619993242731</v>
+      </c>
+      <c r="G757" s="0">
+        <v>65451</v>
+      </c>
+      <c r="H757" s="0">
+        <v>10.3252930319141</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="758">
+      <c r="A758" s="0" t="inlineStr">
+        <is>
+          <t>51-60</t>
+        </is>
+      </c>
+      <c r="B758" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C758" s="0">
+        <v>214080</v>
+      </c>
+      <c r="D758" s="0">
+        <v>11.9216804401577</v>
+      </c>
+      <c r="E758" s="0">
+        <v>142158</v>
+      </c>
+      <c r="F758" s="0">
+        <v>12.252549490102</v>
+      </c>
+      <c r="G758" s="0">
+        <v>72671</v>
+      </c>
+      <c r="H758" s="0">
+        <v>11.4642919118459</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="759">
+      <c r="A759" s="0" t="inlineStr">
+        <is>
+          <t>61-70</t>
+        </is>
+      </c>
+      <c r="B759" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C759" s="0">
+        <v>344695</v>
+      </c>
+      <c r="D759" s="0">
+        <v>19.1953645334462</v>
+      </c>
+      <c r="E759" s="0">
+        <v>264964</v>
+      </c>
+      <c r="F759" s="0">
+        <v>22.8371567065897</v>
+      </c>
+      <c r="G759" s="0">
+        <v>80090</v>
+      </c>
+      <c r="H759" s="0">
+        <v>12.6346842512108</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="760">
+      <c r="A760" s="0" t="inlineStr">
+        <is>
+          <t>71-80</t>
+        </is>
+      </c>
+      <c r="B760" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C760" s="0">
+        <v>502860</v>
+      </c>
+      <c r="D760" s="0">
+        <v>28.0032521773996</v>
+      </c>
+      <c r="E760" s="0">
+        <v>304446</v>
+      </c>
+      <c r="F760" s="0">
+        <v>26.2400968082246</v>
+      </c>
+      <c r="G760" s="0">
+        <v>196139</v>
+      </c>
+      <c r="H760" s="0">
+        <v>30.9421192951458</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="761">
+      <c r="A761" s="0" t="inlineStr">
+        <is>
+          <t>81+</t>
+        </is>
+      </c>
+      <c r="B761" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C761" s="0">
+        <v>251920</v>
+      </c>
+      <c r="D761" s="0">
+        <v>14.0289131935937</v>
+      </c>
+      <c r="E761" s="0">
+        <v>140799</v>
+      </c>
+      <c r="F761" s="0">
+        <v>12.1354177440374</v>
+      </c>
+      <c r="G761" s="0">
+        <v>109533</v>
+      </c>
+      <c r="H761" s="0">
+        <v>17.2794964426005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="762">
+      <c r="A762" s="0" t="inlineStr">
+        <is>
+          <t>PENDING</t>
+        </is>
+      </c>
+      <c r="B762" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C762" s="0">
+        <v>168</v>
+      </c>
+      <c r="D762" s="0">
+        <v>9.35557882075157E-03</v>
+      </c>
+      <c r="E762" s="0">
+        <v>153</v>
+      </c>
+      <c r="F762" s="0">
+        <v>0.01318701776886</v>
+      </c>
+      <c r="G762" s="0">
+        <v>18</v>
+      </c>
+      <c r="H762" s="0">
+        <v>2.83960939595198E-03</v>
       </c>
     </row>
   </sheetData>
